--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -44,25 +44,52 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>DIASTOP SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>LANTANON 30MG 10 CAPS.</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>57.00</t>
   </si>
   <si>
     <t>57.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>Thursday, 19 June, 2025 9:49 AM</t>
+    <t>Thursday, 19 June, 2025 9:55 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -724,38 +751,104 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>57</v>
-      </c>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>23</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>24</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>113.73</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>26</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>27</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>28</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +862,20 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -89,7 +89,19 @@
     <t>57.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 9:55 AM</t>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 19 June, 2025 9:58 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -817,38 +829,71 @@
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>113.73</v>
-      </c>
-      <c r="Q10" s="13"/>
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>23</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>27</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>28</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>21</v>
+      </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
-        <v>26</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>27</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>28</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>116.73</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>30</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>31</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>32</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -872,10 +917,15 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALZEPIZIL 10MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>81.00</t>
   </si>
   <si>
@@ -62,6 +77,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CERVETOLKA 500MG 20CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>340.0000</t>
+  </si>
+  <si>
     <t>DIASTOP SUSP. 60ML</t>
   </si>
   <si>
@@ -74,15 +101,9 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>LANTANON 30MG 10 CAPS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>57.00</t>
   </si>
   <si>
@@ -92,16 +113,13 @@
     <t>حبايه</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>3.00</t>
   </si>
   <si>
     <t>3.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 9:58 AM</t>
+    <t>Thursday, 19 June, 2025 10:00 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -808,13 +826,13 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -825,7 +843,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -841,13 +859,13 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -858,42 +876,108 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>116.73</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>30</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>12</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
         <v>31</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
         <v>32</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>12</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>23</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>34</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>526.73000000000002</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>36</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>37</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>38</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -922,10 +1006,20 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -119,7 +119,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 10:00 AM</t>
+    <t>Thursday, 19 June, 2025 10:14 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -119,7 +119,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 10:14 AM</t>
+    <t>Thursday, 19 June, 2025 10:18 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -89,6 +89,15 @@
     <t>340.0000</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
     <t>DIASTOP SUSP. 60ML</t>
   </si>
   <si>
@@ -101,6 +110,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>LANTANON 30MG 10 CAPS.</t>
   </si>
   <si>
@@ -110,6 +128,15 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -119,7 +146,16 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 10:18 AM</t>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 19 June, 2025 10:20 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -859,7 +895,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -869,14 +905,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -885,14 +921,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -925,13 +961,13 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -946,38 +982,170 @@
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>526.73000000000002</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>36</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>12</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>37</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
         <v>38</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>39</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>21</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>40</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>42</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>12</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>23</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>43</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>45</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>12</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>23</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>46</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>631.375</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>48</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>49</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>50</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1016,10 +1184,30 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -137,6 +137,15 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -155,7 +164,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 10:20 AM</t>
+    <t>Thursday, 19 June, 2025 11:45 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1060,13 +1069,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1114,38 +1123,71 @@
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>631.375</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>48</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>12</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>23</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>49</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
         <v>50</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>683.375</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>51</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>52</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>53</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1204,10 +1246,15 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -77,6 +77,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>BIONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
     <t>CERVETOLKA 500MG 20CAPS</t>
   </si>
   <si>
@@ -128,6 +137,15 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
@@ -146,6 +164,18 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -164,7 +194,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 11:45 AM</t>
+    <t>Thursday, 19 June, 2025 11:46 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -871,21 +901,21 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -897,20 +927,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -921,7 +951,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -937,7 +967,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -947,14 +977,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -963,14 +993,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1003,7 +1033,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1036,7 +1066,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1053,7 +1083,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1069,7 +1099,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1102,13 +1132,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1119,7 +1149,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1135,13 +1165,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1156,38 +1186,137 @@
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>683.375</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>51</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
         <v>52</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>53</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>55</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>12</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>26</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>56</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>58</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>12</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>26</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>59</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>1013.375</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>61</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>62</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>63</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1251,10 +1380,25 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>340.0000</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -137,6 +149,12 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -155,6 +173,18 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
   </si>
   <si>
@@ -176,6 +206,15 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -194,7 +233,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 11:46 AM</t>
+    <t>Thursday, 19 June, 2025 11:49 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -967,7 +1006,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -977,14 +1016,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -993,14 +1032,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1017,7 +1056,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1033,7 +1072,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1043,11 +1082,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1059,14 +1098,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1076,11 +1115,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1092,14 +1131,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1109,11 +1148,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1125,14 +1164,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1142,14 +1181,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1165,7 +1204,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1198,7 +1237,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1208,14 +1247,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1224,20 +1263,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1264,13 +1303,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1285,38 +1324,170 @@
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>1013.375</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>61</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
         <v>62</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>13</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>63</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>65</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>37</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>13</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>66</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>68</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>12</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>26</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>69</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>71</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>12</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>26</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>72</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>1175.375</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>74</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>75</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>76</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1395,10 +1566,30 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -110,6 +110,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>COLLOMAK TOP. SOUTION 10 ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -233,7 +242,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 11:49 AM</t>
+    <t>Thursday, 19 June, 2025 11:55 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1039,7 +1048,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1056,7 +1065,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1072,7 +1081,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1082,14 +1091,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1098,14 +1107,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1138,7 +1147,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1171,7 +1180,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1181,11 +1190,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1197,14 +1206,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1214,11 +1223,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1237,7 +1246,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1254,7 +1263,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1270,7 +1279,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1280,14 +1289,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1296,14 +1305,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1336,7 +1345,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1346,11 +1355,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1362,14 +1371,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1402,13 +1411,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1456,38 +1465,71 @@
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>1175.375</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>74</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>12</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>26</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
         <v>75</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
         <v>76</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>1203.375</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>77</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>78</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>79</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1586,10 +1628,15 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -242,7 +242,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 11:55 AM</t>
+    <t>Thursday, 19 June, 2025 11:56 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -242,7 +242,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 11:56 AM</t>
+    <t>Thursday, 19 June, 2025 12:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -242,7 +242,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 12:12 PM</t>
+    <t>Thursday, 19 June, 2025 12:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -86,6 +86,15 @@
     <t>192.0000</t>
   </si>
   <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
     <t>CERVETOLKA 500MG 20CAPS</t>
   </si>
   <si>
@@ -239,10 +248,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>Thursday, 19 June, 2025 12:17 PM</t>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 19 June, 2025 12:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -982,24 +991,24 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1008,28 +1017,28 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1041,14 +1050,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1081,7 +1090,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1098,7 +1107,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1114,7 +1123,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1124,14 +1133,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1140,14 +1149,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1180,7 +1189,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1213,7 +1222,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1223,11 +1232,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1239,14 +1248,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1256,11 +1265,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1279,7 +1288,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1296,7 +1305,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1312,7 +1321,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1322,14 +1331,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1338,14 +1347,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1378,7 +1387,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1388,11 +1397,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1404,14 +1413,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1444,13 +1453,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1483,7 +1492,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1498,38 +1507,71 @@
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>1203.375</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>77</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>12</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>29</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
         <v>78</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
         <v>79</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c t="s" r="Q26" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>1224.5750000000001</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>80</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>81</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>82</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1633,10 +1675,15 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -251,7 +251,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 12:20 PM</t>
+    <t>Thursday, 19 June, 2025 12:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -149,6 +149,24 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
@@ -206,12 +224,6 @@
     <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
   </si>
   <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -224,6 +236,15 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/850MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
@@ -251,7 +272,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 12:23 PM</t>
+    <t>Thursday, 19 June, 2025 12:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1189,13 +1210,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1222,7 +1243,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1255,7 +1276,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1265,11 +1286,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1281,14 +1302,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1298,11 +1319,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1314,14 +1335,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1331,14 +1352,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1354,7 +1375,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1364,11 +1385,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1380,14 +1401,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1397,14 +1418,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1413,14 +1434,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1430,11 +1451,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1446,14 +1467,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1463,11 +1484,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1479,28 +1500,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1512,66 +1533,165 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>78</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>43</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>13</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>79</v>
       </c>
-      <c t="s" r="Q26" s="12">
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>81</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>12</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>29</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>82</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>84</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>12</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>29</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>85</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>43</v>
       </c>
     </row>
-    <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>1224.5750000000001</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
-        <v>80</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
-        <v>81</v>
-      </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
-        <v>82</v>
-      </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>1480.5750000000001</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>87</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>88</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>89</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1680,10 +1800,25 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -272,7 +272,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 12:43 PM</t>
+    <t>Thursday, 19 June, 2025 12:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -272,7 +272,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 12:49 PM</t>
+    <t>Thursday, 19 June, 2025 1:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -209,6 +209,9 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -254,6 +257,18 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -272,7 +287,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 1:14 PM</t>
+    <t>Thursday, 19 June, 2025 3:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1441,7 +1456,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1451,11 +1466,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1467,14 +1482,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1484,11 +1499,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1507,7 +1522,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1517,11 +1532,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1533,14 +1548,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1550,11 +1565,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1566,14 +1581,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1583,11 +1598,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1599,28 +1614,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1632,14 +1647,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1649,49 +1664,115 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
         <v>86</v>
       </c>
-      <c t="s" r="Q29" s="12">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>12</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>29</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>87</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>89</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>12</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>29</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>90</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>43</v>
       </c>
     </row>
-    <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>1480.5750000000001</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
-        <v>87</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
-        <v>88</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
-        <v>89</v>
-      </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1516.5750000000001</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>92</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>93</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>94</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1815,10 +1896,20 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>26.7300</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BIONAL 30 CAP</t>
   </si>
   <si>
@@ -92,7 +104,7 @@
     <t>120.00</t>
   </si>
   <si>
-    <t>19.2000</t>
+    <t>38.4000</t>
   </si>
   <si>
     <t>CERVETOLKA 500MG 20CAPS</t>
@@ -137,6 +149,18 @@
     <t>47.0250</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DIASTOP SUSP. 60ML</t>
   </si>
   <si>
@@ -158,6 +182,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>99.9900</t>
+  </si>
+  <si>
     <t>IVERZINE 1% LOTION 60 ML</t>
   </si>
   <si>
@@ -231,9 +264,6 @@
   </si>
   <si>
     <t>2:2</t>
-  </si>
-  <si>
-    <t>78.00</t>
   </si>
   <si>
     <t>78.0000</t>
@@ -994,7 +1024,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1004,14 +1034,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1020,14 +1050,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1037,14 +1067,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1053,20 +1083,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1077,7 +1107,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1093,13 +1123,13 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1126,7 +1156,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1136,11 +1166,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1152,14 +1182,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1169,14 +1199,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1185,14 +1215,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1209,7 +1239,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1225,24 +1255,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1251,14 +1281,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1268,11 +1298,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1284,28 +1314,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1317,14 +1347,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1334,14 +1364,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1350,14 +1380,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1367,11 +1397,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1383,14 +1413,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1400,11 +1430,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1416,14 +1446,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1433,14 +1463,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1449,14 +1479,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1466,11 +1496,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1482,14 +1512,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1499,11 +1529,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1515,14 +1545,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1532,14 +1562,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1548,14 +1578,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1565,11 +1595,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1581,14 +1611,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1598,11 +1628,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1614,14 +1644,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1631,11 +1661,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1647,24 +1677,24 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -1687,13 +1717,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1720,13 +1750,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1737,42 +1767,141 @@
         <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1516.5750000000001</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>92</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
         <v>93</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>33</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
         <v>94</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>96</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>12</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>33</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>97</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>99</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>12</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>33</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>100</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1660.125</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>102</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>103</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>104</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1906,10 +2035,25 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -317,7 +317,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 3:35 PM</t>
+    <t>Thursday, 19 June, 2025 3:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -276,6 +276,18 @@
   </si>
   <si>
     <t>132.0000</t>
+  </si>
+  <si>
+    <t>TEBOFORTIN 80MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
   </si>
   <si>
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
@@ -1750,7 +1762,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1760,14 +1772,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1776,20 +1788,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1816,7 +1828,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1826,11 +1838,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1842,7 +1854,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1859,49 +1871,82 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>103</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>12</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>33</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>104</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>51</v>
       </c>
     </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1660.125</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>102</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
-        <v>103</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
-        <v>104</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1693.7850000000001</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>106</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>107</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>108</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2050,10 +2095,15 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -218,6 +218,15 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>LENEX FOOT CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -311,6 +320,15 @@
     <t>5.0000</t>
   </si>
   <si>
+    <t>بيبي جوي رقم 5</t>
+  </si>
+  <si>
+    <t>380.00</t>
+  </si>
+  <si>
+    <t>380.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -329,7 +347,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 3:36 PM</t>
+    <t>Thursday, 19 June, 2025 3:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1498,7 +1516,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1508,11 +1526,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1524,14 +1542,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1541,11 +1559,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1564,7 +1582,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1581,7 +1599,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1597,7 +1615,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1607,14 +1625,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1623,14 +1641,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1640,11 +1658,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1656,14 +1674,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1673,11 +1691,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1689,14 +1707,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1706,11 +1724,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1729,7 +1747,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1739,7 +1757,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -1762,7 +1780,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1772,14 +1790,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1788,14 +1806,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1812,7 +1830,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1828,21 +1846,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1854,14 +1872,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1894,7 +1912,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1911,42 +1929,108 @@
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>106</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>12</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>33</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>107</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>109</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>12</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>33</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>110</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>51</v>
       </c>
     </row>
-    <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1693.7850000000001</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
-        <v>106</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
-        <v>107</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
-        <v>108</v>
-      </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>2128.7849999999999</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>112</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>113</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>114</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2100,10 +2184,20 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -287,6 +287,9 @@
     <t>132.0000</t>
   </si>
   <si>
+    <t>TANTUM VERDE 0.15% MOUTH WASH 125 ML</t>
+  </si>
+  <si>
     <t>TEBOFORTIN 80MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -347,7 +350,16 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 3:37 PM</t>
+    <t xml:space="preserve">ماء اكسجين 10 </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 19 June, 2025 3:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1813,7 +1825,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1823,14 +1835,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1839,14 +1851,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1856,14 +1868,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1872,28 +1884,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1905,14 +1917,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1922,11 +1934,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1938,14 +1950,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1955,11 +1967,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -1971,7 +1983,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -1988,49 +2000,115 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>110</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>12</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>33</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
         <v>111</v>
       </c>
-      <c t="s" r="Q37" s="12">
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>51</v>
       </c>
     </row>
-    <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>2128.7849999999999</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
-        <v>112</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>113</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>51</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>33</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
         <v>114</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>2174.7849999999999</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>116</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>117</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>118</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2194,10 +2272,20 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -359,7 +359,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 3:38 PM</t>
+    <t>Thursday, 19 June, 2025 4:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -161,6 +161,15 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>DIASTOP SUSP. 60ML</t>
   </si>
   <si>
@@ -266,6 +275,18 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
   </si>
   <si>
@@ -293,9 +314,6 @@
     <t>TEBOFORTIN 80MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -350,6 +368,12 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">ماء اكسجين 10 </t>
   </si>
   <si>
@@ -359,7 +383,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 4:18 PM</t>
+    <t>Thursday, 19 June, 2025 4:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1330,7 +1354,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1340,11 +1364,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1356,20 +1380,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1396,13 +1420,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1413,7 +1437,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1429,7 +1453,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1446,7 +1470,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1462,7 +1486,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1495,7 +1519,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1561,7 +1585,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1571,11 +1595,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1587,14 +1611,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1604,11 +1628,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1627,7 +1651,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1644,7 +1668,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1660,7 +1684,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1670,14 +1694,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1686,14 +1710,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1703,11 +1727,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1719,14 +1743,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1736,11 +1760,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1752,14 +1776,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1769,14 +1793,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1785,14 +1809,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1802,11 +1826,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1818,14 +1842,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1835,11 +1859,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1851,14 +1875,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1868,14 +1892,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1884,14 +1908,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1901,11 +1925,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1924,24 +1948,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1950,28 +1974,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -1983,14 +2007,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2023,7 +2047,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2040,7 +2064,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2056,7 +2080,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2077,38 +2101,137 @@
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>2174.7849999999999</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>116</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>12</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>33</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
         <v>117</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
         <v>118</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c t="s" r="Q40" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>119</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>12</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>33</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>114</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>121</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>54</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>33</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>122</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>2251.7849999999999</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>124</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>125</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>126</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2282,10 +2405,25 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -65,7 +65,7 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
-    <t>1:5</t>
+    <t>2:5</t>
   </si>
   <si>
     <t>78.00</t>
@@ -101,6 +101,9 @@
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
     <t>120.00</t>
   </si>
   <si>
@@ -143,6 +146,9 @@
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>142.50</t>
   </si>
   <si>
@@ -278,9 +284,6 @@
     <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>240.00</t>
   </si>
   <si>
@@ -383,7 +386,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 4:19 PM</t>
+    <t>Thursday, 19 June, 2025 5:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1156,7 +1159,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1166,11 +1169,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>23</v>
@@ -1182,7 +1185,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1195,15 +1198,15 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1215,14 +1218,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1232,11 +1235,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1248,7 +1251,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1265,11 +1268,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1281,14 +1284,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1298,11 +1301,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1314,14 +1317,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1331,11 +1334,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1347,14 +1350,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1364,11 +1367,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1380,14 +1383,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1397,11 +1400,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1413,7 +1416,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1426,15 +1429,15 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1446,7 +1449,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1463,11 +1466,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1479,14 +1482,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1496,11 +1499,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1512,14 +1515,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1529,11 +1532,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1545,7 +1548,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1562,11 +1565,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1578,7 +1581,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1595,11 +1598,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1611,14 +1614,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1628,11 +1631,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1644,7 +1647,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1661,11 +1664,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1677,7 +1680,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1694,11 +1697,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1710,14 +1713,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1727,11 +1730,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1743,14 +1746,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1760,11 +1763,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1776,14 +1779,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1793,11 +1796,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>23</v>
@@ -1809,7 +1812,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1826,11 +1829,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1842,14 +1845,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1863,7 +1866,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1875,7 +1878,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1892,11 +1895,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1908,7 +1911,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1925,11 +1928,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1941,14 +1944,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1958,11 +1961,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -1974,14 +1977,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1991,11 +1994,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2007,28 +2010,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2040,28 +2043,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2073,7 +2076,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2086,15 +2089,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2106,7 +2109,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2119,18 +2122,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2139,7 +2142,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2152,18 +2155,18 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2172,28 +2175,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2207,7 +2210,7 @@
     </row>
     <row r="44" ht="16.5" customHeight="1">
       <c t="s" r="A44" s="14">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -2215,13 +2218,13 @@
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c t="s" r="G44" s="15">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
       <c r="J44" s="16"/>
       <c t="s" r="K44" s="17">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L44" s="17"/>
       <c r="M44" s="17"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -386,7 +386,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 5:16 PM</t>
+    <t>Thursday, 19 June, 2025 5:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -269,18 +269,30 @@
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
     <t>24.0000</t>
   </si>
   <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
   </si>
   <si>
@@ -288,6 +300,9 @@
   </si>
   <si>
     <t>48.0000</t>
+  </si>
+  <si>
+    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
   </si>
   <si>
     <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
@@ -1720,7 +1735,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1734,10 +1749,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1746,14 +1761,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1763,11 +1778,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1779,14 +1794,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1796,14 +1811,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1812,14 +1827,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1829,14 +1844,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1845,14 +1860,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1862,11 +1877,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1878,14 +1893,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1895,11 +1910,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1911,14 +1926,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1928,11 +1943,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1944,14 +1959,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1961,14 +1976,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1977,14 +1992,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1994,11 +2009,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2010,31 +2025,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2043,7 +2058,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2056,15 +2071,15 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2076,14 +2091,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2093,11 +2108,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2109,14 +2124,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2126,14 +2141,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2142,7 +2157,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2159,14 +2174,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2182,7 +2197,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2199,42 +2214,108 @@
         <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>2251.7849999999999</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>125</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>12</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>34</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>120</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
         <v>126</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c t="s" r="Q43" s="12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
         <v>127</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>56</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>34</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>128</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>2329.6149999999998</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>130</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>131</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>132</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2423,10 +2504,20 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -401,7 +401,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 5:20 PM</t>
+    <t>Thursday, 19 June, 2025 5:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -110,6 +110,15 @@
     <t>38.4000</t>
   </si>
   <si>
+    <t>CEMPION 10 SACHETS</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>CERVETOLKA 500MG 20CAPS</t>
   </si>
   <si>
@@ -401,7 +410,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 5:22 PM</t>
+    <t>Thursday, 19 June, 2025 5:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1213,15 +1222,15 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1233,28 +1242,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1266,14 +1275,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1306,7 +1315,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1316,14 +1325,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1332,14 +1341,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1349,11 +1358,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1365,14 +1374,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1389,7 +1398,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1405,7 +1414,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1415,11 +1424,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1431,20 +1440,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1471,13 +1480,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1488,7 +1497,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1504,7 +1513,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1521,7 +1530,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1537,7 +1546,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1570,7 +1579,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1636,7 +1645,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1646,11 +1655,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1662,14 +1671,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1679,11 +1688,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1702,7 +1711,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1719,7 +1728,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1735,7 +1744,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1745,14 +1754,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1768,7 +1777,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1778,14 +1787,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1801,7 +1810,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1818,7 +1827,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1834,7 +1843,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1851,7 +1860,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1867,7 +1876,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1877,14 +1886,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1893,14 +1902,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1910,11 +1919,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1926,14 +1935,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1943,11 +1952,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1966,7 +1975,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1976,7 +1985,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -1999,7 +2008,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2009,11 +2018,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2025,14 +2034,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2042,14 +2051,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2065,7 +2074,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2082,7 +2091,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2098,21 +2107,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2124,20 +2133,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2164,13 +2173,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2203,7 +2212,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2214,7 +2223,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2236,18 +2245,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2256,66 +2265,99 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>2329.6149999999998</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>130</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>59</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>37</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
         <v>131</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
         <v>132</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>2414.6149999999998</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>133</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>134</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>135</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2514,10 +2556,15 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -410,7 +410,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 5:31 PM</t>
+    <t>Thursday, 19 June, 2025 5:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -317,6 +317,15 @@
     <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
   </si>
   <si>
+    <t>ROWACHOL 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -356,6 +365,9 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>TOBRADEX EYE SUSP. DROPS 5 ML</t>
+  </si>
+  <si>
     <t>بودره نلج اكياس</t>
   </si>
   <si>
@@ -410,7 +422,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 5:34 PM</t>
+    <t>Thursday, 19 June, 2025 5:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1985,14 +1997,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2008,7 +2020,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2018,7 +2030,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2041,7 +2053,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2051,11 +2063,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2067,14 +2079,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2084,14 +2096,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2107,7 +2119,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2124,7 +2136,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2140,21 +2152,21 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2166,7 +2178,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2179,15 +2191,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2199,14 +2211,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2216,11 +2228,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2232,14 +2244,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2249,14 +2261,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2265,7 +2277,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2282,14 +2294,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2298,14 +2310,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2315,49 +2327,115 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>132</v>
       </c>
-      <c t="s" r="Q45" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>2414.6149999999998</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>12</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>37</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>127</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
         <v>133</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
+      <c t="s" r="Q46" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
         <v>134</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>59</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>37</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
         <v>135</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>2490.375</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>137</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>138</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>139</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2561,10 +2639,20 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>192.0000</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -152,12 +164,21 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>CURAM 1GM 12 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>182.00</t>
+  </si>
+  <si>
+    <t>60.0600</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>142.50</t>
   </si>
   <si>
@@ -422,7 +443,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 5:48 PM</t>
+    <t>Thursday, 19 June, 2025 5:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1212,7 +1233,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1228,7 +1249,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1238,14 +1259,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1254,7 +1275,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1267,7 +1288,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1294,13 +1315,13 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1327,7 +1348,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1337,11 +1358,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1353,14 +1374,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1377,7 +1398,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1443,7 +1464,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1476,7 +1497,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1492,13 +1513,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1525,7 +1546,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1535,14 +1556,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1551,28 +1572,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1584,14 +1605,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1601,14 +1622,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1617,14 +1638,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1634,11 +1655,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1650,14 +1671,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1667,11 +1688,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1683,14 +1704,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1700,11 +1721,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1716,14 +1737,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1733,11 +1754,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1749,14 +1770,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1766,14 +1787,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1782,14 +1803,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1799,14 +1820,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1815,14 +1836,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1832,14 +1853,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1848,14 +1869,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1865,14 +1886,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1881,14 +1902,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1898,14 +1919,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1914,14 +1935,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1931,14 +1952,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1947,14 +1968,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1964,14 +1985,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1980,14 +2001,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1997,14 +2018,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2013,14 +2034,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2030,11 +2051,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2046,14 +2067,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2063,14 +2084,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2079,14 +2100,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2096,11 +2117,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2112,14 +2133,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2129,14 +2150,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2145,14 +2166,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2162,11 +2183,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2178,14 +2199,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2195,14 +2216,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2211,28 +2232,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2244,28 +2265,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2284,21 +2305,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2310,31 +2331,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2343,7 +2364,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2356,18 +2377,18 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2376,66 +2397,132 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>2490.375</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>137</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
-        <v>138</v>
-      </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>139</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>12</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>41</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>134</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>141</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>66</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>41</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>142</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2593.4349999999999</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>144</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>145</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>146</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2649,10 +2736,20 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -443,7 +443,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 5:49 PM</t>
+    <t>Thursday, 19 June, 2025 6:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -98,6 +98,15 @@
     <t>192.0000</t>
   </si>
   <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -299,12 +308,12 @@
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
+    <t>93.0000</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>62.0000</t>
-  </si>
-  <si>
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -347,6 +356,15 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>SILVIRBURN CREAM 250 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -356,6 +374,18 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/850MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -425,15 +455,12 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">ماء اكسجين 10 </t>
   </si>
   <si>
@@ -443,7 +470,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 6:02 PM</t>
+    <t>Thursday, 19 June, 2025 6:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1216,7 +1243,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1226,14 +1253,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1242,14 +1269,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1259,14 +1286,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1275,14 +1302,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1299,7 +1326,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1321,15 +1348,15 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1341,28 +1368,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1374,14 +1401,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1414,7 +1441,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1424,14 +1451,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1440,14 +1467,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1480,7 +1507,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1490,11 +1517,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1506,14 +1533,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1530,7 +1557,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1546,7 +1573,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1556,11 +1583,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1572,20 +1599,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1612,13 +1639,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1629,7 +1656,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1645,7 +1672,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1662,7 +1689,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1678,7 +1705,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1711,7 +1738,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1777,7 +1804,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1787,11 +1814,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1803,14 +1830,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1820,11 +1847,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1843,7 +1870,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1860,7 +1887,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1876,7 +1903,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1886,14 +1913,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1909,7 +1936,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1919,14 +1946,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>100</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1942,7 +1969,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1959,7 +1986,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1975,7 +2002,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1992,7 +2019,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2008,7 +2035,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2018,14 +2045,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2034,14 +2061,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2051,11 +2078,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2067,14 +2094,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2084,14 +2111,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2117,14 +2144,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2140,7 +2167,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2173,7 +2200,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2183,11 +2210,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2199,14 +2226,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2216,11 +2243,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2232,14 +2259,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2249,11 +2276,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2265,14 +2292,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2282,11 +2309,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2298,31 +2325,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2331,28 +2358,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2364,28 +2391,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2404,24 +2431,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2430,31 +2457,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2463,66 +2490,165 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2593.4349999999999</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>146</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>12</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>44</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>147</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>149</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>12</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>44</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
         <v>144</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>145</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>146</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>150</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>69</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>44</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>151</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2760.3049999999998</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>153</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>154</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>155</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2746,10 +2872,25 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -470,7 +470,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 6:18 PM</t>
+    <t>Thursday, 19 June, 2025 6:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 500 MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALZEPIZIL 10MG 14 F.C. TAB.</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>70.00</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>12.4800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -173,6 +185,18 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>31:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>CURAM 1GM 12 F.C. TABS.</t>
   </si>
   <si>
@@ -227,6 +251,39 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>10:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
@@ -236,6 +293,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -311,18 +377,21 @@
     <t>93.0000</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
@@ -338,9 +407,6 @@
     <t>240.00</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
     <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
   </si>
   <si>
@@ -368,9 +434,6 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>78.0000</t>
   </si>
   <si>
@@ -449,6 +512,18 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -470,7 +545,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 6:20 PM</t>
+    <t>Thursday, 19 June, 2025 6:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1194,7 +1269,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1210,7 +1285,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1220,11 +1295,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1236,7 +1311,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1253,14 +1328,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1269,14 +1344,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1326,7 +1401,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1342,7 +1417,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1352,14 +1427,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1368,20 +1443,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1392,7 +1467,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1408,13 +1483,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1425,7 +1500,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1441,7 +1516,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1451,14 +1526,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1467,14 +1542,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1507,7 +1582,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1517,11 +1592,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1533,14 +1608,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1550,14 +1625,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1566,14 +1641,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1583,11 +1658,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1599,14 +1674,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1616,11 +1691,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1632,31 +1707,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1665,14 +1740,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1682,11 +1757,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1698,14 +1773,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1715,14 +1790,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1731,14 +1806,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1748,11 +1823,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1764,14 +1839,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1781,14 +1856,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1797,31 +1872,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1830,14 +1905,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1847,14 +1922,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1863,14 +1938,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1880,11 +1955,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1896,14 +1971,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1913,11 +1988,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1929,14 +2004,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1946,14 +2021,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>100</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1962,14 +2037,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1979,14 +2054,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1995,14 +2070,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2012,11 +2087,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2028,14 +2103,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2045,14 +2120,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2061,14 +2136,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2078,14 +2153,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2094,7 +2169,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2111,11 +2186,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2127,14 +2202,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2144,14 +2219,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2160,7 +2235,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2177,14 +2252,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2193,14 +2268,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2210,11 +2285,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2226,14 +2301,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2243,14 +2318,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2259,14 +2334,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2276,14 +2351,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2292,14 +2367,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2309,14 +2384,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2325,14 +2400,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2342,11 +2417,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2358,14 +2433,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2375,11 +2450,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2391,14 +2466,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2408,14 +2483,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2424,31 +2499,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2457,28 +2532,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2490,31 +2565,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2523,31 +2598,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>100</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2556,31 +2631,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2589,66 +2664,330 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2760.3049999999998</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>153</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
-        <v>154</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
-        <v>155</v>
-      </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>156</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>77</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>13</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>101</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>157</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>158</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>48</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>159</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>161</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>77</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>48</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>162</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>164</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>18</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>48</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>165</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>167</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>168</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>48</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>169</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>171</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>18</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>48</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>172</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>174</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>18</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>48</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>165</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>175</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>77</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>48</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>176</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>2979.8249999999998</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>178</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>179</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>180</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2887,10 +3226,50 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -545,7 +545,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 6:35 PM</t>
+    <t>Thursday, 19 June, 2025 6:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -218,6 +218,15 @@
     <t>47.0250</t>
   </si>
   <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -413,6 +422,9 @@
     <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
   </si>
   <si>
+    <t>RICHI PANTHENOL CREAM 20GM</t>
+  </si>
+  <si>
     <t>ROWACHOL 45 CAPSULES</t>
   </si>
   <si>
@@ -545,7 +557,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 6:39 PM</t>
+    <t>Thursday, 19 June, 2025 6:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1681,7 +1693,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1691,14 +1703,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1707,14 +1719,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1731,7 +1743,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1747,7 +1759,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1757,11 +1769,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1773,14 +1785,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1790,11 +1802,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1806,14 +1818,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1823,14 +1835,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1839,14 +1851,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1856,14 +1868,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1872,31 +1884,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>93</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1912,13 +1924,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1945,7 +1957,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1962,7 +1974,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1978,7 +1990,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1995,7 +2007,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2011,7 +2023,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2044,7 +2056,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2110,7 +2122,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2120,11 +2132,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2136,14 +2148,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2153,11 +2165,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2176,7 +2188,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2193,7 +2205,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2209,7 +2221,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2219,14 +2231,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2235,14 +2247,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2252,14 +2264,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2268,14 +2280,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2285,14 +2297,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2308,7 +2320,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2318,11 +2330,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2341,7 +2353,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2355,10 +2367,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2367,14 +2379,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2384,14 +2396,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2400,14 +2412,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2417,11 +2429,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2433,14 +2445,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2450,14 +2462,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2483,11 +2495,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2499,14 +2511,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2516,14 +2528,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2532,14 +2544,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2549,14 +2561,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2565,14 +2577,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2582,11 +2594,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2598,14 +2610,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2615,14 +2627,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2638,7 +2650,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2655,7 +2667,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2671,7 +2683,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2681,11 +2693,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>53</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2697,14 +2709,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2714,14 +2726,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2737,21 +2749,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2763,28 +2775,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2796,14 +2808,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2813,11 +2825,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2829,14 +2841,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2846,11 +2858,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2862,7 +2874,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2879,14 +2891,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2895,14 +2907,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2912,14 +2924,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2935,7 +2947,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2952,42 +2964,108 @@
         <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>2979.8249999999998</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
         <v>178</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>18</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>48</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>169</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>179</v>
       </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>80</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>48</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
         <v>180</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>3053.8249999999998</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>182</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>183</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>184</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3266,10 +3344,20 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -89,6 +89,15 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>BETAFOS 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -119,6 +128,15 @@
     <t>83.0000</t>
   </si>
   <si>
+    <t>BRONCHICUM ELIXIR 100 ML</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -170,12 +188,6 @@
     <t>23:0</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>COLLOMAK TOP. SOUTION 10 ML</t>
   </si>
   <si>
@@ -410,6 +422,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>POWER COLD &amp; FLU 20 TAB.</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
   </si>
   <si>
@@ -494,6 +515,15 @@
     <t>TOBRADEX EYE SUSP. DROPS 5 ML</t>
   </si>
   <si>
+    <t>ZITHROKAN 500MG 3 CAP</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>77.0000</t>
+  </si>
+  <si>
     <t>بودره نلج اكياس</t>
   </si>
   <si>
@@ -542,12 +572,15 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
     <t>6.0000</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
     <t xml:space="preserve">ماء اكسجين 10 </t>
   </si>
   <si>
@@ -557,7 +590,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 6:49 PM</t>
+    <t>Thursday, 19 June, 2025 6:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1297,7 +1330,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1307,14 +1340,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1323,14 +1356,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1347,7 +1380,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1363,7 +1396,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1396,7 +1429,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1406,14 +1439,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1422,14 +1455,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1439,14 +1472,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1455,14 +1488,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1472,14 +1505,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1488,31 +1521,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1521,14 +1554,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1538,11 +1571,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1554,28 +1587,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1587,14 +1620,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1604,11 +1637,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1620,14 +1653,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1637,14 +1670,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1653,7 +1686,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1670,14 +1703,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1686,14 +1719,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1703,14 +1736,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1719,14 +1752,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1736,11 +1769,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1752,14 +1785,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1769,11 +1802,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1785,14 +1818,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1802,14 +1835,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1818,14 +1851,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1835,11 +1868,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1851,14 +1884,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1868,14 +1901,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1884,14 +1917,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1901,14 +1934,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>93</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1917,7 +1950,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1930,18 +1963,18 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1950,14 +1983,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1967,14 +2000,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1983,31 +2016,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2016,14 +2049,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2033,11 +2066,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2049,14 +2082,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2066,14 +2099,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2082,14 +2115,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2099,11 +2132,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2115,14 +2148,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2132,11 +2165,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2148,14 +2181,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2165,11 +2198,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2181,14 +2214,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2198,11 +2231,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2214,14 +2247,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2231,14 +2264,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2247,14 +2280,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2264,14 +2297,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2280,14 +2313,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2297,14 +2330,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2320,7 +2353,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2330,14 +2363,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2346,14 +2379,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2363,14 +2396,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2379,14 +2412,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2396,14 +2429,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2412,14 +2445,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2429,14 +2462,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2445,7 +2478,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2462,14 +2495,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2478,14 +2511,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2495,14 +2528,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2511,14 +2544,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2528,14 +2561,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2544,14 +2577,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2561,11 +2594,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2584,7 +2617,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2594,11 +2627,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2610,14 +2643,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2627,11 +2660,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2643,14 +2676,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2660,11 +2693,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2676,14 +2709,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2693,11 +2726,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>54</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2709,14 +2742,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2749,7 +2782,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2782,7 +2815,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2792,11 +2825,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2815,24 +2848,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>162</v>
+        <v>67</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2841,28 +2874,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2874,28 +2907,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -2907,28 +2940,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -2940,31 +2973,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2973,31 +3006,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3006,66 +3039,198 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>181</v>
       </c>
-      <c t="s" r="Q62" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>3053.8249999999998</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
         <v>182</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>54</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
         <v>183</v>
       </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
         <v>184</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c t="s" r="Q63" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>185</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>18</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>54</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>186</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>188</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>18</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>54</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>179</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>190</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>84</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>54</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>191</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>3253.8249999999998</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>193</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>194</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>195</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3354,10 +3519,30 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -590,7 +590,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 6:50 PM</t>
+    <t>Thursday, 19 June, 2025 7:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -260,12 +260,24 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>DIASMECT 3GM 10 SACHETS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>10.5000</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
     <t>DIASTOP SUSP. 60ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -314,6 +326,18 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
@@ -443,6 +467,15 @@
     <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
   </si>
   <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>RICHI PANTHENOL CREAM 20GM</t>
   </si>
   <si>
@@ -551,7 +584,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>حلاوة حرير</t>
@@ -578,9 +611,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">ماء اكسجين 10 </t>
   </si>
   <si>
@@ -590,7 +620,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 7:18 PM</t>
+    <t>Thursday, 19 June, 2025 7:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1908,7 +1938,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1917,14 +1947,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1957,7 +1987,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1967,14 +1997,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1983,14 +2013,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2000,14 +2030,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2016,20 +2046,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2040,7 +2070,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2049,28 +2079,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2082,14 +2112,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2099,14 +2129,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2115,7 +2145,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2132,11 +2162,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2148,14 +2178,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2165,14 +2195,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2181,14 +2211,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2198,11 +2228,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2214,14 +2244,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2231,11 +2261,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2247,14 +2277,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2264,11 +2294,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2280,14 +2310,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2297,11 +2327,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2313,14 +2343,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2330,14 +2360,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2346,14 +2376,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2363,14 +2393,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2379,14 +2409,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2396,14 +2426,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2412,14 +2442,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2429,14 +2459,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2445,14 +2475,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2462,14 +2492,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2478,14 +2508,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2495,11 +2525,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2511,14 +2541,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2528,14 +2558,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2544,14 +2574,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2561,14 +2591,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2577,14 +2607,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2594,14 +2624,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2610,7 +2640,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2627,11 +2657,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2643,14 +2673,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2660,14 +2690,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2676,14 +2706,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2693,11 +2723,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2709,14 +2739,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2726,11 +2756,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2742,14 +2772,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2759,11 +2789,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2775,14 +2805,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2792,11 +2822,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2808,14 +2838,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2825,11 +2855,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2841,14 +2871,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2858,11 +2888,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2874,14 +2904,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2891,11 +2921,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2907,14 +2937,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2924,11 +2954,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -2940,14 +2970,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2957,14 +2987,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2973,28 +3003,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>172</v>
+        <v>84</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3006,7 +3036,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3019,15 +3049,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>116</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3039,7 +3069,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3052,15 +3082,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3072,14 +3102,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3089,11 +3119,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3105,14 +3135,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3122,14 +3152,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>120</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3138,7 +3168,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3155,11 +3185,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>84</v>
@@ -3171,14 +3201,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3188,49 +3218,148 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>3253.8249999999998</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>193</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
-        <v>194</v>
-      </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
-        <v>195</v>
-      </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>196</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>18</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>54</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>197</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>199</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>18</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>54</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>190</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>200</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>84</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>54</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>201</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>3351.3249999999998</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>203</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>204</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>205</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3539,10 +3668,25 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -620,7 +620,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 7:26 PM</t>
+    <t>Thursday, 19 June, 2025 7:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -338,6 +338,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>FLOWADJUST 25MG 30 PROLONGED REL. TABS.</t>
+  </si>
+  <si>
+    <t>306.00</t>
+  </si>
+  <si>
+    <t>100.9800</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
@@ -356,6 +365,12 @@
     <t>99.9900</t>
   </si>
   <si>
+    <t>IMIPRAMINE 25MG 50 TAB.</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
     <t>IVERZINE 1% LOTION 60 ML</t>
   </si>
   <si>
@@ -392,6 +407,15 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>LEVOTAVIN 750 MG 7 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -548,6 +572,9 @@
     <t>TOBRADEX EYE SUSP. DROPS 5 ML</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
     <t>ZITHROKAN 500MG 3 CAP</t>
   </si>
   <si>
@@ -599,6 +626,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">زولا حزام بطن </t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -620,7 +656,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 7:30 PM</t>
+    <t>Thursday, 19 June, 2025 7:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2152,7 +2188,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2169,7 +2205,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2185,7 +2221,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2202,7 +2238,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2218,7 +2254,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2235,7 +2271,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2251,7 +2287,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2265,10 +2301,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2277,14 +2313,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2294,11 +2330,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2310,14 +2346,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2327,11 +2363,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2343,14 +2379,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2360,11 +2396,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2383,7 +2419,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2416,7 +2452,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2433,7 +2469,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2449,7 +2485,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2459,14 +2495,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2482,7 +2518,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2492,11 +2528,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2508,14 +2544,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2529,7 +2565,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2541,14 +2577,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2558,14 +2594,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2581,7 +2617,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2591,14 +2627,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2607,14 +2643,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2628,10 +2664,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2647,7 +2683,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2657,14 +2693,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2673,7 +2709,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2690,14 +2726,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2706,14 +2742,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2723,14 +2759,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2739,7 +2775,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2772,14 +2808,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2789,14 +2825,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2805,14 +2841,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2822,11 +2858,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2838,14 +2874,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2855,11 +2891,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2888,11 +2924,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2904,14 +2940,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2921,11 +2957,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2937,14 +2973,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2954,11 +2990,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -2977,7 +3013,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2987,11 +3023,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3003,14 +3039,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3020,11 +3056,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3036,14 +3072,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3053,11 +3089,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3069,14 +3105,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3086,14 +3122,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3102,20 +3138,20 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3148,15 +3184,15 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>121</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3168,31 +3204,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>27</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3201,28 +3237,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3234,14 +3270,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3251,14 +3287,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3267,14 +3303,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3284,14 +3320,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3300,14 +3336,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3317,49 +3353,214 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>201</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
         <v>202</v>
       </c>
-      <c t="s" r="Q69" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>3351.3249999999998</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>54</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
         <v>203</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
         <v>204</v>
       </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+      <c t="s" r="Q70" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
         <v>205</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>21</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>54</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>206</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>208</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>18</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>54</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>209</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>211</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>18</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>54</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>199</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>212</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>84</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>54</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>213</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>3711.8049999999998</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>215</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>216</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>217</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3683,10 +3884,35 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -491,6 +491,21 @@
     <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
   </si>
   <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:87</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>13.2000</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
     <t>REPARIL-GEL N 40 GM</t>
   </si>
   <si>
@@ -512,6 +527,15 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>37.9200</t>
+  </si>
+  <si>
     <t>SILVIRBURN CREAM 250 GM</t>
   </si>
   <si>
@@ -542,9 +566,6 @@
     <t>SUGARLO PLUS 50/850MG 30 F.C. TABS</t>
   </si>
   <si>
-    <t>132.00</t>
-  </si>
-  <si>
     <t>132.0000</t>
   </si>
   <si>
@@ -656,7 +677,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 7:33 PM</t>
+    <t>Thursday, 19 June, 2025 7:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2848,7 +2869,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2858,14 +2879,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2874,14 +2895,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2891,11 +2912,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2907,14 +2928,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2924,14 +2945,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2940,14 +2961,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2957,14 +2978,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2973,14 +2994,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2990,14 +3011,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3006,14 +3027,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3023,14 +3044,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3039,14 +3060,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3056,11 +3077,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3072,14 +3093,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3089,14 +3110,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>28</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3105,14 +3126,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3122,14 +3143,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3138,14 +3159,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3155,11 +3176,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3171,14 +3192,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3188,14 +3209,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3204,14 +3225,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3221,11 +3242,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3237,14 +3258,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3254,11 +3275,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>121</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3270,28 +3291,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3310,13 +3331,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3343,7 +3364,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3353,14 +3374,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3369,14 +3390,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3409,7 +3430,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3426,7 +3447,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3442,7 +3463,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3452,14 +3473,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>136</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3468,14 +3489,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3485,14 +3506,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3501,14 +3522,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3518,49 +3539,115 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>3711.8049999999998</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
-        <v>215</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
-        <v>216</v>
-      </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
-        <v>217</v>
-      </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>218</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>18</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>54</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>206</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>219</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>84</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>54</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>220</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>3762.9250000000002</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>222</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>223</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>224</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3909,10 +3996,20 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -197,6 +197,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -326,6 +335,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:6</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -590,6 +608,9 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
     <t>TOBRADEX EYE SUSP. DROPS 5 ML</t>
   </si>
   <si>
@@ -605,6 +626,18 @@
     <t>77.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>بودره نلج اكياس</t>
   </si>
   <si>
@@ -641,12 +674,6 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">زولا حزام بطن </t>
   </si>
   <si>
@@ -677,7 +704,19 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 7:44 PM</t>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 19 June, 2025 8:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1780,7 +1819,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1790,11 +1829,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1806,14 +1845,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1823,14 +1862,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1839,14 +1878,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1879,7 +1918,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1896,7 +1935,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1912,7 +1951,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1922,14 +1961,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1938,14 +1977,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1962,7 +2001,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1978,7 +2017,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1988,14 +2027,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2004,14 +2043,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2021,14 +2060,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>90</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2044,7 +2083,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2054,11 +2093,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2070,14 +2109,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2087,14 +2126,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2103,14 +2142,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2120,14 +2159,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2136,31 +2175,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>104</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2176,21 +2215,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2202,14 +2241,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2219,14 +2258,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2235,14 +2274,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2308,7 +2347,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2322,10 +2361,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2334,14 +2373,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2351,14 +2390,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2367,14 +2406,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2384,14 +2423,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2407,7 +2446,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2440,7 +2479,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2506,7 +2545,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2516,11 +2555,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2532,14 +2571,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2549,11 +2588,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2565,14 +2604,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2582,14 +2621,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2605,7 +2644,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2615,14 +2654,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2631,14 +2670,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2648,14 +2687,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2664,14 +2703,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2681,14 +2720,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2697,14 +2736,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2714,14 +2753,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2737,7 +2776,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2747,11 +2786,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2770,7 +2809,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2784,10 +2823,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2796,14 +2835,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2813,14 +2852,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2829,14 +2868,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2846,14 +2885,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2862,14 +2901,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2879,14 +2918,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>164</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2912,11 +2951,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2928,14 +2967,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2945,14 +2984,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2961,14 +3000,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2978,14 +3017,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2994,14 +3033,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3011,14 +3050,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3034,7 +3073,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3044,14 +3083,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3067,7 +3106,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3077,14 +3116,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>24</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3093,14 +3132,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3117,7 +3156,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3133,7 +3172,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3143,7 +3182,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3166,7 +3205,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3176,14 +3215,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>27</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3192,14 +3231,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3209,14 +3248,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3225,14 +3264,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3242,11 +3281,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>27</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3265,7 +3304,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3275,14 +3314,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>121</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>122</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3291,14 +3330,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3308,11 +3347,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3324,14 +3363,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3341,11 +3380,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3357,28 +3396,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>87</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3390,28 +3429,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>27</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3423,7 +3462,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3436,18 +3475,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3456,14 +3495,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3473,11 +3512,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3489,14 +3528,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3506,11 +3545,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3522,14 +3561,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3539,14 +3578,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>136</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3555,7 +3594,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3572,14 +3611,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3595,7 +3634,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3605,49 +3644,214 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
         <v>221</v>
       </c>
-      <c t="s" r="Q76" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>3762.9250000000002</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>21</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>54</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
         <v>222</v>
       </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
         <v>223</v>
       </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
+      <c t="s" r="Q77" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
         <v>224</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>18</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>54</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>225</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>227</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>18</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>54</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>217</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>228</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>87</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>54</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>229</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>231</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>232</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>54</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>233</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>3893.8449999999998</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>235</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>236</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>237</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4006,10 +4210,35 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -230,6 +230,18 @@
     <t>60.0600</t>
   </si>
   <si>
+    <t>DAKTACORT CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -272,9 +284,6 @@
     <t>DIASMECT 3GM 10 SACHETS</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>21.00</t>
   </si>
   <si>
@@ -293,6 +302,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>DIFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>222.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -404,7 +422,7 @@
     <t>18.00</t>
   </si>
   <si>
-    <t>18.0000</t>
+    <t>36.0000</t>
   </si>
   <si>
     <t>LANTANON 30MG 10 CAPS.</t>
@@ -579,6 +597,15 @@
   </si>
   <si>
     <t>12.8700</t>
+  </si>
+  <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
   </si>
   <si>
     <t>SUGARLO PLUS 50/850MG 30 F.C. TABS</t>
@@ -1918,7 +1945,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1928,14 +1955,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1944,14 +1971,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1961,14 +1988,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1977,14 +2004,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2001,7 +2028,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2017,7 +2044,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2027,14 +2054,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2043,14 +2070,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2067,7 +2094,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2076,14 +2103,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2093,14 +2120,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>93</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2116,7 +2143,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2126,11 +2153,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2142,14 +2169,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2159,14 +2186,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2199,7 +2226,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2208,7 +2235,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2221,18 +2248,18 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2241,14 +2268,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2258,14 +2285,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>110</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2281,21 +2308,21 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2307,14 +2334,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2324,14 +2351,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2340,14 +2367,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2413,7 +2440,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2427,10 +2454,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2439,14 +2466,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2456,14 +2483,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2472,14 +2499,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2489,14 +2516,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2512,7 +2539,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2545,7 +2572,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2562,7 +2589,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2611,7 +2638,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2621,11 +2648,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2637,14 +2664,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2654,11 +2681,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2670,14 +2697,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2687,14 +2714,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2710,7 +2737,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2720,14 +2747,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2736,14 +2763,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2753,14 +2780,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2769,14 +2796,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2786,14 +2813,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2802,14 +2829,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2819,14 +2846,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2842,7 +2869,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2852,11 +2879,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2875,7 +2902,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2889,10 +2916,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2901,14 +2928,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2918,14 +2945,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2934,14 +2961,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2951,14 +2978,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2967,14 +2994,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2984,14 +3011,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>170</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3017,11 +3044,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3033,14 +3060,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3050,14 +3077,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3066,14 +3093,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3083,14 +3110,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3099,14 +3126,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3116,14 +3143,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3139,7 +3166,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3149,14 +3176,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3172,7 +3199,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3182,14 +3209,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3198,14 +3225,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3222,7 +3249,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3238,7 +3265,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3248,7 +3275,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3271,7 +3298,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3281,14 +3308,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>27</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3297,14 +3324,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3314,14 +3341,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3330,14 +3357,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3347,11 +3374,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3363,7 +3390,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3380,11 +3407,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3396,14 +3423,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3413,14 +3440,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3429,14 +3456,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3446,11 +3473,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>27</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>28</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3462,14 +3489,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3479,11 +3506,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>60</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3495,28 +3522,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>74</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3528,28 +3555,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3561,28 +3588,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3594,14 +3621,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3611,14 +3638,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3627,14 +3654,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3644,11 +3671,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3660,14 +3687,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3677,11 +3704,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3693,7 +3720,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3710,14 +3737,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>142</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3726,14 +3753,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>229</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3743,14 +3770,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3759,14 +3786,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3776,11 +3803,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3792,14 +3819,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>232</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3809,49 +3836,148 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>3893.8449999999998</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>235</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
         <v>236</v>
       </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>18</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>54</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>226</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>237</v>
       </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>74</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>54</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>238</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>240</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>241</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>54</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>242</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>4288.8450000000003</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>244</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>245</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>246</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4235,10 +4361,25 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -329,6 +329,21 @@
     <t>14.0000</t>
   </si>
   <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>-52.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
@@ -443,6 +458,12 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>LEVANIC 750 MG 5 TAB</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
     <t>LEVOTAVIN 750 MG 7 F.C.TABS.</t>
   </si>
   <si>
@@ -455,9 +476,6 @@
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -467,6 +485,15 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>NAIL 15 TOPICAL LOTION 15 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
@@ -641,6 +668,9 @@
     <t>TOBRADEX EYE SUSP. DROPS 5 ML</t>
   </si>
   <si>
+    <t>TRITOSPOT CREAM 15 GM</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -743,7 +773,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 8:03 PM</t>
+    <t>Thursday, 19 June, 2025 8:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2308,24 +2338,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2334,31 +2364,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2367,14 +2397,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2384,14 +2414,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2400,14 +2430,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2417,14 +2447,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2433,14 +2463,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2450,14 +2480,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2466,14 +2496,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2483,14 +2513,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2499,14 +2529,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2516,11 +2546,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2532,14 +2562,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2549,14 +2579,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2565,14 +2595,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2582,14 +2612,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2598,14 +2628,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2615,14 +2645,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2631,7 +2661,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2648,11 +2678,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2664,7 +2694,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2681,11 +2711,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2697,14 +2727,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2714,14 +2744,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2730,14 +2760,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2747,11 +2777,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2763,14 +2793,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2780,14 +2810,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2803,7 +2833,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2813,14 +2843,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2829,14 +2859,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2846,11 +2876,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2862,14 +2892,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2879,11 +2909,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2895,14 +2925,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2912,14 +2942,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2928,14 +2958,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2945,14 +2975,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2968,7 +2998,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2978,14 +3008,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2994,14 +3024,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3011,14 +3041,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3027,7 +3057,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3044,14 +3074,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3060,14 +3090,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>70</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3077,14 +3107,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>176</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3093,14 +3123,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3110,11 +3140,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3133,7 +3163,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3143,11 +3173,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3176,14 +3206,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3192,14 +3222,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3209,14 +3239,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3225,7 +3255,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3242,11 +3272,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3265,7 +3295,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3275,14 +3305,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3291,14 +3321,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3364,7 +3394,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3374,7 +3404,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3397,7 +3427,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3407,14 +3437,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>28</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3423,14 +3453,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3440,14 +3470,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3456,14 +3486,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3473,11 +3503,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3489,7 +3519,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3506,11 +3536,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3522,14 +3552,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3539,14 +3569,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3555,14 +3585,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3572,11 +3602,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>27</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3588,14 +3618,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3605,11 +3635,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>60</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3621,28 +3651,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>138</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3654,28 +3684,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3687,28 +3717,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>27</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3720,7 +3750,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3733,18 +3763,18 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3753,14 +3783,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3770,11 +3800,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3786,14 +3816,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3803,11 +3833,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3819,14 +3849,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3836,14 +3866,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>148</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3852,7 +3882,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3869,11 +3899,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>74</v>
@@ -3885,14 +3915,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>74</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3902,11 +3932,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -3925,7 +3955,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>241</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3935,49 +3965,181 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
         <v>243</v>
       </c>
-      <c t="s" r="Q84" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>4288.8450000000003</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>18</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>54</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
         <v>244</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
         <v>245</v>
       </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
+      <c t="s" r="Q85" s="12">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
         <v>246</v>
       </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>18</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>54</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>236</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>237</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>247</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>74</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>54</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>248</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>250</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>251</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>54</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>252</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>4356.8450000000003</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>254</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>255</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>256</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4376,10 +4538,30 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -344,6 +344,15 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
@@ -497,9 +506,6 @@
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
-    <t>114.00</t>
-  </si>
-  <si>
     <t>37.6200</t>
   </si>
   <si>
@@ -674,6 +680,9 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
+    <t>VENTOCOUGH SYRUP 125 ML</t>
+  </si>
+  <si>
     <t>ZITHROKAN 500MG 3 CAP</t>
   </si>
   <si>
@@ -773,7 +782,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 8:11 PM</t>
+    <t>Thursday, 19 June, 2025 8:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2338,7 +2347,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2348,14 +2357,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>115</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2364,31 +2373,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>118</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2404,24 +2413,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2447,14 +2456,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2463,14 +2472,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2487,7 +2496,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2503,7 +2512,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2520,7 +2529,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2536,7 +2545,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2553,7 +2562,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2569,7 +2578,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2583,7 +2592,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2595,14 +2604,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2612,14 +2621,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2635,7 +2644,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2652,7 +2661,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2668,7 +2677,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2685,7 +2694,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2734,7 +2743,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2748,10 +2757,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2760,14 +2769,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2777,14 +2786,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2800,7 +2809,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2810,11 +2819,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2826,14 +2835,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2843,11 +2852,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2866,7 +2875,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2899,7 +2908,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2916,7 +2925,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2932,7 +2941,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2942,14 +2951,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2965,7 +2974,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2975,14 +2984,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2998,7 +3007,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3008,14 +3017,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3024,14 +3033,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3045,7 +3054,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3057,14 +3066,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3074,11 +3083,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3090,14 +3099,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3107,14 +3116,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>103</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3130,7 +3139,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3140,14 +3149,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3156,14 +3165,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3173,11 +3182,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3189,14 +3198,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3206,14 +3215,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>185</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3222,14 +3231,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3239,14 +3248,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3255,14 +3264,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3272,11 +3281,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>96</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3288,14 +3297,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3305,14 +3314,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3321,14 +3330,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3338,11 +3347,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>120</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3354,14 +3363,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3371,14 +3380,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3387,14 +3396,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3404,7 +3413,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>24</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3427,7 +3436,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3437,14 +3446,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>24</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3453,14 +3462,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3470,14 +3479,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3486,14 +3495,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3503,7 +3512,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3526,7 +3535,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3536,11 +3545,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>27</v>
+        <v>185</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3552,14 +3561,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3569,14 +3578,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>27</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3585,14 +3594,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3602,14 +3611,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3618,14 +3627,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3635,11 +3644,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>60</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>61</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3651,14 +3660,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3668,11 +3677,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3684,14 +3693,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3701,11 +3710,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3717,14 +3726,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3734,11 +3743,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>27</v>
+        <v>199</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3750,14 +3759,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3767,11 +3776,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3783,28 +3792,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>95</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3816,28 +3825,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3849,14 +3858,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3866,11 +3875,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -3882,14 +3891,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3899,14 +3908,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3915,14 +3924,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>74</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3932,11 +3941,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -3948,14 +3957,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3965,14 +3974,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3981,14 +3990,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3998,14 +4007,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4014,14 +4023,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4031,14 +4040,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4047,14 +4056,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4064,14 +4073,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4080,14 +4089,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4097,49 +4106,115 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>250</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>74</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>54</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>251</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
         <v>253</v>
       </c>
-      <c t="s" r="Q88" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>4356.8450000000003</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
         <v>254</v>
       </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>54</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
         <v>255</v>
       </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
         <v>256</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c t="s" r="Q90" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>4500.8450000000003</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>257</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>258</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>259</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4558,10 +4633,20 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -782,7 +782,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 8:14 PM</t>
+    <t>Thursday, 19 June, 2025 8:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -80,13 +80,16 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
-    <t>2:5</t>
+    <t>2:4</t>
   </si>
   <si>
     <t>78.00</t>
   </si>
   <si>
-    <t>12.4800</t>
+    <t>24.9600</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>BETAFOS 1 AMP. 2ML</t>
@@ -101,9 +104,6 @@
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>81.00</t>
   </si>
   <si>
@@ -755,7 +755,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>10.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1506,7 +1506,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1532,11 +1532,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>21</v>
@@ -1548,14 +1548,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1737,7 +1737,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1829,11 +1829,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -2463,7 +2463,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2512,7 +2512,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2578,7 +2578,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2875,7 +2875,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3156,7 +3156,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3535,7 +3535,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3578,11 +3578,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3776,11 +3776,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -4080,7 +4080,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>107</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4184,7 +4184,7 @@
     </row>
     <row r="91" ht="25.5" customHeight="1">
       <c r="P91" s="13">
-        <v>4500.8450000000003</v>
+        <v>4515.3249999999998</v>
       </c>
       <c r="Q91" s="13"/>
     </row>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -782,7 +782,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 8:15 PM</t>
+    <t>Thursday, 19 June, 2025 8:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -137,6 +137,18 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -371,21 +383,27 @@
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
     <t>72.0000</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
     <t>5:6</t>
   </si>
   <si>
-    <t>7.9200</t>
-  </si>
-  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -476,9 +494,6 @@
     <t>LEVOTAVIN 750 MG 7 F.C.TABS.</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>108.0000</t>
   </si>
   <si>
@@ -683,6 +698,9 @@
     <t>VENTOCOUGH SYRUP 125 ML</t>
   </si>
   <si>
+    <t>ZINCOLIVE LOTION 60 ML</t>
+  </si>
+  <si>
     <t>ZITHROKAN 500MG 3 CAP</t>
   </si>
   <si>
@@ -749,6 +767,9 @@
     <t>110.0000</t>
   </si>
   <si>
+    <t>سائل باربار</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -782,7 +803,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 8:16 PM</t>
+    <t>Thursday, 19 June, 2025 8:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1737,7 +1758,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1753,7 +1774,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1763,14 +1784,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1779,7 +1800,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1792,7 +1813,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1819,21 +1840,21 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1845,14 +1866,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1862,11 +1883,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1878,14 +1899,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1895,11 +1916,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1911,14 +1932,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1968,7 +1989,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2001,7 +2022,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2017,7 +2038,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2027,14 +2048,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2043,14 +2064,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2060,14 +2081,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2076,14 +2097,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2100,7 +2121,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2116,7 +2137,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2126,14 +2147,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2142,14 +2163,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2159,14 +2180,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>93</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2182,7 +2203,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2199,7 +2220,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2208,14 +2229,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2225,14 +2246,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2241,14 +2262,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2265,7 +2286,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2281,7 +2302,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2291,14 +2312,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2307,14 +2328,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2324,14 +2345,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2340,14 +2361,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2364,7 +2385,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2373,14 +2394,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2397,7 +2418,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>118</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2406,20 +2427,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2430,7 +2451,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2439,31 +2460,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2496,7 +2517,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2512,7 +2533,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2522,14 +2543,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2538,14 +2559,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2611,7 +2632,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2625,10 +2646,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2637,14 +2658,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2654,14 +2675,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2670,14 +2691,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2687,14 +2708,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2710,7 +2731,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2743,7 +2764,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2760,7 +2781,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2776,7 +2797,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2790,10 +2811,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2802,7 +2823,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2819,11 +2840,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2835,14 +2856,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2852,14 +2873,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2868,14 +2889,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2885,11 +2906,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2901,14 +2922,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2918,11 +2939,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2934,14 +2955,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2951,14 +2972,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2974,7 +2995,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2984,14 +3005,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3000,14 +3021,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3017,14 +3038,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3033,14 +3054,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3050,14 +3071,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3073,7 +3094,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3083,14 +3104,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3099,14 +3120,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3120,7 +3141,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3132,14 +3153,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3149,14 +3170,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>103</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3172,7 +3193,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3182,14 +3203,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3198,14 +3219,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3215,14 +3236,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3231,14 +3252,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3248,14 +3269,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>187</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3264,7 +3285,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3281,11 +3302,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3297,14 +3318,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3314,14 +3335,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3330,14 +3351,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3347,14 +3368,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3363,14 +3384,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3380,14 +3401,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3396,14 +3417,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3413,14 +3434,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3429,14 +3450,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3446,14 +3467,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>24</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3469,7 +3490,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3479,14 +3500,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3495,14 +3516,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3512,11 +3533,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3528,14 +3549,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3545,14 +3566,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3568,7 +3589,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3578,11 +3599,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>28</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>29</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3594,14 +3615,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3611,14 +3632,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3627,14 +3648,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3644,11 +3665,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>28</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3660,14 +3681,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3677,14 +3698,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>61</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3693,14 +3714,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3710,11 +3731,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>141</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>142</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3726,14 +3747,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3743,11 +3764,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>199</v>
+        <v>64</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3759,14 +3780,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3776,11 +3797,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3792,14 +3813,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3809,11 +3830,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3825,14 +3846,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3842,11 +3863,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>28</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3858,28 +3879,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>99</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -3891,28 +3912,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>106</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -3924,28 +3945,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -3957,31 +3978,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>234</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3990,28 +4011,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4023,28 +4044,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4056,7 +4077,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4069,18 +4090,18 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>126</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4089,31 +4110,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>248</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4122,28 +4143,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4155,66 +4176,198 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>254</v>
+        <v>88</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>253</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>18</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>58</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>254</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>256</v>
       </c>
-      <c t="s" r="Q90" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>4515.3249999999998</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>18</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>58</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>245</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
         <v>257</v>
       </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>78</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>58</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
         <v>258</v>
       </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
         <v>259</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c t="s" r="Q93" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>260</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>261</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>58</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>262</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>4656.8850000000002</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>264</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>265</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>266</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4643,10 +4796,30 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -263,6 +263,18 @@
     <t>47.0250</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
   </si>
   <si>
@@ -275,18 +287,18 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
     <t>23.00</t>
   </si>
   <si>
@@ -518,6 +530,15 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
@@ -608,9 +629,6 @@
     <t>4:2</t>
   </si>
   <si>
-    <t>23.7600</t>
-  </si>
-  <si>
     <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
   </si>
   <si>
@@ -641,9 +659,6 @@
     <t>3:1</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
     <t>12.8700</t>
   </si>
   <si>
@@ -698,6 +713,18 @@
     <t>VENTOCOUGH SYRUP 125 ML</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8653:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>ZINCOLIVE LOTION 60 ML</t>
   </si>
   <si>
@@ -773,15 +800,15 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>10.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>9.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">ماء اكسجين 10 </t>
   </si>
   <si>
@@ -803,7 +830,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 8:39 PM</t>
+    <t>Thursday, 19 June, 2025 8:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2104,7 +2131,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2114,14 +2141,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2130,14 +2157,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2154,7 +2181,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2170,7 +2197,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2180,14 +2207,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2203,7 +2230,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2213,14 +2240,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2253,7 +2280,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2262,14 +2289,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2279,14 +2306,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2295,14 +2322,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2319,7 +2346,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2335,7 +2362,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2345,14 +2372,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2361,14 +2388,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2378,14 +2405,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2394,14 +2421,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2418,7 +2445,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2427,14 +2454,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2451,7 +2478,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>122</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2460,31 +2487,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2493,31 +2520,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>122</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2543,14 +2570,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2559,14 +2586,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2576,14 +2603,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2599,7 +2626,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2609,14 +2636,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2625,14 +2652,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2642,14 +2669,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2658,14 +2685,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2675,14 +2702,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2691,14 +2718,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2708,11 +2735,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2724,14 +2751,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2741,14 +2768,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2757,14 +2784,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2774,14 +2801,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2790,14 +2817,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2807,14 +2834,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2823,7 +2850,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2840,11 +2867,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2856,14 +2883,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2873,14 +2900,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2889,14 +2916,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2906,14 +2933,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2922,14 +2949,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2939,11 +2966,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2955,14 +2982,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2972,11 +2999,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2988,14 +3015,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3005,11 +3032,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3021,14 +3048,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3038,14 +3065,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3054,7 +3081,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3071,14 +3098,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3087,14 +3114,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3104,14 +3131,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3120,14 +3147,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3137,14 +3164,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3153,14 +3180,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3170,14 +3197,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3186,14 +3213,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3203,11 +3230,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3219,14 +3246,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3236,14 +3263,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3252,14 +3279,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3269,14 +3296,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3285,14 +3312,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3302,14 +3329,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3318,14 +3345,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3335,14 +3362,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>192</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3351,7 +3378,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3368,11 +3395,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3384,14 +3411,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3401,14 +3428,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>100</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3417,14 +3444,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3434,14 +3461,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3450,14 +3477,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3467,14 +3494,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3483,14 +3510,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3500,14 +3527,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>44</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3523,7 +3550,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3533,14 +3560,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3549,14 +3576,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3573,7 +3600,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3589,7 +3616,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3599,11 +3626,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>24</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3615,14 +3642,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>215</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3632,14 +3659,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3655,7 +3682,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3665,11 +3692,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>28</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>29</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3681,14 +3708,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3698,14 +3725,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3714,14 +3741,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3731,11 +3758,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>28</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3747,14 +3774,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3764,14 +3791,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>65</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3780,7 +3807,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3797,11 +3824,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3813,14 +3840,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3830,11 +3857,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>204</v>
+        <v>64</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>205</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3846,14 +3873,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3863,11 +3890,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3879,14 +3906,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3896,11 +3923,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>99</v>
+        <v>210</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -3912,14 +3939,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3929,11 +3956,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -3945,14 +3972,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3962,11 +3989,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>103</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -3978,31 +4005,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4011,28 +4038,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>110</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4044,28 +4071,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4077,14 +4104,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>243</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4094,14 +4121,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4110,14 +4137,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4127,11 +4154,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4143,14 +4170,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4160,11 +4187,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4176,14 +4203,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4193,14 +4220,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4209,14 +4236,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>257</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4226,14 +4253,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4242,14 +4269,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4259,14 +4286,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4275,14 +4302,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4292,11 +4319,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4308,14 +4335,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>261</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4325,49 +4352,148 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>4656.8850000000002</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
         <v>264</v>
       </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>18</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>58</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>254</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
         <v>265</v>
       </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
+      <c t="s" r="Q95" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
         <v>266</v>
       </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>78</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>58</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>267</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>269</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>270</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>58</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>271</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>272</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>4726.6450000000004</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
+        <v>273</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>274</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>275</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4816,10 +4942,25 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -92,6 +92,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
     <t>BETAFOS 1 AMP. 2ML</t>
   </si>
   <si>
@@ -164,9 +176,6 @@
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>120.00</t>
   </si>
   <si>
@@ -509,15 +518,21 @@
     <t>108.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
     <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>60.0000</t>
   </si>
   <si>
@@ -560,9 +575,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -701,6 +713,9 @@
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
+    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
+  </si>
+  <si>
     <t>TOBRADEX EYE SUSP. DROPS 5 ML</t>
   </si>
   <si>
@@ -830,7 +845,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 8:59 PM</t>
+    <t>Thursday, 19 June, 2025 9:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1570,7 +1585,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1580,14 +1595,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1596,14 +1611,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1613,14 +1628,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1629,14 +1644,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1646,14 +1661,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1662,14 +1677,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1679,11 +1694,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1695,7 +1710,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1712,11 +1727,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1728,14 +1743,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1752,7 +1767,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1818,7 +1833,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1834,7 +1849,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1851,7 +1866,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1873,15 +1888,15 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1893,28 +1908,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1926,14 +1941,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1943,11 +1958,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1966,7 +1981,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1999,7 +2014,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2009,11 +2024,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -2025,14 +2040,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2042,14 +2057,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2058,14 +2073,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2075,14 +2090,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2091,14 +2106,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2115,7 +2130,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2131,7 +2146,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2141,11 +2156,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2157,14 +2172,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2181,7 +2196,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2197,7 +2212,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2207,14 +2222,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2240,14 +2255,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2256,14 +2271,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2280,7 +2295,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2289,14 +2304,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2306,14 +2321,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>104</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2329,7 +2344,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2346,7 +2361,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2362,7 +2377,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2372,14 +2387,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2388,14 +2403,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2405,14 +2420,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2421,14 +2436,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2438,14 +2453,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2454,14 +2469,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2471,14 +2486,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>121</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2494,7 +2509,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2504,14 +2519,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>126</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2520,31 +2535,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2553,31 +2568,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>126</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2586,14 +2601,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2603,14 +2618,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2619,14 +2634,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2636,14 +2651,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2652,14 +2667,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2676,7 +2691,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2692,7 +2707,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2709,7 +2724,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2725,7 +2740,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2742,7 +2757,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2758,7 +2773,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2772,7 +2787,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2784,14 +2799,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2801,14 +2816,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2824,7 +2839,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2841,7 +2856,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2857,7 +2872,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2874,7 +2889,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2923,7 +2938,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2937,10 +2952,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2949,14 +2964,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2966,14 +2981,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2982,14 +2997,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2999,11 +3014,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3015,14 +3030,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3032,14 +3047,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3048,14 +3063,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3065,11 +3080,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3088,7 +3103,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3098,11 +3113,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3114,14 +3129,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3131,14 +3146,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3154,7 +3169,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3164,14 +3179,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3180,14 +3195,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3197,14 +3212,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3213,14 +3228,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3230,14 +3245,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3253,7 +3268,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3263,14 +3278,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3279,14 +3294,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3296,11 +3311,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3312,14 +3327,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3329,14 +3344,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3345,14 +3360,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3362,14 +3377,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3378,14 +3393,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3395,14 +3410,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3411,14 +3426,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3428,14 +3443,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>199</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3444,7 +3459,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3461,11 +3476,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3477,14 +3492,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3494,14 +3509,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>104</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3517,7 +3532,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3527,14 +3542,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>93</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3543,14 +3558,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3560,14 +3575,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>106</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3576,14 +3591,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3593,14 +3608,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>48</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3609,14 +3624,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3626,14 +3641,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>24</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3642,14 +3657,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>215</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3659,14 +3674,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3675,14 +3690,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3692,11 +3707,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3708,14 +3723,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>219</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3725,14 +3740,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3741,14 +3756,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3758,11 +3773,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>28</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>29</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3774,14 +3789,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3791,14 +3806,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3814,7 +3829,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3824,11 +3839,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3840,14 +3855,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3857,14 +3872,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>64</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3880,7 +3895,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3890,11 +3905,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>151</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3906,14 +3921,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3923,11 +3938,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>211</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -3939,14 +3954,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3956,11 +3971,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -3972,14 +3987,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3989,11 +4004,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4005,14 +4020,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>235</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4022,14 +4037,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4038,14 +4053,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4055,11 +4070,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4071,14 +4086,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4088,11 +4103,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4104,31 +4119,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4137,28 +4152,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>247</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>113</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4170,28 +4185,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4203,31 +4218,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>248</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4236,28 +4251,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4269,28 +4284,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4302,31 +4317,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4335,31 +4350,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>262</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>136</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4368,31 +4383,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4408,21 +4423,21 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4434,66 +4449,165 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>270</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>269</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>18</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>61</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>259</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>271</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>81</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>61</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
         <v>272</v>
       </c>
-      <c t="s" r="Q97" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>4726.6450000000004</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
         <v>273</v>
       </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
+      <c t="s" r="Q99" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
         <v>274</v>
       </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
         <v>275</v>
       </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>61</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>276</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>4832.2849999999999</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>278</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>279</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>280</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4957,10 +5071,25 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -512,6 +512,15 @@
     <t>66.00</t>
   </si>
   <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>LEVOTAVIN 750 MG 7 F.C.TABS.</t>
   </si>
   <si>
@@ -527,6 +536,9 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>MAXDINIR 125MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -548,18 +560,21 @@
     <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
     <t>37.6200</t>
   </si>
   <si>
+    <t>NASACORT AQ 55 MCG NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>151.00</t>
+  </si>
+  <si>
+    <t>151.0000</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -731,13 +746,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8653:0</t>
+    <t>8651:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>8.0000</t>
   </si>
   <si>
     <t>ZINCOLIVE LOTION 60 ML</t>
@@ -845,7 +860,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 9:01 PM</t>
+    <t>Thursday, 19 June, 2025 9:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3004,7 +3019,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3014,11 +3029,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3030,14 +3045,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3047,14 +3062,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3070,7 +3085,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3080,14 +3095,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3096,14 +3111,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3113,11 +3128,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3129,14 +3144,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3146,11 +3161,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3162,14 +3177,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3179,11 +3194,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>29</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3195,14 +3210,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3212,14 +3227,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3228,7 +3243,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3245,14 +3260,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3261,14 +3276,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3278,14 +3293,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3294,14 +3309,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3311,14 +3326,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3327,14 +3342,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3344,14 +3359,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3360,14 +3375,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3377,14 +3392,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3393,14 +3408,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3410,14 +3425,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3426,14 +3441,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3443,14 +3458,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3459,7 +3474,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3476,14 +3491,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3492,14 +3507,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3513,10 +3528,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>203</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3525,14 +3540,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3542,11 +3557,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3558,14 +3573,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3575,11 +3590,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3591,14 +3606,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3608,14 +3623,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>48</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>96</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3624,14 +3639,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3641,14 +3656,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3657,7 +3672,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3674,11 +3689,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3690,14 +3705,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3707,14 +3722,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3723,14 +3738,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>219</v>
+        <v>129</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3740,11 +3755,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3756,7 +3771,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3773,11 +3788,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3789,14 +3804,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3806,11 +3821,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>201</v>
+        <v>24</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3822,14 +3837,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3839,14 +3854,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>33</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3855,14 +3870,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3872,14 +3887,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3888,14 +3903,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3905,11 +3920,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3921,7 +3936,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3938,11 +3953,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -3954,14 +3969,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3971,14 +3986,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>19</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4004,11 +4019,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>154</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>155</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4020,14 +4035,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4037,11 +4052,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>214</v>
+        <v>67</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>215</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4053,14 +4068,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4070,11 +4085,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4086,14 +4101,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4103,11 +4118,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4119,14 +4134,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>240</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4136,14 +4151,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4152,14 +4167,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4169,11 +4184,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4185,14 +4200,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4202,11 +4217,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>245</v>
+        <v>106</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>246</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4218,31 +4233,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4251,28 +4266,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>252</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>113</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4284,28 +4299,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4317,14 +4332,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>253</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4334,14 +4349,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4350,14 +4365,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4367,11 +4382,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4383,14 +4398,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4400,11 +4415,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4416,14 +4431,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4433,14 +4448,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4449,14 +4464,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>267</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4466,14 +4481,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4482,14 +4497,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4499,14 +4514,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4522,7 +4537,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4532,11 +4547,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4548,14 +4563,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>275</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4565,49 +4580,148 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>274</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>18</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>61</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>264</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>275</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>276</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>81</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>61</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
         <v>277</v>
       </c>
-      <c t="s" r="Q100" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>4832.2849999999999</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
         <v>278</v>
       </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
+      <c t="s" r="Q102" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
         <v>279</v>
       </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
         <v>280</v>
       </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>61</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>281</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>282</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>5096.2849999999999</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>283</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>284</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>285</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5086,10 +5200,25 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -860,7 +860,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 9:03 PM</t>
+    <t>Thursday, 19 June, 2025 9:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>ALZEPIZIL 10MG 14 F.C. TAB.</t>
   </si>
   <si>
@@ -164,9 +176,6 @@
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>86.00</t>
   </si>
   <si>
@@ -425,6 +434,15 @@
     <t>5:6</t>
   </si>
   <si>
+    <t>FELDENE 20MG 3 AMP I.M</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -704,6 +722,9 @@
     <t>132.0000</t>
   </si>
   <si>
+    <t>SULFAX PLUS MASSAGE GEL 60 GM</t>
+  </si>
+  <si>
     <t>TANTUM VERDE 0.15% MOUTH WASH 125 ML</t>
   </si>
   <si>
@@ -830,7 +851,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>10.0000</t>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -860,7 +884,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 9:04 PM</t>
+    <t>Thursday, 19 June, 2025 9:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1551,7 +1575,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1560,14 +1584,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1577,14 +1601,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1593,14 +1617,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1610,14 +1634,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>30</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1633,7 +1657,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1643,14 +1667,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1659,14 +1683,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1676,14 +1700,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1692,14 +1716,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1709,14 +1733,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1725,14 +1749,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1742,14 +1766,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1758,14 +1782,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1775,14 +1799,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1791,14 +1815,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1815,7 +1839,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1864,7 +1888,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1881,7 +1905,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1897,7 +1921,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1914,7 +1938,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1930,24 +1954,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1956,31 +1980,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1989,14 +2013,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2006,14 +2030,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2029,7 +2053,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2046,7 +2070,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2062,7 +2086,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2072,14 +2096,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2088,14 +2112,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2105,14 +2129,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2121,14 +2145,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2138,14 +2162,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2154,14 +2178,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2178,7 +2202,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2194,7 +2218,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2204,11 +2228,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2220,14 +2244,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2244,7 +2268,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2260,7 +2284,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2270,14 +2294,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2303,14 +2327,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2319,14 +2343,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2343,7 +2367,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>104</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2352,14 +2376,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2369,14 +2393,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>107</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2392,7 +2416,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2409,7 +2433,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>81</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2425,7 +2449,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2435,14 +2459,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2451,14 +2475,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2468,14 +2492,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2484,14 +2508,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2501,14 +2525,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2517,14 +2541,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2534,14 +2558,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>124</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2557,7 +2581,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2567,14 +2591,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>129</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2583,31 +2607,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2616,31 +2640,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>129</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2649,14 +2673,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2666,14 +2690,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2682,14 +2706,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2699,14 +2723,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2715,14 +2739,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2732,14 +2756,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2748,14 +2772,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2772,7 +2796,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2788,7 +2812,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2821,7 +2845,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2835,10 +2859,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2847,14 +2871,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2864,14 +2888,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2880,14 +2904,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2897,14 +2921,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2920,7 +2944,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2937,7 +2961,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2953,7 +2977,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2970,7 +2994,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2986,7 +3010,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3000,10 +3024,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3012,14 +3036,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3029,14 +3053,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3045,14 +3069,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3062,14 +3086,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3078,14 +3102,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3095,14 +3119,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3111,14 +3135,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3128,14 +3152,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3144,14 +3168,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3161,14 +3185,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3177,14 +3201,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3194,14 +3218,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3210,14 +3234,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3227,14 +3251,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3243,14 +3267,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3260,14 +3284,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3276,14 +3300,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3293,14 +3317,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3309,14 +3333,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3326,14 +3350,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3342,14 +3366,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3359,14 +3383,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3375,14 +3399,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3392,14 +3416,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3408,14 +3432,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3425,14 +3449,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>36</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3441,14 +3465,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3458,14 +3482,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3474,14 +3498,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3491,11 +3515,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3514,7 +3538,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3528,10 +3552,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3540,14 +3564,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3557,14 +3581,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3573,14 +3597,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3590,14 +3614,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3606,14 +3630,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3623,14 +3647,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>109</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>208</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3646,7 +3670,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3656,14 +3680,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3672,14 +3696,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3689,14 +3713,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>106</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3705,14 +3729,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3722,14 +3746,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>96</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3738,14 +3762,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3755,14 +3779,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>109</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3771,14 +3795,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3788,14 +3812,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>52</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3811,7 +3835,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3821,14 +3845,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3837,14 +3861,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3854,14 +3878,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3870,14 +3894,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3887,14 +3911,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>28</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3910,7 +3934,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3920,14 +3944,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3936,14 +3960,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3953,14 +3977,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3969,14 +3993,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3986,14 +4010,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4002,14 +4026,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4019,14 +4043,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>61</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4042,7 +4066,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4052,14 +4076,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4075,7 +4099,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4085,14 +4109,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>20</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4101,14 +4125,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4118,14 +4142,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>154</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>155</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4134,14 +4158,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4151,14 +4175,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>219</v>
+        <v>70</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>220</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4167,14 +4191,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4184,14 +4208,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4200,14 +4224,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4217,14 +4241,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4233,14 +4257,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>245</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4250,14 +4274,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>118</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4266,14 +4290,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4283,14 +4307,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4299,14 +4323,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4316,14 +4340,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>250</v>
+        <v>109</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>251</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4332,31 +4356,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4365,31 +4389,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>257</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>116</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4398,31 +4422,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4431,31 +4455,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>81</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4464,31 +4488,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4497,31 +4521,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4530,31 +4554,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4563,31 +4587,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>139</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4596,31 +4620,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4629,31 +4653,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4669,59 +4693,158 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>280</v>
+        <v>22</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
+        <v>280</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
         <v>282</v>
       </c>
-      <c t="s" r="Q103" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>5096.2849999999999</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>22</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>64</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>271</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
         <v>283</v>
       </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
+      <c t="s" r="Q104" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
         <v>284</v>
       </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>84</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>64</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
         <v>285</v>
       </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>286</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>287</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>288</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>64</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>289</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>290</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>5260.9949999999999</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
+        <v>291</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
+        <v>292</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>293</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5215,10 +5338,25 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -884,7 +884,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 9:06 PM</t>
+    <t>Thursday, 19 June, 2025 9:09 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -683,6 +683,15 @@
     <t>37.9200</t>
   </si>
   <si>
+    <t>SELGON 20MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>SILVIRBURN CREAM 250 GM</t>
   </si>
   <si>
@@ -800,6 +809,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
     <t>بودره نلج اكياس</t>
   </si>
   <si>
@@ -863,13 +881,22 @@
     <t>9.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>44:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">ماء اكسجين 10 </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
   </si>
   <si>
     <t>معجون سيجنال 50 مل</t>
@@ -884,7 +911,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 9:09 PM</t>
+    <t>Thursday, 19 June, 2025 9:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3868,7 +3895,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3878,14 +3905,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>109</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3901,7 +3928,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3911,11 +3938,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>28</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -3927,14 +3954,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>179</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3944,14 +3971,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3967,7 +3994,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3977,14 +4004,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>174</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4000,7 +4027,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4010,11 +4037,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -4026,14 +4053,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4043,11 +4070,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>61</v>
+        <v>212</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>62</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -4059,14 +4086,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4076,11 +4103,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>25</v>
@@ -4092,14 +4119,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4109,14 +4136,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>36</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4132,7 +4159,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4149,7 +4176,7 @@
         <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4165,7 +4192,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4175,11 +4202,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>70</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>71</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4191,7 +4218,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4208,11 +4235,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>25</v>
@@ -4224,14 +4251,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4241,11 +4268,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>25</v>
@@ -4257,14 +4284,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4274,11 +4301,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>225</v>
+        <v>160</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>226</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4290,14 +4317,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4307,11 +4334,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>36</v>
+        <v>228</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>37</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
@@ -4323,14 +4350,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4340,11 +4367,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4356,14 +4383,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>252</v>
+        <v>25</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4373,14 +4400,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>253</v>
+        <v>109</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>254</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>121</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4389,14 +4416,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4406,14 +4433,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>116</v>
+        <v>256</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>117</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>121</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4422,7 +4449,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4439,11 +4466,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>257</v>
+        <v>116</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>258</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4462,21 +4489,21 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>260</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>25</v>
@@ -4488,14 +4515,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4505,11 +4532,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>25</v>
@@ -4521,14 +4548,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>84</v>
+        <v>267</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4542,7 +4569,7 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>25</v>
@@ -4554,14 +4581,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>270</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4578,7 +4605,7 @@
         <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>84</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4594,7 +4621,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>274</v>
+        <v>84</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4604,11 +4631,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>25</v>
@@ -4620,14 +4647,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4637,14 +4664,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>25</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4653,14 +4680,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>101</v>
+        <v>280</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4670,11 +4697,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>25</v>
@@ -4686,14 +4713,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4703,14 +4730,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>281</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4719,14 +4746,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4736,14 +4763,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4752,14 +4779,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4769,14 +4796,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>25</v>
+        <v>287</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4785,14 +4812,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>288</v>
+        <v>22</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4802,49 +4829,181 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
+        <v>289</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
         <v>290</v>
       </c>
-      <c t="s" r="Q106" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>5260.9949999999999</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
         <v>291</v>
       </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>64</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
         <v>292</v>
       </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
         <v>293</v>
       </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>84</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>64</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>268</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>294</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>22</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>64</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>295</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>257</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>296</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>297</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>64</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>298</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>299</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>5310.9949999999999</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>300</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>301</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>302</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5353,10 +5512,30 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -548,66 +548,72 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>MAXDINIR 125MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>NAIL 15 TOPICAL LOTION 15 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>NASACORT AQ 55 MCG NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>151.00</t>
+  </si>
+  <si>
+    <t>151.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
     <t>2:2</t>
   </si>
   <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>MAXDINIR 125MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>NAIL 15 TOPICAL LOTION 15 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>NASACORT AQ 55 MCG NASAL SPRAY 120 DOSES</t>
-  </si>
-  <si>
-    <t>151.00</t>
-  </si>
-  <si>
-    <t>151.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>93.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -638,6 +644,15 @@
     <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
   </si>
   <si>
+    <t>PROTOFIX 40MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
   </si>
   <si>
@@ -662,9 +677,6 @@
     <t>58.00</t>
   </si>
   <si>
-    <t>58.0000</t>
-  </si>
-  <si>
     <t>RICHI PANTHENOL CREAM 20GM</t>
   </si>
   <si>
@@ -911,7 +923,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 9:26 PM</t>
+    <t>Thursday, 19 June, 2025 9:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3202,7 +3214,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3216,10 +3228,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3228,7 +3240,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3261,7 +3273,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3294,7 +3306,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3315,7 +3327,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3327,14 +3339,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3344,14 +3356,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3360,14 +3372,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3377,11 +3389,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3400,7 +3412,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3410,14 +3422,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3426,14 +3438,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3443,14 +3455,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3459,14 +3471,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3476,14 +3488,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3492,14 +3504,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3509,14 +3521,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3525,14 +3537,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3542,14 +3554,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>103</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3558,14 +3570,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3579,7 +3591,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3591,14 +3603,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3608,11 +3620,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3624,14 +3636,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3641,14 +3653,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3664,7 +3676,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3674,14 +3686,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>109</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3690,14 +3702,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3707,11 +3719,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3723,14 +3735,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3747,7 +3759,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>214</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3756,7 +3768,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3773,11 +3785,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
@@ -3789,14 +3801,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3806,14 +3818,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>110</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3822,14 +3834,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>25</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3839,14 +3851,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>52</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3855,14 +3867,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3872,14 +3884,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>109</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3888,14 +3900,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3905,11 +3917,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3921,14 +3933,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3938,14 +3950,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3954,14 +3966,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3971,14 +3983,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3987,14 +3999,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4004,14 +4016,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4020,14 +4032,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4037,11 +4049,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -4053,14 +4065,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>30</v>
+        <v>237</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4070,14 +4082,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4086,7 +4098,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4103,11 +4115,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>61</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>62</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>25</v>
@@ -4119,14 +4131,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4136,11 +4148,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>36</v>
+        <v>217</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4152,14 +4164,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4169,14 +4181,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>61</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4192,7 +4204,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4202,11 +4214,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>36</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4218,14 +4230,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4235,14 +4247,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>70</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>71</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4258,7 +4270,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4268,11 +4280,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>24</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>25</v>
@@ -4284,14 +4296,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4301,11 +4313,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4317,14 +4329,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4334,11 +4346,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>228</v>
+        <v>23</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>229</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
@@ -4350,14 +4362,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4367,11 +4379,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4383,14 +4395,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4400,11 +4412,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>109</v>
+        <v>232</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>110</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>25</v>
@@ -4416,14 +4428,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4433,14 +4445,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>256</v>
+        <v>36</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>257</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>121</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4449,14 +4461,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4466,11 +4478,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4482,14 +4494,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>259</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4506,7 +4518,7 @@
         <v>261</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>25</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4522,21 +4534,21 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>263</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>264</v>
+        <v>116</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>25</v>
@@ -4548,28 +4560,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>25</v>
@@ -4581,14 +4593,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4598,11 +4610,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>25</v>
@@ -4614,14 +4626,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>84</v>
+        <v>271</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4631,11 +4643,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>275</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>25</v>
@@ -4647,14 +4659,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4664,14 +4676,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>84</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4680,14 +4692,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>280</v>
+        <v>84</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4697,11 +4709,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>25</v>
@@ -4713,14 +4725,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4730,14 +4742,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>25</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4746,14 +4758,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>101</v>
+        <v>284</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4763,11 +4775,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>25</v>
@@ -4786,7 +4798,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4796,14 +4808,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>287</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4819,7 +4831,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4829,14 +4841,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4845,14 +4857,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>291</v>
+        <v>22</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4862,14 +4874,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>84</v>
+        <v>291</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4878,14 +4890,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4895,14 +4907,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>226</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4918,7 +4930,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>22</v>
+        <v>295</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4928,14 +4940,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>257</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>25</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4944,14 +4956,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>297</v>
+        <v>84</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4961,49 +4973,115 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>298</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>22</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>64</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
         <v>299</v>
       </c>
-      <c t="s" r="Q110" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>5310.9949999999999</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
         <v>300</v>
       </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
         <v>301</v>
       </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>64</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
         <v>302</v>
       </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>303</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>5409.835</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>304</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>305</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>306</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5532,10 +5610,20 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -776,6 +776,9 @@
     <t>TOBRADEX EYE SUSP. DROPS 5 ML</t>
   </si>
   <si>
+    <t>TORSERETIC 5MG 30 TABS.</t>
+  </si>
+  <si>
     <t>TRITOSPOT CREAM 15 GM</t>
   </si>
   <si>
@@ -923,7 +926,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 9:28 PM</t>
+    <t>Thursday, 19 June, 2025 9:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4402,7 +4405,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4412,14 +4415,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>232</v>
+        <v>33</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4435,7 +4438,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4445,11 +4448,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>36</v>
+        <v>232</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>37</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>25</v>
@@ -4468,7 +4471,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4478,11 +4481,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4501,7 +4504,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>259</v>
+        <v>25</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4511,14 +4514,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>260</v>
+        <v>109</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>121</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4527,14 +4530,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4544,14 +4547,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>116</v>
+        <v>261</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>117</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>25</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4577,11 +4580,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>264</v>
+        <v>116</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>265</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>25</v>
@@ -4593,28 +4596,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>25</v>
@@ -4626,14 +4629,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4643,11 +4646,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>25</v>
@@ -4659,14 +4662,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4676,11 +4679,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>25</v>
@@ -4692,14 +4695,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>84</v>
+        <v>275</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4709,11 +4712,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>25</v>
@@ -4725,14 +4728,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4742,14 +4745,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>84</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4758,14 +4761,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>284</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4775,14 +4778,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>25</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4791,14 +4794,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>25</v>
+        <v>285</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4808,11 +4811,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>25</v>
@@ -4824,14 +4827,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4841,11 +4844,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>25</v>
@@ -4864,7 +4867,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4874,14 +4877,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>291</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4890,7 +4893,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4907,14 +4910,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>292</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4923,14 +4926,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>295</v>
+        <v>22</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4940,14 +4943,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>15</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4956,14 +4959,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>84</v>
+        <v>296</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4973,14 +4976,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>230</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>25</v>
+        <v>84</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4996,7 +4999,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5006,11 +5009,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>25</v>
@@ -5022,14 +5025,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>301</v>
+        <v>22</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5039,49 +5042,82 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
+        <v>262</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>301</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>302</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>64</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
         <v>303</v>
       </c>
-      <c t="s" r="Q112" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>5409.835</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
         <v>304</v>
       </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
+      <c t="s" r="Q113" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>5429.6350000000002</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
         <v>305</v>
       </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
         <v>306</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>307</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5620,10 +5656,15 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -116,6 +116,15 @@
     <t>19.8000</t>
   </si>
   <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>141.0000</t>
+  </si>
+  <si>
     <t>BETAFOS 1 AMP. 2ML</t>
   </si>
   <si>
@@ -200,6 +209,18 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>CEREBROLYSIN 215.2MG/ML I.M./I.V. 5 AMPS (5ML)</t>
+  </si>
+  <si>
+    <t>740.00</t>
+  </si>
+  <si>
+    <t>592.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>CERVETOLKA 500MG 20CAPS</t>
   </si>
   <si>
@@ -212,12 +233,30 @@
     <t>340.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">CERVETOLKA FORTE  SYRUP</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>200.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
     <t>23:0</t>
   </si>
   <si>
+    <t>CLATEX 75MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
     <t>COLLOMAK TOP. SOUTION 10 ML</t>
   </si>
   <si>
@@ -407,9 +446,6 @@
     <t>47.5200</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
@@ -563,6 +599,15 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>MOTILIUM 10MG 40 F.C.TAB.</t>
   </si>
   <si>
@@ -758,6 +803,15 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>TEBOFORTIN FORTE 80MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>108.9000</t>
+  </si>
+  <si>
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
@@ -893,9 +947,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>9.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
@@ -926,7 +977,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 9:30 PM</t>
+    <t>Thursday, 19 June, 2025 9:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1765,7 +1816,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1782,7 +1833,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1798,7 +1849,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1815,7 +1866,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1831,7 +1882,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1897,7 +1948,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1907,14 +1958,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1923,14 +1974,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1963,7 +2014,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1980,7 +2031,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1996,7 +2047,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2013,7 +2064,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2035,15 +2086,15 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>25</v>
@@ -2055,14 +2106,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2072,14 +2123,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2088,28 +2139,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>25</v>
@@ -2121,7 +2172,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2134,15 +2185,15 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>25</v>
@@ -2154,14 +2205,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2171,11 +2222,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>25</v>
@@ -2194,7 +2245,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2204,14 +2255,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2220,14 +2271,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2237,11 +2288,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -2253,14 +2304,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2270,14 +2321,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2286,14 +2337,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2303,14 +2354,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2319,14 +2370,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2336,14 +2387,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2352,14 +2403,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2369,14 +2420,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2392,7 +2443,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2402,14 +2453,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2418,14 +2469,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2442,7 +2493,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2451,14 +2502,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2468,11 +2519,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -2484,14 +2535,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2501,14 +2552,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>84</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2517,14 +2568,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2534,11 +2585,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2550,14 +2601,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2567,14 +2618,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2583,14 +2634,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2607,7 +2658,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>124</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2616,14 +2667,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2633,14 +2684,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2649,14 +2700,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2666,14 +2717,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>132</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2682,7 +2733,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2695,18 +2746,18 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2715,14 +2766,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2732,14 +2783,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2748,14 +2799,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2765,14 +2816,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2788,7 +2839,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2798,14 +2849,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2814,28 +2865,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2847,14 +2898,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2871,7 +2922,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2887,7 +2938,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2897,14 +2948,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2913,14 +2964,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2930,14 +2981,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2946,14 +2997,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2967,10 +3018,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2979,14 +3030,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2996,14 +3047,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3012,14 +3063,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3029,14 +3080,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>84</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3045,14 +3096,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3062,14 +3113,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3078,14 +3129,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3095,14 +3146,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3118,7 +3169,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3132,10 +3183,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3144,7 +3195,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3161,14 +3212,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3177,7 +3228,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3194,11 +3245,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -3210,14 +3261,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3227,14 +3278,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3243,14 +3294,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3260,14 +3311,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3276,14 +3327,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3293,11 +3344,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -3309,14 +3360,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3326,11 +3377,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3342,14 +3393,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3359,14 +3410,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3375,7 +3426,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3392,11 +3443,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>23</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3408,14 +3459,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3425,11 +3476,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3441,14 +3492,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3458,14 +3509,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3474,14 +3525,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3491,11 +3542,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3507,14 +3558,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3524,14 +3575,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3540,14 +3591,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3557,11 +3608,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3573,14 +3624,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>97</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3590,14 +3641,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3606,14 +3657,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3623,11 +3674,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3639,14 +3690,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3656,14 +3707,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3672,14 +3723,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3689,14 +3740,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>39</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>117</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3705,14 +3756,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3722,11 +3773,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>110</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3738,14 +3789,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>25</v>
+        <v>215</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3755,11 +3806,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3771,14 +3822,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3788,14 +3839,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>161</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3804,14 +3855,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3821,14 +3872,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>219</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3837,14 +3888,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3854,14 +3905,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>213</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3870,7 +3921,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3887,11 +3938,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>25</v>
@@ -3903,14 +3954,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>25</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3920,11 +3971,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>52</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3936,14 +3987,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3953,14 +4004,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3969,14 +4020,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3986,14 +4037,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>109</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4002,14 +4053,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4019,11 +4070,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>25</v>
@@ -4035,14 +4086,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4052,11 +4103,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -4068,14 +4119,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4085,11 +4136,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>174</v>
+        <v>55</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4101,14 +4152,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4118,14 +4169,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4134,14 +4185,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>30</v>
+        <v>244</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4151,14 +4202,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>217</v>
+        <v>122</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4167,7 +4218,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4184,11 +4235,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>61</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>62</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4200,14 +4251,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>25</v>
+        <v>215</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4217,11 +4268,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>37</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4233,14 +4284,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>80</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4250,11 +4301,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4266,14 +4317,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4283,11 +4334,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>25</v>
@@ -4299,14 +4350,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4316,11 +4367,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>71</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4332,14 +4383,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4349,11 +4400,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
@@ -4365,14 +4416,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4382,11 +4433,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4398,14 +4449,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4415,11 +4466,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>33</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>34</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4431,7 +4482,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4448,14 +4499,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4464,14 +4515,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4481,11 +4532,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>36</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>37</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4497,7 +4548,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4514,11 +4565,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>25</v>
@@ -4530,14 +4581,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>260</v>
+        <v>25</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4547,14 +4598,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>121</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4563,14 +4614,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4580,11 +4631,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>25</v>
@@ -4596,14 +4647,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4613,14 +4664,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>265</v>
+        <v>33</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>266</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4629,28 +4680,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>268</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>25</v>
@@ -4662,28 +4713,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>273</v>
+        <v>39</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>25</v>
@@ -4695,28 +4746,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>275</v>
+        <v>25</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>122</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>25</v>
@@ -4728,20 +4779,20 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>84</v>
+        <v>278</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4752,7 +4803,7 @@
         <v>280</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>25</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4774,18 +4825,18 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>282</v>
+        <v>129</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>283</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>84</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4794,28 +4845,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>285</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>25</v>
@@ -4827,20 +4878,20 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>25</v>
+        <v>286</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -4867,21 +4918,21 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>101</v>
+        <v>290</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>25</v>
@@ -4893,31 +4944,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>22</v>
+        <v>293</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>292</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4926,31 +4977,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4959,31 +5010,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>296</v>
+        <v>22</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>15</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4992,28 +5043,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>84</v>
+        <v>303</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>25</v>
@@ -5025,28 +5076,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>25</v>
@@ -5058,66 +5109,264 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>302</v>
+        <v>114</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>5429.6350000000002</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
-        <v>305</v>
-      </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
-        <v>306</v>
-      </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
-        <v>307</v>
-      </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>308</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>22</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>71</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>279</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>309</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>311</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>22</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>71</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>300</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>312</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>313</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>71</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>314</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>315</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>97</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>71</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>291</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>316</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>22</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>71</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>317</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>280</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>318</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>319</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>71</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>320</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>321</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>6735.5349999999999</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
+        <v>322</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>323</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>324</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5661,10 +5910,40 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -977,7 +977,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 9:35 PM</t>
+    <t>Thursday, 19 June, 2025 9:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -116,6 +116,18 @@
     <t>19.8000</t>
   </si>
   <si>
+    <t>ASMATROPIM 500MCG/2ML 20 NEBULIZER VIAL SOLN.</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>164.00</t>
+  </si>
+  <si>
+    <t>8.2000</t>
+  </si>
+  <si>
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
   </si>
   <si>
@@ -332,6 +344,15 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DELTACLAV 457MG/5ML PD. FOR ORAL 80ML SUSP.</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
   </si>
   <si>
@@ -452,6 +473,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -533,6 +563,12 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
@@ -596,9 +632,6 @@
     <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
   </si>
   <si>
@@ -701,6 +734,18 @@
     <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
   </si>
   <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>1:19</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
     <t>QUIBRON T/SR 300MG 100 TAB</t>
   </si>
   <si>
@@ -845,124 +890,127 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8651:0</t>
+    <t>8649:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>ZINCOLIVE LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>ZITHROKAN 500MG 3 CAP</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>77.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t>بيبي جوي رقم 5</t>
+  </si>
+  <si>
+    <t>380.00</t>
+  </si>
+  <si>
+    <t>380.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زولا حزام بطن </t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>سائل باربار</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>44:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ماء اكسجين 10 </t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
     <t>8.0000</t>
   </si>
   <si>
-    <t>ZINCOLIVE LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>ZITHROKAN 500MG 3 CAP</t>
-  </si>
-  <si>
-    <t>77.00</t>
-  </si>
-  <si>
-    <t>77.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
-    <t>17:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>27:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>بودره نلج اكياس</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t>بيبي جوي رقم 5</t>
-  </si>
-  <si>
-    <t>380.00</t>
-  </si>
-  <si>
-    <t>380.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>حلاوة حرير</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">زولا حزام بطن </t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>سائل باربار</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>44:0</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ماء اكسجين 10 </t>
-  </si>
-  <si>
-    <t>مجموعه برد</t>
-  </si>
-  <si>
-    <t>8.00</t>
+    <t>محلول ملح</t>
   </si>
   <si>
     <t>معجون سيجنال 50 مل</t>
@@ -977,7 +1025,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 9:36 PM</t>
+    <t>Thursday, 19 June, 2025 9:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1783,7 +1831,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1793,14 +1841,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1809,7 +1857,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1826,11 +1874,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>25</v>
@@ -1842,14 +1890,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1859,14 +1907,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1875,14 +1923,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1892,14 +1940,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1908,14 +1956,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1925,11 +1973,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>25</v>
@@ -1941,7 +1989,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1958,11 +2006,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>25</v>
@@ -1974,14 +2022,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1998,7 +2046,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2014,7 +2062,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2024,11 +2072,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -2040,14 +2088,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2057,14 +2105,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2073,14 +2121,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2090,14 +2138,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2106,7 +2154,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2123,14 +2171,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2152,18 +2200,18 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>73</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2185,15 +2233,15 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>25</v>
@@ -2205,28 +2253,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>25</v>
@@ -2238,14 +2286,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2255,11 +2303,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>25</v>
@@ -2271,14 +2319,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2288,11 +2336,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -2304,14 +2352,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2321,11 +2369,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -2337,14 +2385,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2394,7 +2442,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2427,7 +2475,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2443,7 +2491,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2453,14 +2501,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2469,14 +2517,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2509,7 +2557,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2519,14 +2567,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2535,14 +2583,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2552,14 +2600,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2568,14 +2616,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2608,7 +2656,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2618,14 +2666,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2634,14 +2682,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2674,7 +2722,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2691,7 +2739,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>97</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2700,14 +2748,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2740,7 +2788,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2750,14 +2798,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2766,14 +2814,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2783,14 +2831,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>137</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2816,14 +2864,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2832,14 +2880,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2849,14 +2897,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>144</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>69</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2878,15 +2926,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2898,14 +2946,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2915,14 +2963,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2931,31 +2979,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2964,14 +3012,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2981,11 +3029,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>25</v>
@@ -2997,14 +3045,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3014,14 +3062,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3030,14 +3078,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3047,14 +3095,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>162</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3070,7 +3118,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3103,7 +3151,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3113,14 +3161,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3129,14 +3177,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3146,11 +3194,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3162,14 +3210,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3179,11 +3227,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -3195,14 +3243,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3212,14 +3260,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3228,14 +3276,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3245,14 +3293,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3261,14 +3309,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3278,11 +3326,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -3294,14 +3342,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3311,14 +3359,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>184</v>
+        <v>33</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3327,7 +3375,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3344,14 +3392,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3360,7 +3408,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3377,11 +3425,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3393,14 +3441,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3410,14 +3458,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>129</v>
+        <v>193</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3426,14 +3474,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3443,14 +3491,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3459,14 +3507,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3476,11 +3524,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3492,14 +3540,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3509,11 +3557,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3525,14 +3573,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3542,14 +3590,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3558,14 +3606,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3575,14 +3623,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3591,14 +3639,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3608,11 +3656,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3624,14 +3672,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3641,11 +3689,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3657,14 +3705,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3674,14 +3722,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3690,14 +3738,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3707,14 +3755,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3723,14 +3771,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3740,14 +3788,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3756,14 +3804,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3773,11 +3821,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3789,14 +3837,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3806,11 +3854,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>146</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>116</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3822,14 +3870,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3839,14 +3887,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3855,14 +3903,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3872,14 +3920,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>43</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3895,7 +3943,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3905,14 +3953,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>14</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3928,7 +3976,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3938,14 +3986,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3954,14 +4002,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3971,11 +4019,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3987,7 +4035,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4004,14 +4052,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4020,14 +4068,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4037,14 +4085,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>234</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4053,14 +4101,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4070,11 +4118,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>129</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>25</v>
@@ -4093,7 +4141,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4103,14 +4151,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>122</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>123</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4119,14 +4167,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4136,14 +4184,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>55</v>
+        <v>182</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4152,14 +4200,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>69</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4169,11 +4217,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4185,14 +4233,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4202,14 +4250,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>122</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>249</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4218,14 +4266,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4235,11 +4283,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4251,14 +4299,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>215</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4268,11 +4316,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4284,14 +4332,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4301,11 +4349,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>186</v>
+        <v>59</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4317,14 +4365,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4334,14 +4382,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4350,14 +4398,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>30</v>
+        <v>259</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4367,14 +4415,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>232</v>
+        <v>129</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4383,7 +4431,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4400,11 +4448,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>64</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>65</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
@@ -4416,14 +4464,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4433,11 +4481,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4449,14 +4497,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>93</v>
+        <v>267</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4466,11 +4514,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>198</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4482,7 +4530,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4499,14 +4547,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4515,14 +4563,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4532,11 +4580,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4548,14 +4596,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4565,11 +4613,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>25</v>
@@ -4581,7 +4629,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4598,11 +4646,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>25</v>
@@ -4614,7 +4662,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4631,14 +4679,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>172</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>173</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4647,14 +4695,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4664,14 +4712,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>33</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>34</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4680,14 +4728,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4697,11 +4745,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>25</v>
@@ -4713,14 +4761,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4730,11 +4778,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>25</v>
@@ -4746,7 +4794,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4763,11 +4811,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>25</v>
@@ -4779,14 +4827,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>278</v>
+        <v>101</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4796,14 +4844,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>279</v>
+        <v>182</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>280</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>134</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4812,14 +4860,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4829,14 +4877,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4845,7 +4893,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4862,11 +4910,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>25</v>
@@ -4878,28 +4926,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>286</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>287</v>
+        <v>43</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>288</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>25</v>
@@ -4911,28 +4959,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>290</v>
+        <v>25</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>291</v>
+        <v>129</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>245</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>25</v>
@@ -4957,7 +5005,7 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
@@ -4965,10 +5013,10 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>295</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>25</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4977,28 +5025,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>297</v>
+        <v>136</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>298</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>25</v>
@@ -5010,7 +5058,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5023,18 +5071,18 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>97</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5043,28 +5091,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>25</v>
@@ -5076,20 +5124,20 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>25</v>
+        <v>304</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
@@ -5097,7 +5145,7 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>25</v>
@@ -5109,28 +5157,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>114</v>
+        <v>307</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>25</v>
@@ -5142,31 +5190,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>310</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5175,7 +5223,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5188,18 +5236,18 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>222</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>303</v>
+        <v>101</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5208,31 +5256,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>97</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5241,28 +5289,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>245</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>25</v>
@@ -5274,28 +5322,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>25</v>
@@ -5307,66 +5355,264 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>319</v>
+        <v>22</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>25</v>
+        <v>324</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>6735.5349999999999</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
-        <v>322</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
-        <v>323</v>
-      </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>325</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>22</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>75</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>314</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q120" s="12">
         <v>324</v>
       </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>326</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>327</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>75</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>328</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>329</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>101</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>75</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>305</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>330</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>22</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>75</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>331</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>332</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>333</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>22</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>75</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>14</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>334</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>335</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>75</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>336</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>337</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="P126" s="13">
+        <v>6998.335</v>
+      </c>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="14">
+        <v>338</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c t="s" r="G127" s="15">
+        <v>339</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c t="s" r="K127" s="17">
+        <v>340</v>
+      </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="607">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5940,10 +6186,40 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="K127:Q127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -530,6 +530,15 @@
     <t>100.9800</t>
   </si>
   <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
@@ -977,6 +986,15 @@
     <t>سائل باربار</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -1001,6 +1019,9 @@
     <t xml:space="preserve">ماء اكسجين 10 </t>
   </si>
   <si>
+    <t>ماسك جلسات اطفال</t>
+  </si>
+  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -1025,7 +1046,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 9:47 PM</t>
+    <t>Thursday, 19 June, 2025 9:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3217,7 +3238,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3250,7 +3271,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3267,7 +3288,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3283,7 +3304,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3297,7 +3318,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3309,14 +3330,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3326,14 +3347,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3349,7 +3370,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3359,11 +3380,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -3375,7 +3396,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3392,14 +3413,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>187</v>
+        <v>33</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>188</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>101</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3415,7 +3436,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3432,7 +3453,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3481,7 +3502,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3495,10 +3516,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3507,14 +3528,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3524,14 +3545,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3547,7 +3568,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3557,11 +3578,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3573,14 +3594,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3590,14 +3611,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3606,14 +3627,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3623,14 +3644,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3639,14 +3660,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3656,11 +3677,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3672,14 +3693,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3689,11 +3710,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3705,14 +3726,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3722,11 +3743,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>33</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
@@ -3745,7 +3766,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3759,10 +3780,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3771,14 +3792,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3788,14 +3809,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3811,7 +3832,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3821,11 +3842,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3837,14 +3858,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3854,14 +3875,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3870,14 +3891,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3887,14 +3908,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>146</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3910,7 +3931,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3920,14 +3941,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3936,14 +3957,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3953,14 +3974,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3969,14 +3990,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3986,14 +4007,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>14</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>123</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4009,7 +4030,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>32</v>
+        <v>229</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4019,11 +4040,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4042,7 +4063,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4075,7 +4096,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4089,10 +4110,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>137</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4101,14 +4122,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4118,14 +4139,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>129</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4134,14 +4155,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4151,14 +4172,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>129</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4184,14 +4205,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>182</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>183</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4200,14 +4221,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>25</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4217,14 +4238,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>185</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4233,14 +4254,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4250,14 +4271,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>249</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4266,14 +4287,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>25</v>
+        <v>249</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4283,14 +4304,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>252</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4299,14 +4320,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4316,11 +4337,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>129</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>130</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4332,14 +4353,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>254</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4349,14 +4370,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4365,14 +4386,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>73</v>
+        <v>257</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4382,11 +4403,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>59</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4405,7 +4426,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>259</v>
+        <v>73</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4415,7 +4436,7 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>129</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4438,7 +4459,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>262</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4448,14 +4469,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>129</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4471,7 +4492,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>226</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4481,11 +4502,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>28</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4497,14 +4518,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4514,14 +4535,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>198</v>
+        <v>28</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4537,7 +4558,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>270</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4547,14 +4568,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>201</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4570,7 +4591,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4580,11 +4601,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4596,14 +4617,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4613,11 +4634,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>69</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>25</v>
@@ -4629,14 +4650,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4646,11 +4667,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>25</v>
@@ -4662,14 +4683,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4679,14 +4700,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>43</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4702,7 +4723,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4719,7 +4740,7 @@
         <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4735,7 +4756,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4752,7 +4773,7 @@
         <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4768,7 +4789,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4778,11 +4799,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>87</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>88</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>25</v>
@@ -4794,7 +4815,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4811,11 +4832,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>25</v>
@@ -4827,14 +4848,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4844,11 +4865,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>25</v>
@@ -4860,14 +4881,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4877,14 +4898,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>34</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4893,14 +4914,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4910,14 +4931,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>262</v>
+        <v>33</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>263</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4926,14 +4947,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4943,11 +4964,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>43</v>
+        <v>265</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>44</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>25</v>
@@ -4959,14 +4980,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4976,11 +4997,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>25</v>
@@ -4992,14 +5013,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>293</v>
+        <v>25</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5009,14 +5030,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>294</v>
+        <v>129</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>121</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5032,7 +5053,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>22</v>
+        <v>296</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5042,14 +5063,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>136</v>
+        <v>297</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>25</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5058,7 +5079,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5075,11 +5096,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>297</v>
+        <v>136</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>298</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>25</v>
@@ -5098,21 +5119,21 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>25</v>
@@ -5124,14 +5145,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5141,11 +5162,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>25</v>
@@ -5178,7 +5199,7 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>309</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>25</v>
@@ -5190,14 +5211,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>101</v>
+        <v>310</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5230,7 +5251,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5247,7 +5268,7 @@
         <v>315</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>101</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5263,7 +5284,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>317</v>
+        <v>22</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5273,14 +5294,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>25</v>
+        <v>101</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5289,14 +5310,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>25</v>
+        <v>320</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5306,11 +5327,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>25</v>
@@ -5329,7 +5350,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5339,11 +5360,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>25</v>
@@ -5355,14 +5376,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5372,14 +5393,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>324</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5405,14 +5426,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>224</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>324</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5421,14 +5442,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>327</v>
+        <v>22</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5438,14 +5459,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>15</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>101</v>
+        <v>330</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5454,14 +5475,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5471,14 +5492,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>25</v>
+        <v>330</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5487,14 +5508,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>22</v>
+        <v>333</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5504,14 +5525,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>332</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>25</v>
+        <v>101</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5520,14 +5541,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5537,11 +5558,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>14</v>
+        <v>308</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>25</v>
@@ -5553,14 +5574,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>335</v>
+        <v>22</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5570,49 +5591,148 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
+        <v>305</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
         <v>337</v>
       </c>
-      <c t="s" r="Q125" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="126" ht="25.5" customHeight="1">
-      <c r="P126" s="13">
-        <v>6998.335</v>
-      </c>
-      <c r="Q126" s="13"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
-      <c t="s" r="A127" s="14">
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>22</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>75</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
         <v>338</v>
       </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c t="s" r="G127" s="15">
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
         <v>339</v>
       </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="16"/>
-      <c t="s" r="K127" s="17">
+      <c t="s" r="Q126" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
         <v>340</v>
       </c>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>22</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>75</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>14</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>341</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>342</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>75</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>343</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>344</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>7081.335</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
+        <v>345</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
+        <v>346</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>347</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="607">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6216,10 +6336,25 @@
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
     <mergeCell ref="N125:O125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -413,6 +413,18 @@
     <t>222.0000</t>
   </si>
   <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -434,9 +446,6 @@
     <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>104.00</t>
   </si>
   <si>
@@ -614,12 +623,6 @@
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t>LEVOTAVIN 750 MG 7 F.C.TABS.</t>
   </si>
   <si>
@@ -812,6 +815,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>SONAKTO CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>74.50</t>
+  </si>
+  <si>
+    <t>74.5000</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -1046,7 +1058,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 9:56 PM</t>
+    <t>Thursday, 19 June, 2025 9:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2875,7 +2887,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2885,14 +2897,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2901,14 +2913,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2918,14 +2930,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2934,14 +2946,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2951,14 +2963,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>147</v>
-      </c>
-      <c t="s" r="Q45" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2974,7 +2986,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2984,14 +2996,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>73</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3000,31 +3012,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3033,24 +3045,24 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -3073,7 +3085,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3083,14 +3095,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>73</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3099,14 +3111,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3116,14 +3128,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3132,14 +3144,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3149,14 +3161,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3172,7 +3184,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3182,11 +3194,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -3198,14 +3210,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3222,7 +3234,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3238,7 +3250,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3255,7 +3267,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3271,7 +3283,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3304,7 +3316,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3321,7 +3333,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3337,7 +3349,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3351,7 +3363,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3363,14 +3375,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3380,14 +3392,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3403,7 +3415,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3413,11 +3425,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -3429,7 +3441,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3446,14 +3458,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>101</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3469,7 +3481,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3486,7 +3498,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3535,7 +3547,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3549,10 +3561,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3561,14 +3573,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3578,14 +3590,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>202</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3601,7 +3613,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3611,11 +3623,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3627,14 +3639,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3644,14 +3656,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3660,14 +3672,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3677,14 +3689,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3700,7 +3712,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3710,11 +3722,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3733,7 +3745,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3743,11 +3755,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
@@ -3766,7 +3778,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3776,11 +3788,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3792,14 +3804,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3809,14 +3821,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3825,14 +3837,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3842,14 +3854,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3858,14 +3870,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3875,11 +3887,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3898,7 +3910,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3908,14 +3920,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3924,14 +3936,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3941,14 +3953,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3957,14 +3969,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3974,14 +3986,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>43</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3990,14 +4002,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4007,14 +4019,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4023,14 +4035,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4040,14 +4052,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>14</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4056,14 +4068,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4073,11 +4085,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4089,14 +4101,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4106,11 +4118,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4122,14 +4134,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4139,14 +4151,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>137</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4155,14 +4167,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4172,14 +4184,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4195,7 +4207,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4205,14 +4217,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>129</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4221,7 +4233,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4238,14 +4250,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4261,7 +4273,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>25</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4271,14 +4283,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4287,14 +4299,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4304,14 +4316,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>252</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4320,14 +4332,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4337,14 +4349,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4353,14 +4365,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4370,11 +4382,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>129</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>130</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>25</v>
@@ -4393,7 +4405,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>257</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4403,14 +4415,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4419,14 +4431,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>73</v>
+        <v>258</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4436,11 +4448,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>59</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4452,14 +4464,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>262</v>
+        <v>73</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4469,11 +4481,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4485,14 +4497,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>22</v>
+        <v>263</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4502,14 +4514,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4518,14 +4530,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>229</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4535,11 +4547,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>28</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>25</v>
@@ -4551,14 +4563,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>270</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4568,14 +4580,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>201</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4584,14 +4596,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4601,11 +4613,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>28</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4617,14 +4629,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>30</v>
+        <v>274</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4634,14 +4646,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>250</v>
+        <v>136</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4650,7 +4662,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4667,11 +4679,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>68</v>
+        <v>277</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>69</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>25</v>
@@ -4683,14 +4695,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4700,11 +4712,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>43</v>
+        <v>251</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>44</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>25</v>
@@ -4716,14 +4728,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4733,14 +4745,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>68</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4756,7 +4768,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4766,14 +4778,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>43</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4782,14 +4794,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4799,14 +4811,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4815,14 +4827,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4832,14 +4844,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>88</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4855,7 +4867,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4865,11 +4877,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>23</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>24</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>25</v>
@@ -4881,14 +4893,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4898,11 +4910,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>185</v>
+        <v>87</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>25</v>
@@ -4914,14 +4926,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4931,14 +4943,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4947,14 +4959,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4964,11 +4976,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>265</v>
+        <v>188</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>266</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>25</v>
@@ -4980,14 +4992,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4997,14 +5009,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5013,14 +5025,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5030,11 +5042,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>129</v>
+        <v>266</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>130</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>25</v>
@@ -5046,14 +5058,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5063,14 +5075,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>297</v>
+        <v>43</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>121</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5086,7 +5098,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5096,11 +5108,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>25</v>
@@ -5119,7 +5131,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5129,14 +5141,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>301</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>25</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5152,21 +5164,21 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>303</v>
+        <v>22</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>304</v>
+        <v>140</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>305</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>25</v>
@@ -5178,28 +5190,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>307</v>
+        <v>22</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>25</v>
@@ -5211,14 +5223,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5228,11 +5240,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>25</v>
@@ -5244,14 +5256,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>101</v>
+        <v>311</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5261,11 +5273,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>315</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>25</v>
@@ -5277,14 +5289,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5294,14 +5306,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>101</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5310,14 +5322,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>320</v>
+        <v>101</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5327,11 +5339,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>25</v>
@@ -5343,14 +5355,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5360,14 +5372,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>25</v>
+        <v>101</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5376,14 +5388,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>121</v>
+        <v>324</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5393,11 +5405,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>25</v>
@@ -5416,7 +5428,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5449,7 +5461,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5459,14 +5471,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>330</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5475,7 +5487,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5492,14 +5504,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>227</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>330</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5515,7 +5527,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>333</v>
+        <v>22</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5525,14 +5537,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>15</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>101</v>
+        <v>334</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5548,7 +5560,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5558,14 +5570,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>25</v>
+        <v>334</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5581,7 +5593,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>22</v>
+        <v>337</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5591,14 +5603,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>305</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>25</v>
+        <v>101</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5607,14 +5619,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5624,11 +5636,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>339</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>25</v>
@@ -5657,11 +5669,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>14</v>
+        <v>308</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>227</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>25</v>
@@ -5680,7 +5692,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>342</v>
+        <v>22</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5690,49 +5702,115 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
+        <v>343</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
         <v>344</v>
       </c>
-      <c t="s" r="Q128" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>7081.335</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>22</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>75</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>14</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
         <v>345</v>
       </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
         <v>346</v>
       </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>75</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
         <v>347</v>
       </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>348</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>7194.835</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>349</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>350</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>351</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6351,10 +6429,20 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -44,6 +44,24 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>3FLY 300 TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ABIMOL 500 MG 20 TAB.</t>
   </si>
   <si>
@@ -77,18 +95,12 @@
     <t>ALZEPIZIL 10MG 14 F.C. TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>70.00</t>
   </si>
   <si>
     <t>70.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -173,6 +185,15 @@
     <t>83.0000</t>
   </si>
   <si>
+    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>BRONCHICUM ELIXIR 100 ML</t>
   </si>
   <si>
@@ -236,9 +257,6 @@
     <t>CERVETOLKA 500MG 20CAPS</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>340.00</t>
   </si>
   <si>
@@ -545,7 +563,7 @@
     <t>59.00</t>
   </si>
   <si>
-    <t>59.0000</t>
+    <t>118.0000</t>
   </si>
   <si>
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
@@ -1058,7 +1076,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 9:59 PM</t>
+    <t>Thursday, 19 June, 2025 10:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1738,18 +1756,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1758,31 +1776,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1791,20 +1809,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1815,7 +1833,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1824,31 +1842,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>34</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1870,7 +1888,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1881,7 +1899,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1897,24 +1915,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1923,31 +1941,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1956,28 +1974,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1989,31 +2007,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2022,31 +2040,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2055,31 +2073,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2088,20 +2106,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -2112,7 +2130,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2128,13 +2146,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -2161,24 +2179,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2187,31 +2205,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2220,31 +2238,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2260,24 +2278,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2286,31 +2304,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>80</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2326,7 +2344,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2336,14 +2354,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2352,14 +2370,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2369,14 +2387,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2385,31 +2403,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2425,13 +2443,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2442,7 +2460,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2458,24 +2476,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2484,28 +2502,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2517,31 +2535,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2550,31 +2568,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2583,28 +2601,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2616,31 +2634,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2649,20 +2667,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2673,7 +2691,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2689,24 +2707,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2722,24 +2740,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2748,31 +2766,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>127</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2781,31 +2799,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2814,31 +2832,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>133</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>101</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2854,24 +2872,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2880,31 +2898,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2913,24 +2931,24 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2953,24 +2971,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>147</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2986,24 +3004,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3012,31 +3030,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>73</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3045,31 +3063,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3085,24 +3103,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3111,14 +3129,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3128,14 +3146,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3144,31 +3162,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3184,24 +3202,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3210,31 +3228,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3243,28 +3261,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3276,20 +3294,20 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3300,7 +3318,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3316,13 +3334,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3333,7 +3351,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3349,13 +3367,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>176</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3366,7 +3384,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3382,13 +3400,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3396,7 +3414,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3408,31 +3426,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3441,31 +3459,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3474,31 +3492,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3507,31 +3525,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>196</v>
+        <v>37</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3547,13 +3565,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3564,7 +3582,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3580,13 +3598,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3594,10 +3612,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3606,31 +3624,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3639,31 +3657,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>205</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3672,31 +3690,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>207</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3705,31 +3723,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>24</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3738,31 +3756,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3771,31 +3789,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3804,31 +3822,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3837,28 +3855,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>37</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>103</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3870,31 +3888,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3903,31 +3921,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>136</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3936,28 +3954,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>149</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3969,31 +3987,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>142</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4002,31 +4020,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4035,7 +4053,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4048,18 +4066,18 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4068,31 +4086,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>230</v>
+        <v>107</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>123</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4101,24 +4119,24 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>20</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -4141,24 +4159,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>25</v>
+        <v>236</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4174,13 +4192,13 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -4188,10 +4206,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>141</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4200,31 +4218,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>129</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>130</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4233,31 +4251,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4266,31 +4284,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4299,31 +4317,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4332,31 +4350,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>194</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>253</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4365,31 +4383,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>25</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4398,31 +4416,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>256</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>130</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4431,28 +4449,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>258</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>59</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>119</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4464,28 +4482,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>135</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4497,31 +4515,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4537,13 +4555,13 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
@@ -4554,7 +4572,7 @@
         <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4570,24 +4588,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>269</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>135</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4603,24 +4621,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4629,28 +4647,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>136</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4662,31 +4680,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>236</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>277</v>
+        <v>32</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>278</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4702,24 +4720,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>251</v>
+        <v>142</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4728,31 +4746,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>68</v>
+        <v>283</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>69</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4761,31 +4779,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>43</v>
+        <v>257</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>44</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4794,28 +4812,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>75</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4827,31 +4845,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>47</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4867,13 +4885,13 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4884,7 +4902,7 @@
         <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4900,24 +4918,24 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>87</v>
+        <v>293</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>88</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4926,31 +4944,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>23</v>
+        <v>296</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>24</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4959,31 +4977,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>189</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4992,28 +5010,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5025,31 +5043,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>266</v>
+        <v>194</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>267</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5058,31 +5076,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5091,31 +5109,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>129</v>
+        <v>272</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>130</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5124,31 +5142,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>300</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>301</v>
+        <v>47</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5157,31 +5175,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5190,31 +5208,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>22</v>
+        <v>306</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>305</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>25</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5223,31 +5241,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>307</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>308</v>
+        <v>146</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>309</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5256,31 +5274,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>311</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5289,31 +5307,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5322,20 +5340,20 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>101</v>
+        <v>317</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
@@ -5343,10 +5361,10 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5355,20 +5373,20 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>22</v>
+        <v>320</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
@@ -5379,7 +5397,7 @@
         <v>322</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5395,24 +5413,24 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>324</v>
+        <v>107</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5421,31 +5439,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>25</v>
+        <v>107</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5454,31 +5472,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>121</v>
+        <v>330</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5487,31 +5505,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5520,31 +5538,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>334</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5560,24 +5578,24 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>228</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>334</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5586,31 +5604,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>337</v>
+        <v>12</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>15</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>101</v>
+        <v>340</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5619,31 +5637,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>25</v>
+        <v>340</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5652,31 +5670,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>22</v>
+        <v>343</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>309</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>25</v>
+        <v>107</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5685,31 +5703,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>343</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5718,31 +5736,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>14</v>
+        <v>314</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>228</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5751,66 +5769,132 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>346</v>
+        <v>12</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>7194.835</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>349</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
         <v>350</v>
       </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>12</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>13</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>20</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
         <v>351</v>
       </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>352</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>13</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>353</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>354</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>7473.835</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
+        <v>355</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
+        <v>356</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>357</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6439,10 +6523,20 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -446,309 +446,315 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>10:2</t>
+    <t>10:1</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>ENRICH ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>-52.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:6</t>
+  </si>
+  <si>
+    <t>FELDENE 20MG 3 AMP I.M</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLOWADJUST 25MG 30 PROLONGED REL. TABS.</t>
+  </si>
+  <si>
+    <t>306.00</t>
+  </si>
+  <si>
+    <t>100.9800</t>
+  </si>
+  <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>118.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>99.9900</t>
+  </si>
+  <si>
+    <t>IMIPRAMINE 25MG 50 TAB.</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LANTANON 30MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>LENEX FOOT CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>LEVANIC 750 MG 5 TAB</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>LEVOTAVIN 750 MG 7 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>MAXDINIR 125MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>NAIL 15 TOPICAL LOTION 15 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>NASACORT AQ 55 MCG NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>151.00</t>
+  </si>
+  <si>
+    <t>151.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>POWER COLD &amp; FLU 20 TAB.</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
     <t>48.0000</t>
   </si>
   <si>
-    <t>DRAMENEX 50MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>-52.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>7:2</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:6</t>
-  </si>
-  <si>
-    <t>FELDENE 20MG 3 AMP I.M</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLOWADJUST 25MG 30 PROLONGED REL. TABS.</t>
-  </si>
-  <si>
-    <t>306.00</t>
-  </si>
-  <si>
-    <t>100.9800</t>
-  </si>
-  <si>
-    <t>FORTAZEDIM 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>118.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>303.00</t>
-  </si>
-  <si>
-    <t>99.9900</t>
-  </si>
-  <si>
-    <t>IMIPRAMINE 25MG 50 TAB.</t>
-  </si>
-  <si>
-    <t>52.50</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LANTANON 30MG 10 CAPS.</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>LENEX FOOT CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>LEVANIC 750 MG 5 TAB</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>LEVOTAVIN 750 MG 7 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>MAXDINIR 125MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>NAIL 15 TOPICAL LOTION 15 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>NASACORT AQ 55 MCG NASAL SPRAY 120 DOSES</t>
-  </si>
-  <si>
-    <t>151.00</t>
-  </si>
-  <si>
-    <t>151.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>93.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANADOL MIGRAINE 30 TABS</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>POWER COLD &amp; FLU 20 TAB.</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
     <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
   </si>
   <si>
@@ -800,6 +806,9 @@
     <t>RICHI PANTHENOL CREAM 20GM</t>
   </si>
   <si>
+    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
+  </si>
+  <si>
     <t>ROWACHOL 45 CAPSULES</t>
   </si>
   <si>
@@ -833,6 +842,12 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>SINLERG 20 TABS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
     <t>SONAKTO CREAM 50 GM</t>
   </si>
   <si>
@@ -1076,7 +1091,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 10:07 PM</t>
+    <t>Thursday, 19 June, 2025 10:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2988,7 +3003,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3037,7 +3052,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3047,14 +3062,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>153</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3063,14 +3078,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3080,14 +3095,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3096,14 +3111,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3113,14 +3128,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3129,31 +3144,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3162,28 +3177,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3195,14 +3210,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3212,14 +3227,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3228,14 +3243,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3245,14 +3260,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>34</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3261,14 +3276,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3278,14 +3293,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3294,14 +3309,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3311,11 +3326,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3327,14 +3342,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3344,14 +3359,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3360,14 +3375,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>176</v>
+        <v>34</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3377,14 +3392,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>107</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3393,14 +3408,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3410,14 +3425,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3426,14 +3441,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3443,14 +3458,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3459,14 +3474,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3476,11 +3491,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>22</v>
@@ -3492,14 +3507,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3509,14 +3524,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>195</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3525,14 +3540,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3542,11 +3557,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>37</v>
+        <v>195</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3558,7 +3573,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3575,14 +3590,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>199</v>
+        <v>37</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3591,14 +3606,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3608,14 +3623,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3624,7 +3639,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3641,11 +3656,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3657,14 +3672,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3674,14 +3689,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>101</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3690,14 +3705,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3707,14 +3722,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>142</v>
+        <v>209</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3730,7 +3745,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3740,11 +3755,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>211</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3756,14 +3771,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3773,14 +3788,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3789,14 +3804,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3806,14 +3821,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>29</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3829,7 +3844,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3839,11 +3854,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>28</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3862,7 +3877,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3872,11 +3887,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>37</v>
+        <v>203</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3895,7 +3910,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3905,11 +3920,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>37</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3921,14 +3936,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3938,14 +3953,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3954,14 +3969,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3971,14 +3986,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3987,14 +4002,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4004,11 +4019,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>142</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4027,7 +4042,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4037,14 +4052,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4053,14 +4068,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4070,14 +4085,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4086,14 +4101,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4103,14 +4118,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4119,14 +4134,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4136,14 +4151,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4152,14 +4167,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4169,14 +4184,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>20</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4185,14 +4200,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>36</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4202,11 +4217,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>22</v>
@@ -4218,14 +4233,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4235,11 +4250,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>22</v>
@@ -4251,14 +4266,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4268,14 +4283,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>147</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4284,14 +4299,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4301,14 +4316,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>135</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>136</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4317,14 +4332,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4334,14 +4349,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>135</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4350,7 +4365,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4367,14 +4382,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4383,14 +4398,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4400,14 +4415,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>195</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4416,14 +4431,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4433,14 +4448,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>259</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4449,14 +4464,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>258</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4466,14 +4481,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4489,7 +4504,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4499,11 +4514,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>135</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4515,14 +4530,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4532,14 +4547,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4555,7 +4570,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4565,14 +4580,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>100</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4581,14 +4596,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4598,11 +4613,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>22</v>
@@ -4614,14 +4629,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4631,14 +4646,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4647,14 +4662,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4664,14 +4679,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>135</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4680,14 +4695,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4697,11 +4712,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>32</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4713,14 +4728,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>280</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4730,11 +4745,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>142</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>281</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>22</v>
@@ -4746,7 +4761,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4763,11 +4778,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4779,14 +4794,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>34</v>
+        <v>237</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4796,11 +4811,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>257</v>
+        <v>32</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4812,14 +4827,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>285</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4829,14 +4844,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>76</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4845,14 +4860,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4862,11 +4877,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>47</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>48</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4878,14 +4893,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4895,14 +4910,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4928,14 +4943,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>293</v>
+        <v>75</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>294</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4944,14 +4959,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4961,11 +4976,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>296</v>
+        <v>47</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>297</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4977,14 +4992,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4994,14 +5009,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>93</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>94</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5010,14 +5025,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5027,14 +5042,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>28</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>29</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5060,11 +5075,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>194</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>195</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5076,14 +5091,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5093,14 +5108,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5109,14 +5124,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5126,11 +5141,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>273</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5142,14 +5157,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5159,11 +5174,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>47</v>
+        <v>195</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5175,14 +5190,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5192,14 +5207,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5208,14 +5223,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>306</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5225,14 +5240,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>21</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5248,7 +5263,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5258,11 +5273,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5281,7 +5296,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5291,11 +5306,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>310</v>
+        <v>135</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>311</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5307,31 +5322,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>315</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5340,28 +5355,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>317</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>318</v>
+        <v>146</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5373,28 +5388,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>320</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5406,14 +5421,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>107</v>
+        <v>318</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5423,11 +5438,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5439,14 +5454,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>322</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5456,14 +5471,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5472,14 +5487,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5489,11 +5504,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5505,14 +5520,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5522,11 +5537,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5538,14 +5553,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5555,14 +5570,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5571,14 +5586,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>12</v>
+        <v>335</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5588,11 +5603,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5604,14 +5619,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5621,14 +5636,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>340</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5637,14 +5652,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5654,14 +5669,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>234</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>340</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5670,14 +5685,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>343</v>
+        <v>12</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5687,14 +5702,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>21</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5703,14 +5718,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5720,14 +5735,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>270</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>345</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5753,14 +5768,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>315</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>345</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5776,7 +5791,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>12</v>
+        <v>348</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5786,14 +5801,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>349</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5809,7 +5824,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5819,11 +5834,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>20</v>
+        <v>323</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5842,7 +5857,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>352</v>
+        <v>12</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5852,49 +5867,148 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
+        <v>320</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>352</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>12</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>13</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>353</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
         <v>354</v>
       </c>
-      <c t="s" r="Q132" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="133" ht="24.75" customHeight="1">
-      <c r="P133" s="13">
-        <v>7473.835</v>
-      </c>
-      <c r="Q133" s="13"/>
-    </row>
-    <row r="134" ht="16.5" customHeight="1">
-      <c t="s" r="A134" s="14">
+      <c t="s" r="Q133" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
         <v>355</v>
       </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c t="s" r="G134" s="15">
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>12</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>13</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>20</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
         <v>356</v>
       </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
-      <c t="s" r="K134" s="17">
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
         <v>357</v>
       </c>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>13</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>358</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>359</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>7590.6750000000002</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
+        <v>360</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>361</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>362</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="642">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6533,10 +6647,25 @@
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
     <mergeCell ref="N132:O132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -680,6 +680,9 @@
     <t>100.00</t>
   </si>
   <si>
+    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
+  </si>
+  <si>
     <t>NAIL 15 TOPICAL LOTION 15 ML</t>
   </si>
   <si>
@@ -890,6 +893,15 @@
     <t>SULFAX PLUS MASSAGE GEL 60 GM</t>
   </si>
   <si>
+    <t>SUPRAX 100MG/5 ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>131.00</t>
+  </si>
+  <si>
+    <t>131.0000</t>
+  </si>
+  <si>
     <t>TANTUM VERDE 0.15% MOUTH WASH 125 ML</t>
   </si>
   <si>
@@ -944,12 +956,18 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8649:0</t>
+    <t>8647:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t>ZINCOLIVE LOTION 60 ML</t>
   </si>
   <si>
@@ -1043,12 +1061,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -1091,7 +1103,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 10:20 PM</t>
+    <t>Thursday, 19 June, 2025 10:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4019,11 +4031,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>47</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4035,14 +4047,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4052,11 +4064,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>142</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>143</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4075,7 +4087,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4085,14 +4097,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4101,14 +4113,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4118,14 +4130,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4134,14 +4146,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4151,14 +4163,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>47</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4167,14 +4179,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4184,14 +4196,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4200,14 +4212,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4217,14 +4229,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>20</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>129</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4233,14 +4245,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>36</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4250,11 +4262,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>22</v>
@@ -4266,14 +4278,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4283,11 +4295,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>22</v>
@@ -4299,14 +4311,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4316,14 +4328,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4332,14 +4344,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4349,14 +4361,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>135</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>136</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4372,7 +4384,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4382,14 +4394,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4398,7 +4410,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4415,14 +4427,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4438,7 +4450,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4448,14 +4460,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4464,14 +4476,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4481,14 +4493,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>261</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4497,14 +4509,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>259</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4514,14 +4526,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>262</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4530,14 +4542,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4547,11 +4559,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>135</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>136</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4580,11 +4592,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4603,7 +4615,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>267</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4613,14 +4625,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4629,14 +4641,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4646,11 +4658,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>66</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>22</v>
@@ -4662,14 +4674,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4679,11 +4691,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>22</v>
@@ -4695,14 +4707,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>273</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4712,14 +4724,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>135</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4728,14 +4740,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4745,14 +4757,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>94</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4761,14 +4773,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4778,14 +4790,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4794,14 +4806,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4811,11 +4823,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>32</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4827,14 +4839,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4844,14 +4856,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4860,14 +4872,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4877,14 +4889,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>142</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4893,14 +4905,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4910,11 +4922,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4926,14 +4938,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4943,11 +4955,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>76</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4966,7 +4978,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4976,11 +4988,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4999,7 +5011,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5016,7 +5028,7 @@
         <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5032,7 +5044,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5042,14 +5054,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>47</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5058,14 +5070,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5075,14 +5087,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5091,14 +5103,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5108,14 +5120,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>93</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>94</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5131,7 +5143,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5141,11 +5153,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>28</v>
+        <v>305</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>29</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5157,14 +5169,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5174,11 +5186,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>195</v>
+        <v>93</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>196</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5190,14 +5202,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5207,14 +5219,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5223,14 +5235,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5240,11 +5252,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>275</v>
+        <v>195</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>276</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5256,14 +5268,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5273,14 +5285,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5289,14 +5301,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5306,11 +5318,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>135</v>
+        <v>276</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>136</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5322,14 +5334,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>311</v>
+        <v>18</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5339,14 +5351,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>312</v>
+        <v>47</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5362,7 +5374,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5372,11 +5384,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>247</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5395,7 +5407,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>315</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5405,14 +5417,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>318</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5421,28 +5433,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>318</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>319</v>
+        <v>146</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>320</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5454,28 +5466,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>322</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5487,14 +5499,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5504,11 +5516,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5520,14 +5532,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>107</v>
+        <v>328</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5541,7 +5553,7 @@
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>330</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5553,14 +5565,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>12</v>
+        <v>331</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5577,7 +5589,7 @@
         <v>333</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5593,7 +5605,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>335</v>
+        <v>107</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5603,11 +5615,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5619,14 +5631,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5636,14 +5648,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5652,14 +5664,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>127</v>
+        <v>341</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5669,11 +5681,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5685,14 +5697,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5702,11 +5714,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5718,14 +5730,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5735,14 +5747,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>345</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5768,14 +5780,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>235</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>345</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5784,14 +5796,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>348</v>
+        <v>12</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5801,14 +5813,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>21</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>107</v>
+        <v>318</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5824,7 +5836,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5834,14 +5846,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>16</v>
+        <v>318</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5857,7 +5869,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>12</v>
+        <v>352</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5867,14 +5879,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>320</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5883,14 +5895,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5900,11 +5912,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>354</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5933,11 +5945,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>20</v>
+        <v>325</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>235</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -5956,7 +5968,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>357</v>
+        <v>12</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5966,49 +5978,115 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
+        <v>358</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
         <v>359</v>
       </c>
-      <c t="s" r="Q135" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>7590.6750000000002</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>12</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>13</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>20</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
         <v>360</v>
       </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
         <v>361</v>
       </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>13</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
         <v>362</v>
       </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>363</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="P138" s="13">
+        <v>7756.6750000000002</v>
+      </c>
+      <c r="Q138" s="13"/>
+    </row>
+    <row r="139" ht="16.5" customHeight="1">
+      <c t="s" r="A139" s="14">
+        <v>364</v>
+      </c>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c t="s" r="G139" s="15">
+        <v>365</v>
+      </c>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c t="s" r="K139" s="17">
+        <v>366</v>
+      </c>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="667">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6662,10 +6740,20 @@
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
     <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="K139:Q139"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -1064,6 +1064,15 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>73:0</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
@@ -1103,7 +1112,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 10:22 PM</t>
+    <t>Thursday, 19 June, 2025 10:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5879,14 +5888,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>21</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5902,7 +5911,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>107</v>
+        <v>355</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5912,14 +5921,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5928,14 +5937,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5945,11 +5954,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>326</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -5961,7 +5970,7 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
@@ -5978,11 +5987,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -6011,11 +6020,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>236</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
@@ -6027,14 +6036,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>361</v>
+        <v>12</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6044,49 +6053,82 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>362</v>
+        <v>20</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
         <v>363</v>
       </c>
-      <c t="s" r="Q137" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="138" ht="24.75" customHeight="1">
-      <c r="P138" s="13">
-        <v>7756.6750000000002</v>
-      </c>
-      <c r="Q138" s="13"/>
-    </row>
-    <row r="139" ht="16.5" customHeight="1">
-      <c t="s" r="A139" s="14">
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
         <v>364</v>
       </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c t="s" r="G139" s="15">
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>13</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
         <v>365</v>
       </c>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="16"/>
-      <c t="s" r="K139" s="17">
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
         <v>366</v>
       </c>
-      <c r="L139" s="17"/>
-      <c r="M139" s="17"/>
-      <c r="N139" s="17"/>
-      <c r="O139" s="17"/>
-      <c r="P139" s="17"/>
-      <c r="Q139" s="17"/>
+      <c t="s" r="Q138" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="P139" s="13">
+        <v>7759.6750000000002</v>
+      </c>
+      <c r="Q139" s="13"/>
+    </row>
+    <row r="140" ht="16.5" customHeight="1">
+      <c t="s" r="A140" s="14">
+        <v>367</v>
+      </c>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c t="s" r="G140" s="15">
+        <v>368</v>
+      </c>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="16"/>
+      <c t="s" r="K140" s="17">
+        <v>369</v>
+      </c>
+      <c r="L140" s="17"/>
+      <c r="M140" s="17"/>
+      <c r="N140" s="17"/>
+      <c r="O140" s="17"/>
+      <c r="P140" s="17"/>
+      <c r="Q140" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="667">
+  <mergeCells count="672">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6750,10 +6792,15 @@
     <mergeCell ref="H137:K137"/>
     <mergeCell ref="L137:M137"/>
     <mergeCell ref="N137:O137"/>
-    <mergeCell ref="P138:Q138"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="G139:I139"/>
-    <mergeCell ref="K139:Q139"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="P139:Q139"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="G140:I140"/>
+    <mergeCell ref="K140:Q140"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -83,141 +83,144 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>ALZEPIZIL 10MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>24.9600</t>
+  </si>
+  <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>ASMATROPIM 500MCG/2ML 20 NEBULIZER VIAL SOLN.</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>164.00</t>
+  </si>
+  <si>
+    <t>8.2000</t>
+  </si>
+  <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>141.0000</t>
+  </si>
+  <si>
+    <t>BETAFOS 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>BIONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>BRONCHICUM ELIXIR 100 ML</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>ALZEPIZIL 10MG 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>24.9600</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>ANTODINE 20MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>ASMATROPIM 500MCG/2ML 20 NEBULIZER VIAL SOLN.</t>
-  </si>
-  <si>
-    <t>0:11</t>
-  </si>
-  <si>
-    <t>164.00</t>
-  </si>
-  <si>
-    <t>8.2000</t>
-  </si>
-  <si>
-    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>141.0000</t>
-  </si>
-  <si>
-    <t>BETAFOS 1 AMP. 2ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>BI ALCOFAN 150 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>BIONAL 30 CAP</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>192.0000</t>
-  </si>
-  <si>
-    <t>BIVATRACIN 150MG POWDER SPRAY</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>BRONCHICUM ELIXIR 100 ML</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>CATAFAST 50 MG 9 SACHET</t>
-  </si>
-  <si>
-    <t>1:6</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>7.9200</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
     <t>86.00</t>
   </si>
   <si>
@@ -332,9 +335,6 @@
     <t>DAKTACORT CREAM 15 GM</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
@@ -539,6 +539,21 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>31.5000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -722,12 +737,18 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -833,9 +854,6 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>SILVIRBURN CREAM 250 GM</t>
   </si>
   <si>
@@ -905,6 +923,15 @@
     <t>TANTUM VERDE 0.15% MOUTH WASH 125 ML</t>
   </si>
   <si>
+    <t>TAVACIN 500MG 5 F.C. TAB</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>TEBOFORTIN 80MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -998,9 +1025,6 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>بودره نلج اكياس</t>
   </si>
   <si>
@@ -1059,6 +1083,9 @@
   </si>
   <si>
     <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>11:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1836,7 +1863,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1845,7 +1872,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1862,11 +1889,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1878,14 +1905,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1895,14 +1922,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -2050,7 +2077,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2248,7 +2275,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2258,11 +2285,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>22</v>
@@ -2274,7 +2301,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2291,14 +2318,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2307,7 +2334,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2324,11 +2351,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2340,7 +2367,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2357,14 +2384,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2373,7 +2400,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2390,11 +2417,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2406,7 +2433,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2423,11 +2450,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2439,14 +2466,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2472,14 +2499,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2489,11 +2516,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2505,7 +2532,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2522,11 +2549,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2538,7 +2565,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2555,11 +2582,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2571,14 +2598,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2588,11 +2615,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2604,14 +2631,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2621,11 +2648,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>22</v>
@@ -2637,14 +2664,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2677,7 +2704,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2826,7 +2853,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2875,7 +2902,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2908,7 +2935,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2958,7 +2985,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>107</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3024,7 +3051,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3050,7 +3077,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -3083,11 +3110,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3189,7 +3216,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3238,7 +3265,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3288,7 +3315,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3321,7 +3348,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3387,7 +3414,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3396,14 +3423,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3413,14 +3440,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3429,14 +3456,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3446,14 +3473,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>107</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3462,14 +3489,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3479,14 +3506,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3495,14 +3522,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3512,14 +3539,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3528,14 +3555,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3545,11 +3572,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3561,14 +3588,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3578,14 +3605,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3594,14 +3621,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3611,11 +3638,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3627,7 +3654,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3644,14 +3671,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>200</v>
+        <v>37</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3660,14 +3687,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3677,14 +3704,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3693,7 +3720,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3710,11 +3737,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3726,14 +3753,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3743,14 +3770,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>101</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3759,14 +3786,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3776,14 +3803,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3792,14 +3819,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3809,11 +3836,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3825,14 +3852,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3842,14 +3869,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3858,14 +3885,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3875,14 +3902,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>29</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3891,14 +3918,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3908,11 +3935,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3924,14 +3951,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3941,11 +3968,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>37</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3957,14 +3984,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3974,11 +4001,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3990,14 +4017,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4007,14 +4034,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>109</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4023,14 +4050,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4040,14 +4067,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4056,7 +4083,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4073,11 +4100,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>47</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4089,14 +4116,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4106,11 +4133,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>142</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>143</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4122,14 +4149,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4139,14 +4166,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4155,14 +4182,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4172,14 +4199,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>156</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4188,14 +4215,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4205,14 +4232,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4221,14 +4248,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4238,14 +4265,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4254,14 +4281,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4271,14 +4298,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>20</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>129</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4287,14 +4314,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4304,14 +4331,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4320,14 +4347,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4337,11 +4364,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>22</v>
@@ -4353,14 +4380,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4370,14 +4397,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4386,14 +4413,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4403,14 +4430,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>135</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>136</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4419,14 +4446,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4436,14 +4463,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4452,14 +4479,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4469,11 +4496,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4485,14 +4512,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4502,11 +4529,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>22</v>
@@ -4518,14 +4545,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>259</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4535,14 +4562,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>262</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4551,14 +4578,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>262</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4568,14 +4595,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4591,7 +4618,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>266</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4601,14 +4628,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>135</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>136</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>269</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4617,14 +4644,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4634,11 +4661,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>100</v>
+        <v>271</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>101</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4650,14 +4677,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4667,14 +4694,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4683,14 +4710,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4700,14 +4727,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>101</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4716,14 +4743,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4733,11 +4760,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>22</v>
@@ -4749,14 +4776,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4766,14 +4793,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4782,14 +4809,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>280</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4799,11 +4826,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>135</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>94</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>22</v>
@@ -4815,7 +4842,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4832,11 +4859,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4848,14 +4875,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>238</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4865,14 +4892,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>32</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4881,14 +4908,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>286</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4898,14 +4925,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>142</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4914,14 +4941,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4931,7 +4958,7 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>33</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
@@ -4954,7 +4981,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4964,14 +4991,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>260</v>
+        <v>142</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4980,7 +5007,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4997,11 +5024,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>75</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>76</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -5013,14 +5040,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5030,11 +5057,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -5046,14 +5073,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5063,11 +5090,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5079,14 +5106,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5096,14 +5123,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5112,14 +5139,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5129,14 +5156,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>47</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>303</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5152,7 +5179,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5185,7 +5212,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5195,14 +5222,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>93</v>
+        <v>308</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>94</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5211,14 +5238,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5228,14 +5255,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>28</v>
+        <v>311</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>29</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5244,14 +5271,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5261,11 +5288,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>195</v>
+        <v>314</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>196</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5277,14 +5304,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5294,14 +5321,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5310,14 +5337,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5327,11 +5354,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>276</v>
+        <v>29</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>277</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5343,14 +5370,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5360,11 +5387,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5376,14 +5403,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5393,14 +5420,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5409,14 +5436,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>315</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5426,14 +5453,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>318</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5442,14 +5469,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5459,11 +5486,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>248</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5475,14 +5502,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5492,11 +5519,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>321</v>
+        <v>135</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>322</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5521,7 +5548,7 @@
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
@@ -5532,7 +5559,7 @@
         <v>326</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>327</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5541,28 +5568,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>328</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>329</v>
+        <v>146</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5574,28 +5601,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>331</v>
+        <v>12</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5607,14 +5634,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>107</v>
+        <v>333</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5624,11 +5651,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5640,14 +5667,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>12</v>
+        <v>337</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5657,14 +5684,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>338</v>
+        <v>243</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>339</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5673,14 +5700,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5690,11 +5717,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5713,7 +5740,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5746,7 +5773,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5756,14 +5783,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5772,14 +5799,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>12</v>
+        <v>349</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5789,11 +5816,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5805,14 +5832,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5822,14 +5849,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>318</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5838,14 +5865,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5855,14 +5882,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>236</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>318</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5871,14 +5898,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>352</v>
+        <v>12</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5888,11 +5915,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5904,14 +5931,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>355</v>
+        <v>12</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5921,14 +5948,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>107</v>
+        <v>358</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5937,14 +5964,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5954,14 +5981,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>16</v>
+        <v>327</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5970,14 +5997,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>12</v>
+        <v>361</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5987,11 +6014,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -6003,14 +6030,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>12</v>
+        <v>364</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6020,14 +6047,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>361</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6036,14 +6063,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6053,11 +6080,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6069,14 +6096,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>364</v>
+        <v>12</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6086,49 +6113,148 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
-      <c r="P139" s="13">
-        <v>7759.6750000000002</v>
-      </c>
-      <c r="Q139" s="13"/>
-    </row>
-    <row r="140" ht="16.5" customHeight="1">
-      <c t="s" r="A140" s="14">
-        <v>367</v>
-      </c>
-      <c r="B140" s="14"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c t="s" r="G140" s="15">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
         <v>368</v>
       </c>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
-      <c r="J140" s="16"/>
-      <c t="s" r="K140" s="17">
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>12</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>13</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
         <v>369</v>
       </c>
-      <c r="L140" s="17"/>
-      <c r="M140" s="17"/>
-      <c r="N140" s="17"/>
-      <c r="O140" s="17"/>
-      <c r="P140" s="17"/>
-      <c r="Q140" s="17"/>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>370</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>371</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>12</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>13</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>20</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>372</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>373</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>13</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>374</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
+        <v>375</v>
+      </c>
+      <c t="s" r="Q141" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="P142" s="13">
+        <v>7930.8850000000002</v>
+      </c>
+      <c r="Q142" s="13"/>
+    </row>
+    <row r="143" ht="16.5" customHeight="1">
+      <c t="s" r="A143" s="14">
+        <v>376</v>
+      </c>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c t="s" r="G143" s="15">
+        <v>377</v>
+      </c>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="16"/>
+      <c t="s" r="K143" s="17">
+        <v>378</v>
+      </c>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+      <c r="N143" s="17"/>
+      <c r="O143" s="17"/>
+      <c r="P143" s="17"/>
+      <c r="Q143" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="672">
+  <mergeCells count="687">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6797,10 +6923,25 @@
     <mergeCell ref="H138:K138"/>
     <mergeCell ref="L138:M138"/>
     <mergeCell ref="N138:O138"/>
-    <mergeCell ref="P139:Q139"/>
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="G140:I140"/>
-    <mergeCell ref="K140:Q140"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="P142:Q142"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="G143:I143"/>
+    <mergeCell ref="K143:Q143"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -119,885 +119,900 @@
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
+    <t>ASMATROPIM 500MCG/2ML 20 NEBULIZER VIAL SOLN.</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>164.00</t>
+  </si>
+  <si>
+    <t>8.2000</t>
+  </si>
+  <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>141.0000</t>
+  </si>
+  <si>
+    <t>BETAFOS 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>BIONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>BRONCHICUM ELIXIR 100 ML</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>60.00</t>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>38.4000</t>
+  </si>
+  <si>
+    <t>CEMPION 10 SACHETS</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>CEREBROLYSIN 215.2MG/ML I.M./I.V. 5 AMPS (5ML)</t>
+  </si>
+  <si>
+    <t>740.00</t>
+  </si>
+  <si>
+    <t>592.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>CERVETOLKA 500MG 20CAPS</t>
+  </si>
+  <si>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>340.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERVETOLKA FORTE  SYRUP</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>200.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>CLATEX 75MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
+    <t>COLLOMAK TOP. SOUTION 10 ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>31:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CURAM 1GM 12 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>182.00</t>
+  </si>
+  <si>
+    <t>60.0600</t>
+  </si>
+  <si>
+    <t>DAKTACORT CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DELTACLAV 457MG/5ML PD. FOR ORAL 80ML SUSP.</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DIASMECT 3GM 10 SACHETS</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>10.5000</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>DIASTOP SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>DIFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>222.0000</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>10:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>ENRICH ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>-52.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:6</t>
+  </si>
+  <si>
+    <t>FELDENE 20MG 3 AMP I.M</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>31.5000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLOWADJUST 25MG 30 PROLONGED REL. TABS.</t>
+  </si>
+  <si>
+    <t>306.00</t>
+  </si>
+  <si>
+    <t>100.9800</t>
+  </si>
+  <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>118.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>99.9900</t>
+  </si>
+  <si>
+    <t>IMIPRAMINE 25MG 50 TAB.</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LANTANON 30MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>LENEX FOOT CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>LEVANIC 750 MG 5 TAB</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>LEVOTAVIN 750 MG 7 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>MAXDINIR 125MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
+  </si>
+  <si>
+    <t>NAIL 15 TOPICAL LOTION 15 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>NASACORT AQ 55 MCG NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>151.00</t>
+  </si>
+  <si>
+    <t>151.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>POWER COLD &amp; FLU 20 TAB.</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
+  </si>
+  <si>
+    <t>PROTOFIX 40MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>1:19</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:87</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>13.2000</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>RICHI PANTHENOL CREAM 20GM</t>
+  </si>
+  <si>
+    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>ROWACHOL 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>37.9200</t>
+  </si>
+  <si>
+    <t>SELGON 20MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>SILVIRBURN CREAM 250 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>SINLERG 20 TABS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>SONAKTO CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>74.50</t>
+  </si>
+  <si>
+    <t>74.5000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/850MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>SULFAX PLUS MASSAGE GEL 60 GM</t>
+  </si>
+  <si>
+    <t>SUPRAX 100MG/5 ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>131.00</t>
+  </si>
+  <si>
+    <t>131.0000</t>
+  </si>
+  <si>
+    <t>SUPRAX 400MG 5 TAB</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t>TANTUM VERDE 0.15% MOUTH WASH 125 ML</t>
+  </si>
+  <si>
+    <t>TAVACIN 500MG 5 F.C. TAB</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>TEBOFORTIN 80MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>TEBOFORTIN FORTE 80MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>108.9000</t>
+  </si>
+  <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
+  </si>
+  <si>
+    <t>TOBRADEX EYE SUSP. DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>TORSERETIC 5MG 30 TABS.</t>
   </si>
   <si>
     <t>19.8000</t>
   </si>
   <si>
-    <t>ASMATROPIM 500MCG/2ML 20 NEBULIZER VIAL SOLN.</t>
-  </si>
-  <si>
-    <t>0:11</t>
-  </si>
-  <si>
-    <t>164.00</t>
-  </si>
-  <si>
-    <t>8.2000</t>
-  </si>
-  <si>
-    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>141.0000</t>
-  </si>
-  <si>
-    <t>BETAFOS 1 AMP. 2ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>BI ALCOFAN 150 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>BIONAL 30 CAP</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>192.0000</t>
-  </si>
-  <si>
-    <t>BIVATRACIN 150MG POWDER SPRAY</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>BRONCHICUM ELIXIR 100 ML</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>CATAFAST 50 MG 9 SACHET</t>
-  </si>
-  <si>
-    <t>1:6</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>7.9200</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>38.4000</t>
-  </si>
-  <si>
-    <t>CEMPION 10 SACHETS</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>CEREBROLYSIN 215.2MG/ML I.M./I.V. 5 AMPS (5ML)</t>
-  </si>
-  <si>
-    <t>740.00</t>
-  </si>
-  <si>
-    <t>592.0000</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>CERVETOLKA 500MG 20CAPS</t>
-  </si>
-  <si>
-    <t>340.00</t>
-  </si>
-  <si>
-    <t>340.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERVETOLKA FORTE  SYRUP</t>
-  </si>
-  <si>
-    <t>200.00</t>
-  </si>
-  <si>
-    <t>200.0000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>23:0</t>
-  </si>
-  <si>
-    <t>CLATEX 75MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>117.0000</t>
-  </si>
-  <si>
-    <t>COLLOMAK TOP. SOUTION 10 ML</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>31:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CURAM 1GM 12 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>182.00</t>
-  </si>
-  <si>
-    <t>60.0600</t>
-  </si>
-  <si>
-    <t>DAKTACORT CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DELTACLAV 457MG/5ML PD. FOR ORAL 80ML SUSP.</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DIASMECT 3GM 10 SACHETS</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>10.5000</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>DIASTOP SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>DIFLUCAN 150MG 1 CAPS.</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>222.0000</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>10:1</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>63.8400</t>
-  </si>
-  <si>
-    <t>DRAMENEX 50MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>ENRICH ORAL DROPS 30 ML</t>
-  </si>
-  <si>
-    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>-52.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>7:2</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:6</t>
-  </si>
-  <si>
-    <t>FELDENE 20MG 3 AMP I.M</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>31.5000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLOWADJUST 25MG 30 PROLONGED REL. TABS.</t>
-  </si>
-  <si>
-    <t>306.00</t>
-  </si>
-  <si>
-    <t>100.9800</t>
-  </si>
-  <si>
-    <t>FORTAZEDIM 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>118.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>303.00</t>
-  </si>
-  <si>
-    <t>99.9900</t>
-  </si>
-  <si>
-    <t>IMIPRAMINE 25MG 50 TAB.</t>
-  </si>
-  <si>
-    <t>52.50</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LANTANON 30MG 10 CAPS.</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>LENEX FOOT CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>LEVANIC 750 MG 5 TAB</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>LEVOTAVIN 750 MG 7 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>MAXDINIR 125MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
-  </si>
-  <si>
-    <t>NAIL 15 TOPICAL LOTION 15 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>NASACORT AQ 55 MCG NASAL SPRAY 120 DOSES</t>
-  </si>
-  <si>
-    <t>151.00</t>
-  </si>
-  <si>
-    <t>151.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>93.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANADOL MIGRAINE 30 TABS</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>POWER COLD &amp; FLU 20 TAB.</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
-  </si>
-  <si>
-    <t>240.00</t>
+    <t>TRITOSPOT CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>VENTOCOUGH SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8647:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>ZINCOLIVE LOTION 60 ML</t>
   </si>
   <si>
     <t>48.0000</t>
   </si>
   <si>
-    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
-  </si>
-  <si>
-    <t>PROTOFIX 40MG 14 F.C. TAB</t>
-  </si>
-  <si>
-    <t>116.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>1:19</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>37.6000</t>
-  </si>
-  <si>
-    <t>QUIBRON T/SR 300MG 100 TAB</t>
-  </si>
-  <si>
-    <t>1:87</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>13.2000</t>
-  </si>
-  <si>
-    <t>0:10</t>
-  </si>
-  <si>
-    <t>REPARIL-GEL N 40 GM</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>RICHI PANTHENOL CREAM 20GM</t>
-  </si>
-  <si>
-    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>ROWACHOL 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>37.9200</t>
-  </si>
-  <si>
-    <t>SELGON 20MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>SILVIRBURN CREAM 250 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>SINLERG 20 TABS.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>SONAKTO CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>74.50</t>
-  </si>
-  <si>
-    <t>74.5000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/850MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>132.0000</t>
-  </si>
-  <si>
-    <t>SULFAX PLUS MASSAGE GEL 60 GM</t>
-  </si>
-  <si>
-    <t>SUPRAX 100MG/5 ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>131.00</t>
-  </si>
-  <si>
-    <t>131.0000</t>
-  </si>
-  <si>
-    <t>TANTUM VERDE 0.15% MOUTH WASH 125 ML</t>
-  </si>
-  <si>
-    <t>TAVACIN 500MG 5 F.C. TAB</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>TEBOFORTIN 80MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>TEBOFORTIN FORTE 80MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>165.00</t>
-  </si>
-  <si>
-    <t>108.9000</t>
-  </si>
-  <si>
-    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>TERRAMYCIN EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
-  </si>
-  <si>
-    <t>TOBRADEX EYE SUSP. DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>TORSERETIC 5MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>TRITOSPOT CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>VENTOCOUGH SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8647:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>ZINCOLIVE LOTION 60 ML</t>
-  </si>
-  <si>
     <t>ZITHROKAN 500MG 3 CAP</t>
   </si>
   <si>
@@ -1085,7 +1100,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>11:0</t>
+    <t>15:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1139,7 +1154,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 10:23 PM</t>
+    <t>Thursday, 19 June, 2025 10:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1962,7 +1977,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -2308,7 +2323,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2318,11 +2333,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>27</v>
@@ -2334,7 +2349,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2351,11 +2366,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2367,7 +2382,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2384,14 +2399,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2400,7 +2415,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2417,11 +2432,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2433,7 +2448,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2450,11 +2465,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2466,14 +2481,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2499,7 +2514,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2516,11 +2531,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2532,7 +2547,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2549,11 +2564,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2565,7 +2580,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2582,11 +2597,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2598,14 +2613,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2615,11 +2630,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2631,14 +2646,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2704,7 +2719,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -3051,7 +3066,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>104</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3077,7 +3092,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -3110,11 +3125,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3216,7 +3231,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3315,7 +3330,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3595,7 +3610,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3807,7 +3822,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -4057,7 +4072,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4387,7 +4402,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4453,7 +4468,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>104</v>
+        <v>254</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4463,14 +4478,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>27</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4479,7 +4494,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4512,7 +4527,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4529,11 +4544,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>22</v>
@@ -4545,7 +4560,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4578,14 +4593,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4595,11 +4610,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>22</v>
@@ -4611,14 +4626,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4628,14 +4643,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4644,7 +4659,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4661,11 +4676,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4677,7 +4692,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4710,7 +4725,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4727,11 +4742,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4743,14 +4758,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4776,14 +4791,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4793,11 +4808,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>22</v>
@@ -4809,14 +4824,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4842,7 +4857,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4859,11 +4874,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4875,7 +4890,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4892,11 +4907,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>22</v>
@@ -4908,7 +4923,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4925,11 +4940,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4941,7 +4956,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4962,7 +4977,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4974,14 +4989,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>292</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4998,7 +5013,7 @@
         <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5057,7 +5072,7 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -5090,11 +5105,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5146,7 +5161,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5156,11 +5171,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>47</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>48</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5172,7 +5187,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5189,11 +5204,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>305</v>
+        <v>47</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>306</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5212,7 +5227,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5229,7 +5244,7 @@
         <v>309</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5245,7 +5260,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5262,7 +5277,7 @@
         <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5278,7 +5293,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5295,7 +5310,7 @@
         <v>315</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5311,7 +5326,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5321,11 +5336,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>94</v>
+        <v>317</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>95</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5337,7 +5352,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5354,11 +5369,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5370,14 +5385,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5387,11 +5402,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>201</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5403,14 +5418,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5420,14 +5435,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5436,14 +5451,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5453,14 +5468,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>282</v>
+        <v>37</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5469,14 +5484,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5486,11 +5501,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>47</v>
+        <v>283</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>48</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5502,14 +5517,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5519,11 +5534,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5535,14 +5550,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>324</v>
+        <v>16</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5552,14 +5567,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>325</v>
+        <v>135</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>326</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>327</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5568,14 +5583,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5585,14 +5600,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>146</v>
+        <v>329</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>255</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>331</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5601,7 +5616,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5618,11 +5633,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>330</v>
+        <v>146</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5634,28 +5649,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>333</v>
+        <v>12</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5667,14 +5682,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5684,11 +5699,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>243</v>
+        <v>339</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>244</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5700,14 +5715,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5717,11 +5732,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>340</v>
+        <v>243</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>341</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5733,14 +5748,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>24</v>
+        <v>344</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5750,11 +5765,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5766,14 +5781,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5783,14 +5798,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5799,14 +5814,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>349</v>
+        <v>12</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5816,14 +5831,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5832,14 +5847,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>16</v>
+        <v>354</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5849,11 +5864,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5865,14 +5880,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5882,11 +5897,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5898,14 +5913,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5915,11 +5930,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5931,7 +5946,7 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -5948,14 +5963,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>193</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>358</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5964,7 +5979,7 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
@@ -5981,14 +5996,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>241</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>327</v>
+        <v>363</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5997,14 +6012,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>361</v>
+        <v>12</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6014,14 +6029,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>362</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>16</v>
+        <v>331</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6030,14 +6045,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6047,14 +6062,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>21</v>
+        <v>367</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6063,14 +6078,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>24</v>
+        <v>369</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6080,14 +6095,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>243</v>
+        <v>370</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>244</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6096,14 +6111,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6113,11 +6128,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>334</v>
+        <v>243</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>335</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>16</v>
@@ -6129,7 +6144,7 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
@@ -6146,11 +6161,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>16</v>
@@ -6162,7 +6177,7 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
@@ -6179,11 +6194,11 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>20</v>
+        <v>374</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>241</v>
+        <v>375</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>16</v>
@@ -6195,14 +6210,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>373</v>
+        <v>12</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6212,49 +6227,82 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>374</v>
+        <v>20</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>375</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
-      <c r="P142" s="13">
-        <v>7930.8850000000002</v>
-      </c>
-      <c r="Q142" s="13"/>
-    </row>
-    <row r="143" ht="16.5" customHeight="1">
-      <c t="s" r="A143" s="14">
-        <v>376</v>
-      </c>
-      <c r="B143" s="14"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c t="s" r="G143" s="15">
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c t="s" r="C142" s="8">
         <v>377</v>
       </c>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="16"/>
-      <c t="s" r="K143" s="17">
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
         <v>378</v>
       </c>
-      <c r="L143" s="17"/>
-      <c r="M143" s="17"/>
-      <c r="N143" s="17"/>
-      <c r="O143" s="17"/>
-      <c r="P143" s="17"/>
-      <c r="Q143" s="17"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c t="s" r="L142" s="10">
+        <v>13</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c t="s" r="N142" s="8">
+        <v>379</v>
+      </c>
+      <c r="O142" s="8"/>
+      <c t="s" r="P142" s="11">
+        <v>380</v>
+      </c>
+      <c t="s" r="Q142" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="P143" s="13">
+        <v>8202.5550000000003</v>
+      </c>
+      <c r="Q143" s="13"/>
+    </row>
+    <row r="144" ht="16.5" customHeight="1">
+      <c t="s" r="A144" s="14">
+        <v>381</v>
+      </c>
+      <c r="B144" s="14"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
+      <c t="s" r="G144" s="15">
+        <v>382</v>
+      </c>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="16"/>
+      <c t="s" r="K144" s="17">
+        <v>383</v>
+      </c>
+      <c r="L144" s="17"/>
+      <c r="M144" s="17"/>
+      <c r="N144" s="17"/>
+      <c r="O144" s="17"/>
+      <c r="P144" s="17"/>
+      <c r="Q144" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="687">
+  <mergeCells count="692">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6938,10 +6986,15 @@
     <mergeCell ref="H141:K141"/>
     <mergeCell ref="L141:M141"/>
     <mergeCell ref="N141:O141"/>
-    <mergeCell ref="P142:Q142"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="G143:I143"/>
-    <mergeCell ref="K143:Q143"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="P143:Q143"/>
+    <mergeCell ref="A144:F144"/>
+    <mergeCell ref="G144:I144"/>
+    <mergeCell ref="K144:Q144"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -107,13 +107,16 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
-    <t>2:4</t>
+    <t>2:3</t>
   </si>
   <si>
     <t>78.00</t>
   </si>
   <si>
-    <t>24.9600</t>
+    <t>37.4400</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
@@ -203,6 +206,12 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>BRUFEN 400MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
@@ -455,6 +464,15 @@
     <t>63.8400</t>
   </si>
   <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
@@ -551,9 +569,6 @@
     <t>31.5000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -890,9 +905,6 @@
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
-    <t>25.7400</t>
-  </si>
-  <si>
     <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
   </si>
   <si>
@@ -1100,7 +1112,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>15:0</t>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>16:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1154,7 +1169,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 10:26 PM</t>
+    <t>Thursday, 19 June, 2025 10:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1944,7 +1959,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1953,14 +1968,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1970,11 +1985,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>27</v>
@@ -1986,14 +2001,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -2003,11 +2018,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>22</v>
@@ -2019,7 +2034,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -2036,11 +2051,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -2052,7 +2067,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -2069,11 +2084,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -2085,7 +2100,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -2102,11 +2117,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>22</v>
@@ -2118,7 +2133,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -2135,11 +2150,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -2151,7 +2166,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -2168,11 +2183,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -2184,7 +2199,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -2201,11 +2216,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>22</v>
@@ -2217,7 +2232,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -2234,11 +2249,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -2250,14 +2265,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2267,11 +2282,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>22</v>
@@ -2283,14 +2298,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2300,11 +2315,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>22</v>
@@ -2316,14 +2331,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2333,14 +2348,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2349,14 +2364,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2373,7 +2388,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2406,7 +2421,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2415,7 +2430,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2428,18 +2443,18 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>85</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2488,21 +2503,21 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2514,14 +2529,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2531,11 +2546,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2554,7 +2569,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2587,7 +2602,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2620,7 +2635,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2630,11 +2645,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2646,14 +2661,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2670,7 +2685,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2686,7 +2701,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2703,7 +2718,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2719,7 +2734,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2736,7 +2751,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2752,7 +2767,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2762,11 +2777,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>22</v>
@@ -2778,14 +2793,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2802,7 +2817,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2818,7 +2833,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2851,7 +2866,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2861,14 +2876,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2894,14 +2909,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2910,14 +2925,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2934,7 +2949,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>133</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2943,7 +2958,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2960,14 +2975,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>136</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2983,7 +2998,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -3000,7 +3015,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3016,7 +3031,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3026,14 +3041,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3042,14 +3057,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3059,14 +3074,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3075,14 +3090,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3092,14 +3107,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3108,7 +3123,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3125,11 +3140,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3141,14 +3156,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3158,14 +3173,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>154</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3174,14 +3189,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3191,11 +3206,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3207,14 +3222,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3224,14 +3239,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>82</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3240,7 +3255,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3253,11 +3268,11 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3280,7 +3295,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3290,14 +3305,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3306,31 +3321,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3339,14 +3354,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3356,14 +3371,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>67</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3379,7 +3394,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3389,14 +3404,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3405,14 +3420,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3422,14 +3437,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>179</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>180</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3438,14 +3453,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3455,11 +3470,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3471,14 +3486,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3488,14 +3503,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3504,14 +3519,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3521,14 +3536,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3537,14 +3552,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3554,14 +3569,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3570,14 +3585,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3587,14 +3602,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3603,14 +3618,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3620,14 +3635,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>132</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3643,7 +3658,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3660,7 +3675,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3676,7 +3691,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3686,14 +3701,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>37</v>
+        <v>203</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>203</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3709,7 +3724,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3726,7 +3741,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3742,7 +3757,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3752,11 +3767,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>208</v>
+        <v>38</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3768,14 +3783,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3785,14 +3800,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3801,14 +3816,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3818,14 +3833,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>103</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3841,7 +3856,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3851,11 +3866,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>142</v>
+        <v>216</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3867,14 +3882,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3884,14 +3899,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3900,14 +3915,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3917,14 +3932,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>219</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3933,7 +3948,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3950,11 +3965,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>30</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3966,14 +3981,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3983,14 +3998,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3999,14 +4014,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4016,11 +4031,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>203</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -4032,14 +4047,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4049,11 +4064,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -4065,14 +4080,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4082,14 +4097,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>38</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4105,7 +4120,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4115,11 +4130,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>47</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>48</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4131,14 +4146,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4148,14 +4163,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4164,14 +4179,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4181,11 +4196,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4197,14 +4212,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4214,14 +4229,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>156</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4230,14 +4245,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4247,11 +4262,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>145</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4270,7 +4285,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4280,14 +4295,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4303,7 +4318,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4313,11 +4328,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>20</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4329,14 +4344,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4346,14 +4361,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>48</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4369,7 +4384,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4379,14 +4394,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>20</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>129</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4402,7 +4417,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4419,7 +4434,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4435,7 +4450,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4449,7 +4464,7 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>22</v>
@@ -4461,14 +4476,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4478,14 +4493,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>133</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4494,14 +4509,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4511,14 +4526,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>135</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>136</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4534,7 +4549,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>259</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4544,14 +4559,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4560,14 +4575,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4577,11 +4592,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>201</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4593,14 +4608,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4633,7 +4648,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>267</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4643,14 +4658,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>268</v>
+        <v>205</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>270</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4659,14 +4674,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4676,14 +4691,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4692,14 +4707,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4709,14 +4724,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>135</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>136</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>275</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4725,14 +4740,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4742,11 +4757,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>102</v>
+        <v>277</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>103</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4758,14 +4773,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4775,14 +4790,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4791,14 +4806,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4808,14 +4823,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>105</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4841,11 +4856,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>244</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>22</v>
@@ -4864,7 +4879,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4881,7 +4896,7 @@
         <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4897,7 +4912,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>286</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4907,11 +4922,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>138</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>96</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>22</v>
@@ -4963,7 +4978,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4973,14 +4988,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>33</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4996,7 +5011,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5006,14 +5021,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>142</v>
+        <v>293</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5022,14 +5037,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5039,7 +5054,7 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>33</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
@@ -5062,7 +5077,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5072,14 +5087,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>268</v>
+        <v>145</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5088,7 +5103,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5105,11 +5120,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5121,14 +5136,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5138,7 +5153,7 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
@@ -5171,11 +5186,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>305</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5187,7 +5202,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5204,11 +5219,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>47</v>
+        <v>305</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>48</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5227,7 +5242,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5260,7 +5275,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5270,14 +5285,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>311</v>
+        <v>48</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>312</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5286,14 +5301,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5303,14 +5318,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5319,14 +5334,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5336,14 +5351,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5352,14 +5367,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5369,14 +5384,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>95</v>
+        <v>318</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>96</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5392,7 +5407,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5402,11 +5417,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>29</v>
+        <v>321</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>30</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5418,14 +5433,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5435,11 +5450,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>200</v>
+        <v>98</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>201</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5451,14 +5466,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5468,14 +5483,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>323</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5484,14 +5499,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5501,11 +5516,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>283</v>
+        <v>205</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>284</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5517,14 +5532,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5534,14 +5549,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>48</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5550,14 +5565,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5567,11 +5582,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>135</v>
+        <v>288</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>136</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5583,14 +5598,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>328</v>
+        <v>18</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5600,14 +5615,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>329</v>
+        <v>48</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>331</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5616,14 +5631,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5633,11 +5648,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>333</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5649,14 +5664,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>12</v>
+        <v>332</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5666,14 +5681,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>335</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5682,28 +5697,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>338</v>
+        <v>12</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>339</v>
+        <v>149</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5715,28 +5730,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>342</v>
+        <v>12</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>243</v>
+        <v>339</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>244</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5748,14 +5763,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5765,11 +5780,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5781,14 +5796,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>24</v>
+        <v>346</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5798,11 +5813,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>348</v>
+        <v>248</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>349</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5814,14 +5829,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>12</v>
+        <v>348</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5831,14 +5846,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5847,14 +5862,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>354</v>
+        <v>24</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5864,11 +5879,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5880,14 +5895,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5897,14 +5912,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5913,14 +5928,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>127</v>
+        <v>358</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5930,11 +5945,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5953,7 +5968,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5986,7 +6001,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5996,14 +6011,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>136</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>363</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -6012,7 +6027,7 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
@@ -6029,14 +6044,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>241</v>
+        <v>365</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>331</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6045,14 +6060,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>366</v>
+        <v>12</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6062,14 +6077,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
         <v>367</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>16</v>
+        <v>368</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6078,14 +6093,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>369</v>
+        <v>12</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6095,14 +6110,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>24</v>
+        <v>335</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6111,14 +6126,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>24</v>
+        <v>371</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6128,11 +6143,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>243</v>
+        <v>355</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>244</v>
+        <v>372</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>16</v>
@@ -6144,14 +6159,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>12</v>
+        <v>374</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6161,14 +6176,14 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>340</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6177,14 +6192,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6194,11 +6209,11 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>374</v>
+        <v>248</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>375</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>16</v>
@@ -6210,7 +6225,7 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
@@ -6227,11 +6242,11 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>20</v>
+        <v>343</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>241</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>16</v>
@@ -6243,14 +6258,14 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>378</v>
+        <v>12</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -6271,38 +6286,104 @@
       </c>
     </row>
     <row r="143" ht="24.75" customHeight="1">
-      <c r="P143" s="13">
-        <v>8202.5550000000003</v>
-      </c>
-      <c r="Q143" s="13"/>
-    </row>
-    <row r="144" ht="16.5" customHeight="1">
-      <c t="s" r="A144" s="14">
+      <c r="A143" s="7">
+        <v>137</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c t="s" r="C143" s="8">
         <v>381</v>
       </c>
-      <c r="B144" s="14"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
-      <c t="s" r="G144" s="15">
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c t="s" r="H143" s="9">
+        <v>12</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c t="s" r="L143" s="10">
+        <v>13</v>
+      </c>
+      <c r="M143" s="10"/>
+      <c t="s" r="N143" s="8">
+        <v>20</v>
+      </c>
+      <c r="O143" s="8"/>
+      <c t="s" r="P143" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q143" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="A144" s="7">
+        <v>138</v>
+      </c>
+      <c r="B144" s="7"/>
+      <c t="s" r="C144" s="8">
         <v>382</v>
       </c>
-      <c r="H144" s="15"/>
-      <c r="I144" s="15"/>
-      <c r="J144" s="16"/>
-      <c t="s" r="K144" s="17">
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c t="s" r="H144" s="9">
         <v>383</v>
       </c>
-      <c r="L144" s="17"/>
-      <c r="M144" s="17"/>
-      <c r="N144" s="17"/>
-      <c r="O144" s="17"/>
-      <c r="P144" s="17"/>
-      <c r="Q144" s="17"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c t="s" r="L144" s="10">
+        <v>13</v>
+      </c>
+      <c r="M144" s="10"/>
+      <c t="s" r="N144" s="8">
+        <v>384</v>
+      </c>
+      <c r="O144" s="8"/>
+      <c t="s" r="P144" s="11">
+        <v>385</v>
+      </c>
+      <c t="s" r="Q144" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="P145" s="13">
+        <v>8276.7749999999996</v>
+      </c>
+      <c r="Q145" s="13"/>
+    </row>
+    <row r="146" ht="16.5" customHeight="1">
+      <c t="s" r="A146" s="14">
+        <v>386</v>
+      </c>
+      <c r="B146" s="14"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14"/>
+      <c t="s" r="G146" s="15">
+        <v>387</v>
+      </c>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="16"/>
+      <c t="s" r="K146" s="17">
+        <v>388</v>
+      </c>
+      <c r="L146" s="17"/>
+      <c r="M146" s="17"/>
+      <c r="N146" s="17"/>
+      <c r="O146" s="17"/>
+      <c r="P146" s="17"/>
+      <c r="Q146" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="692">
+  <mergeCells count="702">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6991,10 +7072,20 @@
     <mergeCell ref="H142:K142"/>
     <mergeCell ref="L142:M142"/>
     <mergeCell ref="N142:O142"/>
-    <mergeCell ref="P143:Q143"/>
-    <mergeCell ref="A144:F144"/>
-    <mergeCell ref="G144:I144"/>
-    <mergeCell ref="K144:Q144"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:G144"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="N144:O144"/>
+    <mergeCell ref="P145:Q145"/>
+    <mergeCell ref="A146:F146"/>
+    <mergeCell ref="G146:I146"/>
+    <mergeCell ref="K146:Q146"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -1169,7 +1169,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 10:54 PM</t>
+    <t>Thursday, 19 June, 2025 10:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -1073,6 +1073,9 @@
     <t>380.0000</t>
   </si>
   <si>
+    <t>بيروسول 300 مل</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -1169,7 +1172,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 10:55 PM</t>
+    <t>Thursday, 19 June, 2025 10:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5902,7 +5905,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5912,14 +5915,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>355</v>
+        <v>38</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>356</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5928,14 +5931,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>358</v>
+        <v>12</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5945,14 +5948,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5961,14 +5964,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>16</v>
+        <v>359</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5978,11 +5981,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5994,14 +5997,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -6011,11 +6014,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -6034,7 +6037,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6044,11 +6047,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>365</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -6060,7 +6063,7 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
@@ -6077,14 +6080,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>368</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6093,7 +6096,7 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
@@ -6110,14 +6113,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>246</v>
+        <v>368</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>335</v>
+        <v>369</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6133,7 +6136,7 @@
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>371</v>
+        <v>12</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6143,14 +6146,14 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>372</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>16</v>
+        <v>335</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6159,14 +6162,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6176,14 +6179,14 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>21</v>
+        <v>373</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6192,14 +6195,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>24</v>
+        <v>375</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6209,14 +6212,14 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>248</v>
+        <v>376</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6232,7 +6235,7 @@
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6242,11 +6245,11 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>343</v>
+        <v>248</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>344</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>16</v>
@@ -6275,11 +6278,11 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>16</v>
@@ -6291,7 +6294,7 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
@@ -6308,11 +6311,11 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>20</v>
+        <v>380</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>246</v>
+        <v>381</v>
       </c>
       <c t="s" r="Q143" s="12">
         <v>16</v>
@@ -6331,7 +6334,7 @@
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>383</v>
+        <v>12</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
@@ -6341,49 +6344,82 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q144" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="A145" s="7">
+        <v>139</v>
+      </c>
+      <c r="B145" s="7"/>
+      <c t="s" r="C145" s="8">
+        <v>383</v>
+      </c>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c t="s" r="H145" s="9">
+        <v>384</v>
+      </c>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c t="s" r="L145" s="10">
+        <v>13</v>
+      </c>
+      <c r="M145" s="10"/>
+      <c t="s" r="N145" s="8">
         <v>385</v>
       </c>
-      <c t="s" r="Q144" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="145" ht="24.75" customHeight="1">
-      <c r="P145" s="13">
-        <v>8276.7749999999996</v>
-      </c>
-      <c r="Q145" s="13"/>
-    </row>
-    <row r="146" ht="16.5" customHeight="1">
-      <c t="s" r="A146" s="14">
+      <c r="O145" s="8"/>
+      <c t="s" r="P145" s="11">
         <v>386</v>
       </c>
-      <c r="B146" s="14"/>
-      <c r="C146" s="14"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
-      <c t="s" r="G146" s="15">
+      <c t="s" r="Q145" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="P146" s="13">
+        <v>8336.7749999999996</v>
+      </c>
+      <c r="Q146" s="13"/>
+    </row>
+    <row r="147" ht="16.5" customHeight="1">
+      <c t="s" r="A147" s="14">
         <v>387</v>
       </c>
-      <c r="H146" s="15"/>
-      <c r="I146" s="15"/>
-      <c r="J146" s="16"/>
-      <c t="s" r="K146" s="17">
+      <c r="B147" s="14"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14"/>
+      <c t="s" r="G147" s="15">
         <v>388</v>
       </c>
-      <c r="L146" s="17"/>
-      <c r="M146" s="17"/>
-      <c r="N146" s="17"/>
-      <c r="O146" s="17"/>
-      <c r="P146" s="17"/>
-      <c r="Q146" s="17"/>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="16"/>
+      <c t="s" r="K147" s="17">
+        <v>389</v>
+      </c>
+      <c r="L147" s="17"/>
+      <c r="M147" s="17"/>
+      <c r="N147" s="17"/>
+      <c r="O147" s="17"/>
+      <c r="P147" s="17"/>
+      <c r="Q147" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="702">
+  <mergeCells count="707">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7082,10 +7118,15 @@
     <mergeCell ref="H144:K144"/>
     <mergeCell ref="L144:M144"/>
     <mergeCell ref="N144:O144"/>
-    <mergeCell ref="P145:Q145"/>
-    <mergeCell ref="A146:F146"/>
-    <mergeCell ref="G146:I146"/>
-    <mergeCell ref="K146:Q146"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="N145:O145"/>
+    <mergeCell ref="P146:Q146"/>
+    <mergeCell ref="A147:F147"/>
+    <mergeCell ref="G147:I147"/>
+    <mergeCell ref="K147:Q147"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -287,6 +287,15 @@
     <t>200.0000</t>
   </si>
   <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -404,12 +413,6 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>DIASMECT 3GM 10 SACHETS</t>
   </si>
   <si>
@@ -773,7 +776,7 @@
     <t>51.00</t>
   </si>
   <si>
-    <t>16.8300</t>
+    <t>33.6600</t>
   </si>
   <si>
     <t>POWER COLD &amp; FLU 20 TAB.</t>
@@ -959,9 +962,6 @@
     <t>102.00</t>
   </si>
   <si>
-    <t>33.6600</t>
-  </si>
-  <si>
     <t>TEBOFORTIN FORTE 80MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -1172,7 +1172,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 10:56 PM</t>
+    <t>Thursday, 19 June, 2025 11:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2539,7 +2539,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2549,11 +2549,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2565,14 +2565,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2582,11 +2582,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2605,7 +2605,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2638,7 +2638,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2671,7 +2671,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2681,11 +2681,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2697,14 +2697,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2721,7 +2721,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2737,7 +2737,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2754,7 +2754,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2770,7 +2770,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2787,7 +2787,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2803,7 +2803,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2813,11 +2813,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>22</v>
@@ -2829,14 +2829,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2853,7 +2853,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2869,7 +2869,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2902,7 +2902,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2912,14 +2912,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2945,14 +2945,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2961,14 +2961,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2978,14 +2978,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -3011,14 +3011,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3027,14 +3027,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3044,14 +3044,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3060,14 +3060,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3077,14 +3077,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3093,14 +3093,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3110,14 +3110,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3126,14 +3126,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3143,14 +3143,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3159,14 +3159,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3176,14 +3176,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3192,14 +3192,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3213,10 +3213,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3232,7 +3232,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3242,14 +3242,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>160</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3258,14 +3258,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3275,14 +3275,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3291,14 +3291,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3308,14 +3308,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3324,31 +3324,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3357,28 +3357,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>171</v>
+        <v>69</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3390,14 +3390,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3407,14 +3407,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3423,14 +3423,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3440,14 +3440,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>70</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>27</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3456,14 +3456,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3473,14 +3473,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>181</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3489,14 +3489,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3506,14 +3506,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3522,14 +3522,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3539,14 +3539,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3555,14 +3555,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>188</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3572,14 +3572,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3588,14 +3588,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3605,14 +3605,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3621,14 +3621,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>24</v>
+        <v>188</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3638,14 +3638,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3654,14 +3654,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3671,14 +3671,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3687,14 +3687,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3704,11 +3704,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>135</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>22</v>
@@ -3720,14 +3720,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3737,14 +3737,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3753,14 +3753,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3770,11 +3770,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>38</v>
+        <v>206</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3803,14 +3803,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>210</v>
+        <v>38</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3819,14 +3819,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3836,14 +3836,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3869,11 +3869,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3885,14 +3885,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3902,14 +3902,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>106</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3918,14 +3918,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3935,14 +3935,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3958,7 +3958,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3968,11 +3968,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3984,14 +3984,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -4001,14 +4001,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -4017,14 +4017,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4034,14 +4034,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4057,7 +4057,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4067,11 +4067,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -4090,7 +4090,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4100,11 +4100,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>38</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4123,7 +4123,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4133,11 +4133,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>38</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4149,14 +4149,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4166,14 +4166,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4182,14 +4182,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4199,14 +4199,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4232,11 +4232,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>48</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4248,14 +4248,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4265,11 +4265,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>145</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>146</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4288,7 +4288,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4298,14 +4298,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4314,14 +4314,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4331,14 +4331,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>163</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4347,14 +4347,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4364,14 +4364,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>48</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4380,14 +4380,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4397,14 +4397,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4413,7 +4413,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4430,11 +4430,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>20</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4446,14 +4446,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4463,14 +4463,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>132</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4479,14 +4479,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4496,11 +4496,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>22</v>
@@ -4512,14 +4512,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4529,14 +4529,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4545,14 +4545,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>259</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4562,14 +4562,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>136</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4578,14 +4578,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4595,14 +4595,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>139</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4618,7 +4618,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4628,14 +4628,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>139</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4661,14 +4661,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>206</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4684,7 +4684,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>268</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4694,14 +4694,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>206</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4710,14 +4710,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4727,14 +4727,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>275</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4743,14 +4743,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4760,14 +4760,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>276</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4776,14 +4776,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4793,11 +4793,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>138</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>139</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4826,11 +4826,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4849,7 +4849,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>281</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4859,14 +4859,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4875,14 +4875,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>85</v>
+        <v>282</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4892,11 +4892,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>69</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>22</v>
@@ -4908,14 +4908,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>286</v>
+        <v>85</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4925,11 +4925,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>138</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>22</v>
@@ -4941,14 +4941,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>287</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4958,14 +4958,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>139</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4974,14 +4974,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4991,14 +4991,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>99</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -5007,14 +5007,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5024,14 +5024,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>294</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5040,14 +5040,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5057,11 +5057,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>33</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -5073,14 +5073,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5090,14 +5090,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>66</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5113,7 +5113,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5123,14 +5123,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>146</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5139,14 +5139,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5156,11 +5156,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5172,14 +5172,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5189,11 +5189,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>81</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5212,7 +5212,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5222,11 +5222,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>306</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5238,14 +5238,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5255,11 +5255,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5271,14 +5271,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5288,11 +5288,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>48</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>49</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5321,11 +5321,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>312</v>
+        <v>48</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>313</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5337,14 +5337,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5354,14 +5354,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5370,14 +5370,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5387,14 +5387,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>319</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5403,14 +5403,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5420,14 +5420,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5436,14 +5436,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5453,11 +5453,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>98</v>
+        <v>321</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>99</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5486,11 +5486,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5502,14 +5502,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5519,11 +5519,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>205</v>
+        <v>29</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>206</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5535,14 +5535,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5552,14 +5552,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>38</v>
+        <v>206</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>327</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5568,14 +5568,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5585,14 +5585,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>288</v>
+        <v>38</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5601,14 +5601,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5618,11 +5618,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>48</v>
+        <v>289</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>49</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5634,14 +5634,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5651,11 +5651,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5667,14 +5667,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>332</v>
+        <v>16</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5684,14 +5684,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>333</v>
+        <v>139</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>334</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>335</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5700,14 +5700,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>12</v>
+        <v>332</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5717,14 +5717,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>149</v>
+        <v>333</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>335</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5750,11 +5750,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>339</v>
+        <v>150</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5766,28 +5766,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>342</v>
+        <v>12</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5799,14 +5799,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5816,11 +5816,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>248</v>
+        <v>343</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>249</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5832,14 +5832,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5849,11 +5849,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>349</v>
+        <v>249</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5865,14 +5865,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>24</v>
+        <v>348</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5882,11 +5882,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5898,14 +5898,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>187</v>
+        <v>24</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5915,11 +5915,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>38</v>
+        <v>352</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>208</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5931,14 +5931,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5948,14 +5948,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>356</v>
+        <v>38</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>357</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5964,14 +5964,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>359</v>
+        <v>12</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5981,14 +5981,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5997,14 +5997,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>16</v>
+        <v>359</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -6014,11 +6014,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -6030,14 +6030,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6047,11 +6047,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -6063,14 +6063,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6080,11 +6080,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>366</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
@@ -6096,7 +6096,7 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
@@ -6113,14 +6113,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>369</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6129,7 +6129,7 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
@@ -6146,14 +6146,14 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>246</v>
+        <v>368</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>335</v>
+        <v>369</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6162,14 +6162,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>372</v>
+        <v>12</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6183,10 +6183,10 @@
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>373</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>16</v>
+        <v>335</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6195,14 +6195,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6212,14 +6212,14 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>21</v>
+        <v>373</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6228,14 +6228,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>24</v>
+        <v>375</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6245,14 +6245,14 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>248</v>
+        <v>376</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q141" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -6261,14 +6261,14 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -6278,11 +6278,11 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>343</v>
+        <v>249</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>344</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>16</v>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
@@ -6311,11 +6311,11 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>380</v>
+        <v>343</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q143" s="12">
         <v>16</v>
@@ -6327,7 +6327,7 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
@@ -6344,11 +6344,11 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>20</v>
+        <v>380</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>246</v>
+        <v>381</v>
       </c>
       <c t="s" r="Q144" s="12">
         <v>16</v>
@@ -6360,14 +6360,14 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>384</v>
+        <v>12</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
@@ -6377,49 +6377,82 @@
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>385</v>
+        <v>20</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q145" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="A146" s="7">
+        <v>140</v>
+      </c>
+      <c r="B146" s="7"/>
+      <c t="s" r="C146" s="8">
+        <v>383</v>
+      </c>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c t="s" r="H146" s="9">
+        <v>384</v>
+      </c>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c t="s" r="L146" s="10">
+        <v>13</v>
+      </c>
+      <c r="M146" s="10"/>
+      <c t="s" r="N146" s="8">
+        <v>385</v>
+      </c>
+      <c r="O146" s="8"/>
+      <c t="s" r="P146" s="11">
         <v>386</v>
       </c>
-      <c t="s" r="Q145" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="146" ht="25.5" customHeight="1">
-      <c r="P146" s="13">
-        <v>8336.7749999999996</v>
-      </c>
-      <c r="Q146" s="13"/>
-    </row>
-    <row r="147" ht="16.5" customHeight="1">
-      <c t="s" r="A147" s="14">
+      <c t="s" r="Q146" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" ht="25.5" customHeight="1">
+      <c r="P147" s="13">
+        <v>8376.6049999999996</v>
+      </c>
+      <c r="Q147" s="13"/>
+    </row>
+    <row r="148" ht="16.5" customHeight="1">
+      <c t="s" r="A148" s="14">
         <v>387</v>
       </c>
-      <c r="B147" s="14"/>
-      <c r="C147" s="14"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
-      <c t="s" r="G147" s="15">
+      <c r="B148" s="14"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="14"/>
+      <c t="s" r="G148" s="15">
         <v>388</v>
       </c>
-      <c r="H147" s="15"/>
-      <c r="I147" s="15"/>
-      <c r="J147" s="16"/>
-      <c t="s" r="K147" s="17">
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="16"/>
+      <c t="s" r="K148" s="17">
         <v>389</v>
       </c>
-      <c r="L147" s="17"/>
-      <c r="M147" s="17"/>
-      <c r="N147" s="17"/>
-      <c r="O147" s="17"/>
-      <c r="P147" s="17"/>
-      <c r="Q147" s="17"/>
+      <c r="L148" s="17"/>
+      <c r="M148" s="17"/>
+      <c r="N148" s="17"/>
+      <c r="O148" s="17"/>
+      <c r="P148" s="17"/>
+      <c r="Q148" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="707">
+  <mergeCells count="712">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7123,10 +7156,15 @@
     <mergeCell ref="H145:K145"/>
     <mergeCell ref="L145:M145"/>
     <mergeCell ref="N145:O145"/>
-    <mergeCell ref="P146:Q146"/>
-    <mergeCell ref="A147:F147"/>
-    <mergeCell ref="G147:I147"/>
-    <mergeCell ref="K147:Q147"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:G146"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="P147:Q147"/>
+    <mergeCell ref="A148:F148"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="K148:Q148"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -1172,7 +1172,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 11:13 PM</t>
+    <t>Thursday, 19 June, 2025 11:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -776,192 +776,195 @@
     <t>51.00</t>
   </si>
   <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>POWER COLD &amp; FLU 20 TAB.</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
+  </si>
+  <si>
+    <t>PROTOFIX 40MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>1:19</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:87</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>13.2000</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>RICHI PANTHENOL CREAM 20GM</t>
+  </si>
+  <si>
+    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>ROWACHOL 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>37.9200</t>
+  </si>
+  <si>
+    <t>SELGON 20MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>SILVIRBURN CREAM 250 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>SINLERG 20 TABS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>SONAKTO CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>74.50</t>
+  </si>
+  <si>
+    <t>74.5000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/850MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>SULFAX PLUS MASSAGE GEL 60 GM</t>
+  </si>
+  <si>
+    <t>SUPRAX 100MG/5 ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>131.00</t>
+  </si>
+  <si>
+    <t>131.0000</t>
+  </si>
+  <si>
+    <t>SUPRAX 400MG 5 TAB</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t>TANTUM VERDE 0.15% MOUTH WASH 125 ML</t>
+  </si>
+  <si>
+    <t>TAVACIN 500MG 5 F.C. TAB</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>TEBOFORTIN 80MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
     <t>33.6600</t>
   </si>
   <si>
-    <t>POWER COLD &amp; FLU 20 TAB.</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
-  </si>
-  <si>
-    <t>0:8</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
-  </si>
-  <si>
-    <t>PROTOFIX 40MG 14 F.C. TAB</t>
-  </si>
-  <si>
-    <t>116.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>1:19</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>37.6000</t>
-  </si>
-  <si>
-    <t>QUIBRON T/SR 300MG 100 TAB</t>
-  </si>
-  <si>
-    <t>1:87</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>13.2000</t>
-  </si>
-  <si>
-    <t>0:10</t>
-  </si>
-  <si>
-    <t>REPARIL-GEL N 40 GM</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>RICHI PANTHENOL CREAM 20GM</t>
-  </si>
-  <si>
-    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>ROWACHOL 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>37.9200</t>
-  </si>
-  <si>
-    <t>SELGON 20MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>SILVIRBURN CREAM 250 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>SINLERG 20 TABS.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>SONAKTO CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>74.50</t>
-  </si>
-  <si>
-    <t>74.5000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/850MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>132.0000</t>
-  </si>
-  <si>
-    <t>SULFAX PLUS MASSAGE GEL 60 GM</t>
-  </si>
-  <si>
-    <t>SUPRAX 100MG/5 ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>131.00</t>
-  </si>
-  <si>
-    <t>131.0000</t>
-  </si>
-  <si>
-    <t>SUPRAX 400MG 5 TAB</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>159.0000</t>
-  </si>
-  <si>
-    <t>TANTUM VERDE 0.15% MOUTH WASH 125 ML</t>
-  </si>
-  <si>
-    <t>TAVACIN 500MG 5 F.C. TAB</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>TEBOFORTIN 80MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
     <t>TEBOFORTIN FORTE 80MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -1172,7 +1175,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 11:15 PM</t>
+    <t>Thursday, 19 June, 2025 11:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4519,7 +4522,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4536,7 +4539,7 @@
         <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -5391,7 +5394,7 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>255</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>22</v>
@@ -5403,7 +5406,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5420,11 +5423,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>27</v>
@@ -5436,7 +5439,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5453,11 +5456,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5469,7 +5472,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5502,7 +5505,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5535,7 +5538,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5568,7 +5571,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5589,7 +5592,7 @@
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>22</v>
@@ -5601,7 +5604,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5634,7 +5637,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5667,7 +5670,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5700,14 +5703,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5717,14 +5720,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5733,7 +5736,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5754,7 +5757,7 @@
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5766,7 +5769,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5783,11 +5786,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5799,14 +5802,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5816,11 +5819,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5832,14 +5835,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5865,14 +5868,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5882,11 +5885,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5898,7 +5901,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -5915,11 +5918,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5931,7 +5934,7 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -5964,7 +5967,7 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -5981,11 +5984,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>24</v>
@@ -5997,14 +6000,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -6014,11 +6017,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -6030,7 +6033,7 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
@@ -6047,11 +6050,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -6063,7 +6066,7 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
@@ -6080,11 +6083,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
@@ -6096,7 +6099,7 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
@@ -6113,11 +6116,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6129,7 +6132,7 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
@@ -6146,14 +6149,14 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6162,7 +6165,7 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
@@ -6179,14 +6182,14 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
         <v>247</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6195,14 +6198,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6212,11 +6215,11 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>16</v>
@@ -6228,14 +6231,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6245,7 +6248,7 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
@@ -6261,7 +6264,7 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
@@ -6294,7 +6297,7 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
@@ -6311,11 +6314,11 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q143" s="12">
         <v>16</v>
@@ -6327,7 +6330,7 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
@@ -6344,11 +6347,11 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c t="s" r="Q144" s="12">
         <v>16</v>
@@ -6360,7 +6363,7 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
@@ -6393,14 +6396,14 @@
       </c>
       <c r="B146" s="7"/>
       <c t="s" r="C146" s="8">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c t="s" r="H146" s="9">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
@@ -6410,11 +6413,11 @@
       </c>
       <c r="M146" s="10"/>
       <c t="s" r="N146" s="8">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O146" s="8"/>
       <c t="s" r="P146" s="11">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c t="s" r="Q146" s="12">
         <v>16</v>
@@ -6422,13 +6425,13 @@
     </row>
     <row r="147" ht="25.5" customHeight="1">
       <c r="P147" s="13">
-        <v>8376.6049999999996</v>
+        <v>8359.7749999999996</v>
       </c>
       <c r="Q147" s="13"/>
     </row>
     <row r="148" ht="16.5" customHeight="1">
       <c t="s" r="A148" s="14">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B148" s="14"/>
       <c r="C148" s="14"/>
@@ -6436,13 +6439,13 @@
       <c r="E148" s="14"/>
       <c r="F148" s="14"/>
       <c t="s" r="G148" s="15">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H148" s="15"/>
       <c r="I148" s="15"/>
       <c r="J148" s="16"/>
       <c t="s" r="K148" s="17">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L148" s="17"/>
       <c r="M148" s="17"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -1175,7 +1175,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 11:21 PM</t>
+    <t>Thursday, 19 June, 2025 11:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -320,6 +320,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -365,7 +374,7 @@
     <t>142.50</t>
   </si>
   <si>
-    <t>47.0250</t>
+    <t>94.0500</t>
   </si>
   <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
@@ -485,6 +494,15 @@
     <t>ENRICH ORAL DROPS 30 ML</t>
   </si>
   <si>
+    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -566,9 +584,6 @@
     <t>2:2</t>
   </si>
   <si>
-    <t>63.00</t>
-  </si>
-  <si>
     <t>31.5000</t>
   </si>
   <si>
@@ -611,6 +626,18 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -638,9 +665,6 @@
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
@@ -731,7 +755,7 @@
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
-    <t>37.6200</t>
+    <t>75.2400</t>
   </si>
   <si>
     <t>NASACORT AQ 55 MCG NASAL SPRAY 120 DOSES</t>
@@ -743,6 +767,15 @@
     <t>151.0000</t>
   </si>
   <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -1007,6 +1040,12 @@
     <t>VENTOCOUGH SYRUP 125 ML</t>
   </si>
   <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -1022,6 +1061,12 @@
     <t>8:0</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
     <t>ZINCOLIVE LOTION 60 ML</t>
   </si>
   <si>
@@ -1079,6 +1124,12 @@
     <t>بيروسول 300 مل</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -1112,18 +1163,9 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -1143,6 +1185,9 @@
   </si>
   <si>
     <t>6.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
   </si>
   <si>
     <t xml:space="preserve">ماء اكسجين 10 </t>
@@ -2674,7 +2719,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2691,7 +2736,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2707,7 +2752,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2717,11 +2762,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2733,14 +2778,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2757,7 +2802,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2773,7 +2818,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2790,7 +2835,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2806,7 +2851,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2823,7 +2868,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2839,7 +2884,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2849,14 +2894,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2865,14 +2910,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2889,7 +2934,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2905,7 +2950,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2938,7 +2983,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2948,14 +2993,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2981,14 +3026,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2997,14 +3042,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -3014,14 +3059,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3030,7 +3075,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -3047,14 +3092,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>140</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3070,7 +3115,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3087,7 +3132,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3103,7 +3148,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3113,14 +3158,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3129,14 +3174,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3146,14 +3191,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3162,14 +3207,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3186,7 +3231,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3202,7 +3247,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3212,14 +3257,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3228,14 +3273,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3245,14 +3290,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3261,14 +3306,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3278,14 +3323,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>161</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3294,14 +3339,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3311,14 +3356,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3327,14 +3372,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3344,14 +3389,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>85</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3360,7 +3405,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3373,11 +3418,11 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3400,7 +3445,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3410,14 +3455,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3426,31 +3471,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>69</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3459,14 +3504,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>179</v>
+        <v>24</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3476,14 +3521,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>70</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3499,7 +3544,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3509,14 +3554,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3525,14 +3570,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3542,14 +3587,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>186</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3558,14 +3603,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3575,11 +3620,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3591,14 +3636,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>190</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3608,14 +3653,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>192</v>
+        <v>104</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3624,14 +3669,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3641,14 +3686,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3657,14 +3702,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3674,14 +3719,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3690,14 +3735,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3707,14 +3752,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3723,14 +3768,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3740,14 +3785,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3763,7 +3808,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3773,14 +3818,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3789,14 +3834,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3806,14 +3851,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3822,14 +3867,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3839,14 +3884,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>212</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3855,14 +3900,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3872,11 +3917,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3888,14 +3933,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3905,11 +3950,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3921,14 +3966,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3938,14 +3983,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3961,7 +4006,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3971,11 +4016,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>146</v>
+        <v>222</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3987,7 +4032,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -4004,11 +4049,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -4020,14 +4065,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4037,14 +4082,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>225</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4053,14 +4098,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4070,11 +4115,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -4086,14 +4131,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4103,11 +4148,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4119,14 +4164,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4136,14 +4181,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4152,14 +4197,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4169,11 +4214,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4185,14 +4230,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4202,14 +4247,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>115</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4218,14 +4263,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4235,11 +4280,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4251,14 +4296,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4268,11 +4313,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4284,14 +4329,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4301,14 +4346,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4317,14 +4362,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4334,14 +4379,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4350,7 +4395,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4367,11 +4412,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4383,7 +4428,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4400,14 +4445,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4416,14 +4461,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4433,14 +4478,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4449,14 +4494,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4466,11 +4511,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4482,14 +4527,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4499,11 +4544,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>94</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>22</v>
@@ -4515,14 +4560,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4532,14 +4577,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>48</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4548,14 +4593,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4565,14 +4610,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>20</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4588,7 +4633,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4598,14 +4643,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4614,14 +4659,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4631,14 +4676,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>139</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4654,7 +4699,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4697,14 +4742,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>206</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>207</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4713,14 +4758,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4730,14 +4775,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>22</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4746,14 +4791,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>273</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4763,14 +4808,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>142</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>276</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4779,7 +4824,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4796,14 +4841,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4812,14 +4857,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4829,11 +4874,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4845,14 +4890,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>280</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4862,14 +4907,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>108</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>109</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4878,14 +4923,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4895,14 +4940,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>69</v>
+        <v>285</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>131</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>22</v>
+        <v>287</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4911,14 +4956,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4928,14 +4973,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4944,14 +4989,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4961,14 +5006,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>250</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4977,7 +5022,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4994,11 +5039,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>111</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -5010,14 +5055,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>293</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5027,11 +5072,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>69</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>22</v>
@@ -5043,14 +5088,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5060,14 +5105,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5076,14 +5121,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>184</v>
+        <v>298</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5093,14 +5138,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5109,14 +5154,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5126,14 +5171,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>146</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>66</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5142,14 +5187,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5159,14 +5204,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5175,14 +5220,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5192,11 +5237,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5208,14 +5253,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5225,11 +5270,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>81</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5241,14 +5286,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5258,14 +5303,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>306</v>
+        <v>149</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>307</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5274,7 +5319,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5291,11 +5336,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5307,14 +5352,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5324,11 +5369,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>48</v>
+        <v>285</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>49</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5340,14 +5385,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5357,11 +5402,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>313</v>
+        <v>80</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5373,14 +5418,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5390,14 +5435,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5406,7 +5451,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5423,14 +5468,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5439,14 +5484,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5456,11 +5501,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>322</v>
+        <v>48</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>323</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5472,7 +5517,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5489,11 +5534,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>101</v>
+        <v>324</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>102</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5505,14 +5550,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5522,14 +5567,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>29</v>
+        <v>327</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>30</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5538,14 +5583,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5555,14 +5600,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>206</v>
+        <v>330</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>207</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5571,14 +5616,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5588,14 +5633,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>38</v>
+        <v>333</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5604,14 +5649,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5621,11 +5666,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>289</v>
+        <v>101</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>290</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5637,14 +5682,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5654,11 +5699,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5670,14 +5715,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5687,11 +5732,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5703,14 +5748,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>333</v>
+        <v>37</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5720,14 +5765,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>334</v>
+        <v>38</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>336</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5736,7 +5781,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5753,11 +5798,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5769,14 +5814,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5786,11 +5831,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>340</v>
+        <v>48</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>341</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5809,21 +5854,21 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>343</v>
+        <v>16</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>344</v>
+        <v>142</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>345</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5835,31 +5880,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>347</v>
+        <v>16</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>249</v>
+        <v>324</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>250</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5868,31 +5913,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>349</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5901,31 +5946,31 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>353</v>
+        <v>303</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5934,28 +5979,28 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>209</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5967,7 +6012,7 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -5980,18 +6025,18 @@
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -6000,14 +6045,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -6017,11 +6062,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -6040,7 +6085,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>16</v>
+        <v>362</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6050,11 +6095,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>362</v>
+        <v>260</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>363</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -6066,14 +6111,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>133</v>
+        <v>364</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6083,11 +6128,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
@@ -6099,14 +6144,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6116,11 +6161,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6132,14 +6177,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6149,14 +6194,14 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>334</v>
+        <v>38</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>369</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>370</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6172,7 +6217,7 @@
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>12</v>
+        <v>372</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6182,14 +6227,14 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>247</v>
+        <v>360</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>336</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6198,14 +6243,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>373</v>
+        <v>12</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6215,14 +6260,14 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6231,14 +6276,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6248,14 +6293,14 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>21</v>
+        <v>360</v>
       </c>
       <c t="s" r="Q141" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -6271,7 +6316,7 @@
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -6281,11 +6326,11 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>249</v>
+        <v>379</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>16</v>
@@ -6297,14 +6342,14 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
@@ -6314,11 +6359,11 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q143" s="12">
         <v>16</v>
@@ -6330,7 +6375,7 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
@@ -6347,14 +6392,14 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q144" s="12">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="145" ht="24.75" customHeight="1">
@@ -6363,7 +6408,7 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
@@ -6380,14 +6425,14 @@
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>20</v>
+        <v>347</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>247</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q145" s="12">
-        <v>16</v>
+        <v>358</v>
       </c>
     </row>
     <row r="146" ht="25.5" customHeight="1">
@@ -6396,14 +6441,14 @@
       </c>
       <c r="B146" s="7"/>
       <c t="s" r="C146" s="8">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c t="s" r="H146" s="9">
-        <v>385</v>
+        <v>12</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
@@ -6413,49 +6458,313 @@
       </c>
       <c r="M146" s="10"/>
       <c t="s" r="N146" s="8">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="O146" s="8"/>
       <c t="s" r="P146" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q146" s="12">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="147" ht="25.5" customHeight="1">
+      <c r="A147" s="7">
+        <v>141</v>
+      </c>
+      <c r="B147" s="7"/>
+      <c t="s" r="C147" s="8">
+        <v>386</v>
+      </c>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c t="s" r="H147" s="9">
         <v>387</v>
       </c>
-      <c t="s" r="Q146" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="147" ht="25.5" customHeight="1">
-      <c r="P147" s="13">
-        <v>8359.7749999999996</v>
-      </c>
-      <c r="Q147" s="13"/>
-    </row>
-    <row r="148" ht="16.5" customHeight="1">
-      <c t="s" r="A148" s="14">
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c t="s" r="L147" s="10">
+        <v>13</v>
+      </c>
+      <c r="M147" s="10"/>
+      <c t="s" r="N147" s="8">
+        <v>374</v>
+      </c>
+      <c r="O147" s="8"/>
+      <c t="s" r="P147" s="11">
         <v>388</v>
       </c>
-      <c r="B148" s="14"/>
-      <c r="C148" s="14"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
-      <c t="s" r="G148" s="15">
+      <c t="s" r="Q147" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" ht="24.75" customHeight="1">
+      <c r="A148" s="7">
+        <v>142</v>
+      </c>
+      <c r="B148" s="7"/>
+      <c t="s" r="C148" s="8">
         <v>389</v>
       </c>
-      <c r="H148" s="15"/>
-      <c r="I148" s="15"/>
-      <c r="J148" s="16"/>
-      <c t="s" r="K148" s="17">
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c t="s" r="H148" s="9">
         <v>390</v>
       </c>
-      <c r="L148" s="17"/>
-      <c r="M148" s="17"/>
-      <c r="N148" s="17"/>
-      <c r="O148" s="17"/>
-      <c r="P148" s="17"/>
-      <c r="Q148" s="17"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c t="s" r="L148" s="10">
+        <v>13</v>
+      </c>
+      <c r="M148" s="10"/>
+      <c t="s" r="N148" s="8">
+        <v>391</v>
+      </c>
+      <c r="O148" s="8"/>
+      <c t="s" r="P148" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q148" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" ht="25.5" customHeight="1">
+      <c r="A149" s="7">
+        <v>143</v>
+      </c>
+      <c r="B149" s="7"/>
+      <c t="s" r="C149" s="8">
+        <v>392</v>
+      </c>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c t="s" r="H149" s="9">
+        <v>12</v>
+      </c>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+      <c t="s" r="L149" s="10">
+        <v>13</v>
+      </c>
+      <c r="M149" s="10"/>
+      <c t="s" r="N149" s="8">
+        <v>260</v>
+      </c>
+      <c r="O149" s="8"/>
+      <c t="s" r="P149" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q149" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" ht="24.75" customHeight="1">
+      <c r="A150" s="7">
+        <v>144</v>
+      </c>
+      <c r="B150" s="7"/>
+      <c t="s" r="C150" s="8">
+        <v>393</v>
+      </c>
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+      <c t="s" r="H150" s="9">
+        <v>24</v>
+      </c>
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
+      <c r="K150" s="9"/>
+      <c t="s" r="L150" s="10">
+        <v>13</v>
+      </c>
+      <c r="M150" s="10"/>
+      <c t="s" r="N150" s="8">
+        <v>260</v>
+      </c>
+      <c r="O150" s="8"/>
+      <c t="s" r="P150" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q150" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" ht="25.5" customHeight="1">
+      <c r="A151" s="7">
+        <v>145</v>
+      </c>
+      <c r="B151" s="7"/>
+      <c t="s" r="C151" s="8">
+        <v>394</v>
+      </c>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c t="s" r="H151" s="9">
+        <v>12</v>
+      </c>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
+      <c t="s" r="L151" s="10">
+        <v>13</v>
+      </c>
+      <c r="M151" s="10"/>
+      <c t="s" r="N151" s="8">
+        <v>359</v>
+      </c>
+      <c r="O151" s="8"/>
+      <c t="s" r="P151" s="11">
+        <v>360</v>
+      </c>
+      <c t="s" r="Q151" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" ht="25.5" customHeight="1">
+      <c r="A152" s="7">
+        <v>146</v>
+      </c>
+      <c r="B152" s="7"/>
+      <c t="s" r="C152" s="8">
+        <v>395</v>
+      </c>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c t="s" r="H152" s="9">
+        <v>12</v>
+      </c>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
+      <c r="K152" s="9"/>
+      <c t="s" r="L152" s="10">
+        <v>13</v>
+      </c>
+      <c r="M152" s="10"/>
+      <c t="s" r="N152" s="8">
+        <v>396</v>
+      </c>
+      <c r="O152" s="8"/>
+      <c t="s" r="P152" s="11">
+        <v>397</v>
+      </c>
+      <c t="s" r="Q152" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" ht="24.75" customHeight="1">
+      <c r="A153" s="7">
+        <v>147</v>
+      </c>
+      <c r="B153" s="7"/>
+      <c t="s" r="C153" s="8">
+        <v>398</v>
+      </c>
+      <c r="D153" s="8"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
+      <c t="s" r="H153" s="9">
+        <v>12</v>
+      </c>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
+      <c r="K153" s="9"/>
+      <c t="s" r="L153" s="10">
+        <v>13</v>
+      </c>
+      <c r="M153" s="10"/>
+      <c t="s" r="N153" s="8">
+        <v>20</v>
+      </c>
+      <c r="O153" s="8"/>
+      <c t="s" r="P153" s="11">
+        <v>353</v>
+      </c>
+      <c t="s" r="Q153" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154" ht="25.5" customHeight="1">
+      <c r="A154" s="7">
+        <v>148</v>
+      </c>
+      <c r="B154" s="7"/>
+      <c t="s" r="C154" s="8">
+        <v>399</v>
+      </c>
+      <c r="D154" s="8"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
+      <c t="s" r="H154" s="9">
+        <v>400</v>
+      </c>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
+      <c r="K154" s="9"/>
+      <c t="s" r="L154" s="10">
+        <v>13</v>
+      </c>
+      <c r="M154" s="10"/>
+      <c t="s" r="N154" s="8">
+        <v>401</v>
+      </c>
+      <c r="O154" s="8"/>
+      <c t="s" r="P154" s="11">
+        <v>402</v>
+      </c>
+      <c t="s" r="Q154" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" ht="24.75" customHeight="1">
+      <c r="P155" s="13">
+        <v>8874.4300000000003</v>
+      </c>
+      <c r="Q155" s="13"/>
+    </row>
+    <row r="156" ht="16.5" customHeight="1">
+      <c t="s" r="A156" s="14">
+        <v>403</v>
+      </c>
+      <c r="B156" s="14"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="14"/>
+      <c r="F156" s="14"/>
+      <c t="s" r="G156" s="15">
+        <v>404</v>
+      </c>
+      <c r="H156" s="15"/>
+      <c r="I156" s="15"/>
+      <c r="J156" s="16"/>
+      <c t="s" r="K156" s="17">
+        <v>405</v>
+      </c>
+      <c r="L156" s="17"/>
+      <c r="M156" s="17"/>
+      <c r="N156" s="17"/>
+      <c r="O156" s="17"/>
+      <c r="P156" s="17"/>
+      <c r="Q156" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="712">
+  <mergeCells count="752">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7164,10 +7473,50 @@
     <mergeCell ref="H146:K146"/>
     <mergeCell ref="L146:M146"/>
     <mergeCell ref="N146:O146"/>
-    <mergeCell ref="P147:Q147"/>
-    <mergeCell ref="A148:F148"/>
-    <mergeCell ref="G148:I148"/>
-    <mergeCell ref="K148:Q148"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:G147"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="C148:G148"/>
+    <mergeCell ref="H148:K148"/>
+    <mergeCell ref="L148:M148"/>
+    <mergeCell ref="N148:O148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="H149:K149"/>
+    <mergeCell ref="L149:M149"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="C150:G150"/>
+    <mergeCell ref="H150:K150"/>
+    <mergeCell ref="L150:M150"/>
+    <mergeCell ref="N150:O150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="C151:G151"/>
+    <mergeCell ref="H151:K151"/>
+    <mergeCell ref="L151:M151"/>
+    <mergeCell ref="N151:O151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="C152:G152"/>
+    <mergeCell ref="H152:K152"/>
+    <mergeCell ref="L152:M152"/>
+    <mergeCell ref="N152:O152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="C153:G153"/>
+    <mergeCell ref="H153:K153"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="C154:G154"/>
+    <mergeCell ref="H154:K154"/>
+    <mergeCell ref="L154:M154"/>
+    <mergeCell ref="N154:O154"/>
+    <mergeCell ref="P155:Q155"/>
+    <mergeCell ref="A156:F156"/>
+    <mergeCell ref="G156:I156"/>
+    <mergeCell ref="K156:Q156"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-19_00-00.xlsx
+++ b/DaySale_2025-06-19_00-00.xlsx
@@ -467,13 +467,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>10:1</t>
+    <t>10:0</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>63.8400</t>
+    <t>79.6800</t>
   </si>
   <si>
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
@@ -776,6 +776,9 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -1103,9 +1106,6 @@
     <t>بودره نلج اكياس</t>
   </si>
   <si>
-    <t>10:0</t>
-  </si>
-  <si>
     <t>5.00</t>
   </si>
   <si>
@@ -1187,6 +1187,9 @@
     <t>6.00</t>
   </si>
   <si>
+    <t>شمع حريمي</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -1220,7 +1223,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 19 June, 2025 11:24 PM</t>
+    <t>Thursday, 19 June, 2025 11:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3231,7 +3234,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -4567,7 +4570,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4577,14 +4580,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>48</v>
+        <v>203</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4593,14 +4596,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4610,14 +4613,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4626,7 +4629,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4643,11 +4646,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4659,14 +4662,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>190</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4676,14 +4679,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>94</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4692,14 +4695,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4709,11 +4712,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>22</v>
@@ -4725,14 +4728,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4742,11 +4745,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>22</v>
@@ -4758,14 +4761,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>271</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4775,14 +4778,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>140</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4791,14 +4794,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4808,14 +4811,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>142</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>143</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4831,7 +4834,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4841,14 +4844,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>142</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4857,7 +4860,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4874,14 +4877,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>216</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4897,7 +4900,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>280</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4907,14 +4910,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>215</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4923,14 +4926,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4940,14 +4943,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>287</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4956,14 +4959,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>285</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4973,14 +4976,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>288</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4989,14 +4992,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -5006,11 +5009,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>142</v>
+        <v>290</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>143</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -5039,11 +5042,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -5062,7 +5065,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>293</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5072,14 +5075,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5088,14 +5091,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>85</v>
+        <v>294</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5105,11 +5108,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>69</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>22</v>
@@ -5121,14 +5124,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>298</v>
+        <v>85</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5138,11 +5141,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>142</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>22</v>
@@ -5154,14 +5157,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5171,14 +5174,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>142</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5187,14 +5190,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5204,14 +5207,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>102</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5220,14 +5223,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5237,14 +5240,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>306</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5253,14 +5256,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5270,11 +5273,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>33</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5286,14 +5289,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5303,14 +5306,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>66</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5326,7 +5329,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5336,14 +5339,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>311</v>
+        <v>149</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>312</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5352,14 +5355,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5369,11 +5372,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5385,14 +5388,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5402,11 +5405,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>80</v>
+        <v>286</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>81</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5425,7 +5428,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5435,11 +5438,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>318</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5451,14 +5454,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5468,11 +5471,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5484,14 +5487,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5501,11 +5504,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>48</v>
+        <v>321</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>49</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5534,11 +5537,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>324</v>
+        <v>48</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>325</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5550,14 +5553,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5567,14 +5570,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5583,14 +5586,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5600,14 +5603,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5616,14 +5619,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5633,14 +5636,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5649,14 +5652,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5666,11 +5669,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>101</v>
+        <v>334</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>102</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5699,11 +5702,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5722,7 +5725,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5732,11 +5735,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>215</v>
+        <v>29</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>216</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5755,7 +5758,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5765,14 +5768,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>339</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5781,14 +5784,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5798,14 +5801,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>300</v>
+        <v>38</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5821,7 +5824,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5831,11 +5834,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>48</v>
+        <v>301</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>49</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5854,7 +5857,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5864,11 +5867,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5897,14 +5900,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>324</v>
+        <v>142</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>344</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5913,14 +5916,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>346</v>
+        <v>16</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5930,14 +5933,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>349</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5946,14 +5949,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>136</v>
+        <v>347</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5963,14 +5966,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>18</v>
+        <v>350</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5979,14 +5982,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5996,14 +5999,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>153</v>
+        <v>304</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -6012,7 +6015,7 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -6029,11 +6032,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>355</v>
+        <v>153</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -6045,28 +6048,28 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>358</v>
+        <v>12</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -6078,14 +6081,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6095,11 +6098,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>261</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -6111,14 +6114,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6128,11 +6131,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>365</v>
+        <v>261</v>
       </c>
       <c r="